--- a/data/raw/election/voters-age-sex-education/2023/Bursa.xlsx
+++ b/data/raw/election/voters-age-sex-education/2023/Bursa.xlsx
@@ -5,22 +5,21 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive - baskent.edu.tr\MAKALE\2024\5-anomaly-detection-in-elections\data\2023-iibs3-age_sex_education\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345"/>
   </bookViews>
   <sheets>
-    <sheet name="Kurtarılan_Sayfa1" sheetId="2" r:id="rId1"/>
+    <sheet name="18-10-2024-16:32:40-82649977310" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="46">
   <si>
     <t>Bursa</t>
   </si>
@@ -152,6 +151,12 @@
   </si>
   <si>
     <t>Yıldırım</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not. 1.Seçmenlerin yaşı, 14 Mayıs 2023 tarihine göre gün, ay ve yıl dikkate alınarak hesaplanmıştır. </t>
+  </si>
+  <si>
+    <t>2.Seçmenlerin eğitim durumu, Ulusal Eğitim İstatistikleri Veri Tabanı'ndan alınmıştır.</t>
   </si>
 </sst>
 </file>
@@ -685,7 +690,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
@@ -705,10 +710,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="%20 - Vurgu1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1033,10 +1047,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N446"/>
+  <dimension ref="A1:N448"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A413" workbookViewId="0">
-      <selection activeCell="A447" sqref="A447:A448"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1045,31 +1059,31 @@
     <col min="2" max="2" width="5.5703125" customWidth="1"/>
     <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" customWidth="1"/>
     <col min="7" max="7" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.140625" customWidth="1"/>
     <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7" customWidth="1"/>
+    <col min="13" max="13" width="6.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -2097,14 +2111,14 @@
         <v>12</v>
       </c>
       <c r="B30" s="6"/>
-      <c r="C30" s="5">
-        <v>1.177</v>
+      <c r="C30" s="7">
+        <v>1177</v>
       </c>
       <c r="D30" s="5">
         <v>690</v>
       </c>
-      <c r="E30" s="5">
-        <v>2.3050000000000002</v>
+      <c r="E30" s="7">
+        <v>2305</v>
       </c>
       <c r="F30" s="5">
         <v>842</v>
@@ -2112,8 +2126,8 @@
       <c r="G30" s="5">
         <v>833</v>
       </c>
-      <c r="H30" s="5">
-        <v>1.3520000000000001</v>
+      <c r="H30" s="7">
+        <v>1352</v>
       </c>
       <c r="I30" s="5">
         <v>569</v>
@@ -2127,8 +2141,8 @@
       <c r="L30" s="5">
         <v>18</v>
       </c>
-      <c r="M30" s="5">
-        <v>7.8330000000000002</v>
+      <c r="M30" s="7">
+        <v>7833</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -2192,8 +2206,8 @@
       <c r="G32" s="4">
         <v>996</v>
       </c>
-      <c r="H32" s="4">
-        <v>3.794</v>
+      <c r="H32" s="9">
+        <v>3794</v>
       </c>
       <c r="I32" s="4">
         <v>741</v>
@@ -2207,8 +2221,8 @@
       <c r="L32" s="4">
         <v>49</v>
       </c>
-      <c r="M32" s="5">
-        <v>5.6379999999999999</v>
+      <c r="M32" s="7">
+        <v>5638</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -2231,11 +2245,11 @@
       <c r="G33" s="4">
         <v>764</v>
       </c>
-      <c r="H33" s="4">
-        <v>3.4580000000000002</v>
-      </c>
-      <c r="I33" s="4">
-        <v>1.1120000000000001</v>
+      <c r="H33" s="9">
+        <v>3458</v>
+      </c>
+      <c r="I33" s="9">
+        <v>1112</v>
       </c>
       <c r="J33" s="4">
         <v>6</v>
@@ -2246,8 +2260,8 @@
       <c r="L33" s="4">
         <v>18</v>
       </c>
-      <c r="M33" s="5">
-        <v>5.4279999999999999</v>
+      <c r="M33" s="7">
+        <v>5428</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -2272,11 +2286,11 @@
       <c r="G34" s="4">
         <v>620</v>
       </c>
-      <c r="H34" s="4">
-        <v>1.8149999999999999</v>
-      </c>
-      <c r="I34" s="4">
-        <v>1.7589999999999999</v>
+      <c r="H34" s="9">
+        <v>1815</v>
+      </c>
+      <c r="I34" s="9">
+        <v>1759</v>
       </c>
       <c r="J34" s="4">
         <v>85</v>
@@ -2287,8 +2301,8 @@
       <c r="L34" s="4">
         <v>24</v>
       </c>
-      <c r="M34" s="5">
-        <v>4.38</v>
+      <c r="M34" s="7">
+        <v>4380</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -2311,11 +2325,11 @@
       <c r="G35" s="4">
         <v>628</v>
       </c>
-      <c r="H35" s="4">
-        <v>1.155</v>
-      </c>
-      <c r="I35" s="4">
-        <v>2.1280000000000001</v>
+      <c r="H35" s="9">
+        <v>1155</v>
+      </c>
+      <c r="I35" s="9">
+        <v>2128</v>
       </c>
       <c r="J35" s="4">
         <v>138</v>
@@ -2326,8 +2340,8 @@
       <c r="L35" s="4">
         <v>21</v>
       </c>
-      <c r="M35" s="5">
-        <v>4.2329999999999997</v>
+      <c r="M35" s="7">
+        <v>4233</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -2352,11 +2366,11 @@
       <c r="G36" s="4">
         <v>377</v>
       </c>
-      <c r="H36" s="4">
-        <v>1.724</v>
-      </c>
-      <c r="I36" s="4">
-        <v>1.6419999999999999</v>
+      <c r="H36" s="9">
+        <v>1724</v>
+      </c>
+      <c r="I36" s="9">
+        <v>1642</v>
       </c>
       <c r="J36" s="4">
         <v>147</v>
@@ -2367,8 +2381,8 @@
       <c r="L36" s="4">
         <v>23</v>
       </c>
-      <c r="M36" s="5">
-        <v>4.319</v>
+      <c r="M36" s="7">
+        <v>4319</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -2391,11 +2405,11 @@
       <c r="G37" s="4">
         <v>364</v>
       </c>
-      <c r="H37" s="4">
-        <v>1.228</v>
-      </c>
-      <c r="I37" s="4">
-        <v>1.736</v>
+      <c r="H37" s="9">
+        <v>1228</v>
+      </c>
+      <c r="I37" s="9">
+        <v>1736</v>
       </c>
       <c r="J37" s="4">
         <v>143</v>
@@ -2406,8 +2420,8 @@
       <c r="L37" s="4">
         <v>39</v>
       </c>
-      <c r="M37" s="5">
-        <v>4.194</v>
+      <c r="M37" s="7">
+        <v>4194</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -2432,11 +2446,11 @@
       <c r="G38" s="4">
         <v>424</v>
       </c>
-      <c r="H38" s="4">
-        <v>1.7969999999999999</v>
-      </c>
-      <c r="I38" s="4">
-        <v>1.323</v>
+      <c r="H38" s="9">
+        <v>1797</v>
+      </c>
+      <c r="I38" s="9">
+        <v>1323</v>
       </c>
       <c r="J38" s="4">
         <v>119</v>
@@ -2447,8 +2461,8 @@
       <c r="L38" s="4">
         <v>27</v>
       </c>
-      <c r="M38" s="5">
-        <v>4.4509999999999996</v>
+      <c r="M38" s="7">
+        <v>4451</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -2471,11 +2485,11 @@
       <c r="G39" s="4">
         <v>477</v>
       </c>
-      <c r="H39" s="4">
-        <v>1.361</v>
-      </c>
-      <c r="I39" s="4">
-        <v>1.23</v>
+      <c r="H39" s="9">
+        <v>1361</v>
+      </c>
+      <c r="I39" s="9">
+        <v>1230</v>
       </c>
       <c r="J39" s="4">
         <v>138</v>
@@ -2486,8 +2500,8 @@
       <c r="L39" s="4">
         <v>27</v>
       </c>
-      <c r="M39" s="5">
-        <v>4.3550000000000004</v>
+      <c r="M39" s="7">
+        <v>4355</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -2512,11 +2526,11 @@
       <c r="G40" s="4">
         <v>703</v>
       </c>
-      <c r="H40" s="4">
-        <v>1.907</v>
-      </c>
-      <c r="I40" s="4">
-        <v>1.101</v>
+      <c r="H40" s="9">
+        <v>1907</v>
+      </c>
+      <c r="I40" s="9">
+        <v>1101</v>
       </c>
       <c r="J40" s="4">
         <v>127</v>
@@ -2527,8 +2541,8 @@
       <c r="L40" s="4">
         <v>40</v>
       </c>
-      <c r="M40" s="5">
-        <v>4.9130000000000003</v>
+      <c r="M40" s="7">
+        <v>4913</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -2551,8 +2565,8 @@
       <c r="G41" s="4">
         <v>797</v>
       </c>
-      <c r="H41" s="4">
-        <v>1.54</v>
+      <c r="H41" s="9">
+        <v>1540</v>
       </c>
       <c r="I41" s="4">
         <v>965</v>
@@ -2566,8 +2580,8 @@
       <c r="L41" s="4">
         <v>34</v>
       </c>
-      <c r="M41" s="5">
-        <v>4.9560000000000004</v>
+      <c r="M41" s="7">
+        <v>4956</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -2592,8 +2606,8 @@
       <c r="G42" s="4">
         <v>703</v>
       </c>
-      <c r="H42" s="4">
-        <v>1.651</v>
+      <c r="H42" s="9">
+        <v>1651</v>
       </c>
       <c r="I42" s="4">
         <v>856</v>
@@ -2607,8 +2621,8 @@
       <c r="L42" s="4">
         <v>29</v>
       </c>
-      <c r="M42" s="5">
-        <v>4.4569999999999999</v>
+      <c r="M42" s="7">
+        <v>4457</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -2622,8 +2636,8 @@
       <c r="D43" s="4">
         <v>51</v>
       </c>
-      <c r="E43" s="4">
-        <v>1.0389999999999999</v>
+      <c r="E43" s="9">
+        <v>1039</v>
       </c>
       <c r="F43" s="4">
         <v>562</v>
@@ -2631,8 +2645,8 @@
       <c r="G43" s="4">
         <v>788</v>
       </c>
-      <c r="H43" s="4">
-        <v>1.2090000000000001</v>
+      <c r="H43" s="9">
+        <v>1209</v>
       </c>
       <c r="I43" s="4">
         <v>571</v>
@@ -2646,8 +2660,8 @@
       <c r="L43" s="4">
         <v>29</v>
       </c>
-      <c r="M43" s="5">
-        <v>4.3360000000000003</v>
+      <c r="M43" s="7">
+        <v>4336</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -2672,8 +2686,8 @@
       <c r="G44" s="4">
         <v>678</v>
       </c>
-      <c r="H44" s="4">
-        <v>1.2150000000000001</v>
+      <c r="H44" s="9">
+        <v>1215</v>
       </c>
       <c r="I44" s="4">
         <v>573</v>
@@ -2687,8 +2701,8 @@
       <c r="L44" s="4">
         <v>34</v>
       </c>
-      <c r="M44" s="5">
-        <v>3.903</v>
+      <c r="M44" s="7">
+        <v>3903</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -2702,8 +2716,8 @@
       <c r="D45" s="4">
         <v>62</v>
       </c>
-      <c r="E45" s="4">
-        <v>1.1990000000000001</v>
+      <c r="E45" s="9">
+        <v>1199</v>
       </c>
       <c r="F45" s="4">
         <v>601</v>
@@ -2726,8 +2740,8 @@
       <c r="L45" s="4">
         <v>31</v>
       </c>
-      <c r="M45" s="5">
-        <v>3.93</v>
+      <c r="M45" s="7">
+        <v>3930</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -2752,8 +2766,8 @@
       <c r="G46" s="4">
         <v>750</v>
       </c>
-      <c r="H46" s="4">
-        <v>1.046</v>
+      <c r="H46" s="9">
+        <v>1046</v>
       </c>
       <c r="I46" s="4">
         <v>393</v>
@@ -2767,8 +2781,8 @@
       <c r="L46" s="4">
         <v>53</v>
       </c>
-      <c r="M46" s="5">
-        <v>3.6349999999999998</v>
+      <c r="M46" s="7">
+        <v>3635</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -2782,8 +2796,8 @@
       <c r="D47" s="4">
         <v>118</v>
       </c>
-      <c r="E47" s="4">
-        <v>1.5289999999999999</v>
+      <c r="E47" s="9">
+        <v>1529</v>
       </c>
       <c r="F47" s="4">
         <v>449</v>
@@ -2806,8 +2820,8 @@
       <c r="L47" s="4">
         <v>49</v>
       </c>
-      <c r="M47" s="5">
-        <v>3.8</v>
+      <c r="M47" s="7">
+        <v>3800</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
@@ -2847,8 +2861,8 @@
       <c r="L48" s="4">
         <v>72</v>
       </c>
-      <c r="M48" s="5">
-        <v>3.2589999999999999</v>
+      <c r="M48" s="7">
+        <v>3259</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -2862,8 +2876,8 @@
       <c r="D49" s="4">
         <v>186</v>
       </c>
-      <c r="E49" s="4">
-        <v>1.7629999999999999</v>
+      <c r="E49" s="9">
+        <v>1763</v>
       </c>
       <c r="F49" s="4">
         <v>224</v>
@@ -2886,8 +2900,8 @@
       <c r="L49" s="4">
         <v>52</v>
       </c>
-      <c r="M49" s="5">
-        <v>3.4689999999999999</v>
+      <c r="M49" s="7">
+        <v>3469</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
@@ -2903,8 +2917,8 @@
       <c r="D50" s="4">
         <v>41</v>
       </c>
-      <c r="E50" s="4">
-        <v>1.175</v>
+      <c r="E50" s="9">
+        <v>1175</v>
       </c>
       <c r="F50" s="4">
         <v>202</v>
@@ -2927,8 +2941,8 @@
       <c r="L50" s="4">
         <v>57</v>
       </c>
-      <c r="M50" s="5">
-        <v>2.746</v>
+      <c r="M50" s="7">
+        <v>2746</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
@@ -2942,8 +2956,8 @@
       <c r="D51" s="4">
         <v>214</v>
       </c>
-      <c r="E51" s="4">
-        <v>1.649</v>
+      <c r="E51" s="9">
+        <v>1649</v>
       </c>
       <c r="F51" s="4">
         <v>94</v>
@@ -2966,8 +2980,8 @@
       <c r="L51" s="4">
         <v>48</v>
       </c>
-      <c r="M51" s="5">
-        <v>2.9590000000000001</v>
+      <c r="M51" s="7">
+        <v>2959</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
@@ -2983,8 +2997,8 @@
       <c r="D52" s="4">
         <v>72</v>
       </c>
-      <c r="E52" s="4">
-        <v>1.111</v>
+      <c r="E52" s="9">
+        <v>1111</v>
       </c>
       <c r="F52" s="4">
         <v>60</v>
@@ -3007,8 +3021,8 @@
       <c r="L52" s="4">
         <v>52</v>
       </c>
-      <c r="M52" s="5">
-        <v>2.0409999999999999</v>
+      <c r="M52" s="7">
+        <v>2041</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
@@ -3022,8 +3036,8 @@
       <c r="D53" s="4">
         <v>247</v>
       </c>
-      <c r="E53" s="4">
-        <v>1.1910000000000001</v>
+      <c r="E53" s="9">
+        <v>1191</v>
       </c>
       <c r="F53" s="4">
         <v>30</v>
@@ -3046,8 +3060,8 @@
       <c r="L53" s="4">
         <v>41</v>
       </c>
-      <c r="M53" s="5">
-        <v>2.1309999999999998</v>
+      <c r="M53" s="7">
+        <v>2131</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
@@ -3063,8 +3077,8 @@
       <c r="D54" s="4">
         <v>139</v>
       </c>
-      <c r="E54" s="4">
-        <v>1.141</v>
+      <c r="E54" s="9">
+        <v>1141</v>
       </c>
       <c r="F54" s="4">
         <v>30</v>
@@ -3087,8 +3101,8 @@
       <c r="L54" s="4">
         <v>48</v>
       </c>
-      <c r="M54" s="5">
-        <v>2.0499999999999998</v>
+      <c r="M54" s="7">
+        <v>2050</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
@@ -3102,8 +3116,8 @@
       <c r="D55" s="4">
         <v>400</v>
       </c>
-      <c r="E55" s="4">
-        <v>1.478</v>
+      <c r="E55" s="9">
+        <v>1478</v>
       </c>
       <c r="F55" s="4">
         <v>10</v>
@@ -3126,8 +3140,8 @@
       <c r="L55" s="4">
         <v>61</v>
       </c>
-      <c r="M55" s="5">
-        <v>2.8849999999999998</v>
+      <c r="M55" s="7">
+        <v>2885</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
@@ -3135,29 +3149,29 @@
         <v>12</v>
       </c>
       <c r="B56" s="6"/>
-      <c r="C56" s="5">
-        <v>1.6619999999999999</v>
-      </c>
-      <c r="D56" s="5">
-        <v>1.954</v>
-      </c>
-      <c r="E56" s="5">
-        <v>18.138999999999999</v>
-      </c>
-      <c r="F56" s="5">
-        <v>7.9160000000000004</v>
-      </c>
-      <c r="G56" s="5">
-        <v>12.436999999999999</v>
-      </c>
-      <c r="H56" s="5">
-        <v>29.795999999999999</v>
-      </c>
-      <c r="I56" s="5">
-        <v>18.149000000000001</v>
-      </c>
-      <c r="J56" s="5">
-        <v>1.3480000000000001</v>
+      <c r="C56" s="7">
+        <v>1662</v>
+      </c>
+      <c r="D56" s="7">
+        <v>1954</v>
+      </c>
+      <c r="E56" s="7">
+        <v>18139</v>
+      </c>
+      <c r="F56" s="7">
+        <v>7916</v>
+      </c>
+      <c r="G56" s="7">
+        <v>12437</v>
+      </c>
+      <c r="H56" s="7">
+        <v>29796</v>
+      </c>
+      <c r="I56" s="7">
+        <v>18149</v>
+      </c>
+      <c r="J56" s="7">
+        <v>1348</v>
       </c>
       <c r="K56" s="5">
         <v>109</v>
@@ -3165,8 +3179,8 @@
       <c r="L56" s="5">
         <v>958</v>
       </c>
-      <c r="M56" s="5">
-        <v>92.468000000000004</v>
+      <c r="M56" s="7">
+        <v>92468</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -3227,11 +3241,11 @@
       <c r="F58" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G58" s="4">
-        <v>1.369</v>
-      </c>
-      <c r="H58" s="4">
-        <v>2.9489999999999998</v>
+      <c r="G58" s="9">
+        <v>1369</v>
+      </c>
+      <c r="H58" s="9">
+        <v>2949</v>
       </c>
       <c r="I58" s="4">
         <v>485</v>
@@ -3245,8 +3259,8 @@
       <c r="L58" s="4">
         <v>203</v>
       </c>
-      <c r="M58" s="5">
-        <v>5.0519999999999996</v>
+      <c r="M58" s="7">
+        <v>5052</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
@@ -3266,11 +3280,11 @@
       <c r="F59" s="4">
         <v>3</v>
       </c>
-      <c r="G59" s="4">
-        <v>1.105</v>
-      </c>
-      <c r="H59" s="4">
-        <v>2.7850000000000001</v>
+      <c r="G59" s="9">
+        <v>1105</v>
+      </c>
+      <c r="H59" s="9">
+        <v>2785</v>
       </c>
       <c r="I59" s="4">
         <v>748</v>
@@ -3284,8 +3298,8 @@
       <c r="L59" s="4">
         <v>266</v>
       </c>
-      <c r="M59" s="5">
-        <v>5.016</v>
+      <c r="M59" s="7">
+        <v>5016</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
@@ -3310,11 +3324,11 @@
       <c r="G60" s="4">
         <v>993</v>
       </c>
-      <c r="H60" s="4">
-        <v>1.21</v>
-      </c>
-      <c r="I60" s="4">
-        <v>1.075</v>
+      <c r="H60" s="9">
+        <v>1210</v>
+      </c>
+      <c r="I60" s="9">
+        <v>1075</v>
       </c>
       <c r="J60" s="4">
         <v>52</v>
@@ -3325,8 +3339,8 @@
       <c r="L60" s="4">
         <v>303</v>
       </c>
-      <c r="M60" s="5">
-        <v>3.758</v>
+      <c r="M60" s="7">
+        <v>3758</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
@@ -3349,11 +3363,11 @@
       <c r="G61" s="4">
         <v>841</v>
       </c>
-      <c r="H61" s="4">
-        <v>1.016</v>
-      </c>
-      <c r="I61" s="4">
-        <v>1.286</v>
+      <c r="H61" s="9">
+        <v>1016</v>
+      </c>
+      <c r="I61" s="9">
+        <v>1286</v>
       </c>
       <c r="J61" s="4">
         <v>79</v>
@@ -3364,8 +3378,8 @@
       <c r="L61" s="4">
         <v>421</v>
       </c>
-      <c r="M61" s="5">
-        <v>3.923</v>
+      <c r="M61" s="7">
+        <v>3923</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
@@ -3390,8 +3404,8 @@
       <c r="G62" s="4">
         <v>502</v>
       </c>
-      <c r="H62" s="4">
-        <v>1.379</v>
+      <c r="H62" s="9">
+        <v>1379</v>
       </c>
       <c r="I62" s="4">
         <v>942</v>
@@ -3405,8 +3419,8 @@
       <c r="L62" s="4">
         <v>353</v>
       </c>
-      <c r="M62" s="5">
-        <v>3.9849999999999999</v>
+      <c r="M62" s="7">
+        <v>3985</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
@@ -3429,8 +3443,8 @@
       <c r="G63" s="4">
         <v>431</v>
       </c>
-      <c r="H63" s="4">
-        <v>1.089</v>
+      <c r="H63" s="9">
+        <v>1089</v>
       </c>
       <c r="I63" s="4">
         <v>911</v>
@@ -3444,8 +3458,8 @@
       <c r="L63" s="4">
         <v>399</v>
       </c>
-      <c r="M63" s="5">
-        <v>3.9249999999999998</v>
+      <c r="M63" s="7">
+        <v>3925</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
@@ -3470,8 +3484,8 @@
       <c r="G64" s="4">
         <v>436</v>
       </c>
-      <c r="H64" s="4">
-        <v>1.5860000000000001</v>
+      <c r="H64" s="9">
+        <v>1586</v>
       </c>
       <c r="I64" s="4">
         <v>735</v>
@@ -3485,8 +3499,8 @@
       <c r="L64" s="4">
         <v>352</v>
       </c>
-      <c r="M64" s="5">
-        <v>4.1689999999999996</v>
+      <c r="M64" s="7">
+        <v>4169</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
@@ -3509,8 +3523,8 @@
       <c r="G65" s="4">
         <v>417</v>
       </c>
-      <c r="H65" s="4">
-        <v>1.0649999999999999</v>
+      <c r="H65" s="9">
+        <v>1065</v>
       </c>
       <c r="I65" s="4">
         <v>537</v>
@@ -3524,8 +3538,8 @@
       <c r="L65" s="4">
         <v>309</v>
       </c>
-      <c r="M65" s="5">
-        <v>3.903</v>
+      <c r="M65" s="7">
+        <v>3903</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
@@ -3550,8 +3564,8 @@
       <c r="G66" s="4">
         <v>750</v>
       </c>
-      <c r="H66" s="4">
-        <v>1.484</v>
+      <c r="H66" s="9">
+        <v>1484</v>
       </c>
       <c r="I66" s="4">
         <v>504</v>
@@ -3565,8 +3579,8 @@
       <c r="L66" s="4">
         <v>258</v>
       </c>
-      <c r="M66" s="5">
-        <v>3.9940000000000002</v>
+      <c r="M66" s="7">
+        <v>3994</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
@@ -3580,8 +3594,8 @@
       <c r="D67" s="4">
         <v>65</v>
       </c>
-      <c r="E67" s="4">
-        <v>1.0569999999999999</v>
+      <c r="E67" s="9">
+        <v>1057</v>
       </c>
       <c r="F67" s="4">
         <v>497</v>
@@ -3604,8 +3618,8 @@
       <c r="L67" s="4">
         <v>259</v>
       </c>
-      <c r="M67" s="5">
-        <v>3.8969999999999998</v>
+      <c r="M67" s="7">
+        <v>3897</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
@@ -3630,8 +3644,8 @@
       <c r="G68" s="4">
         <v>566</v>
       </c>
-      <c r="H68" s="4">
-        <v>1.0900000000000001</v>
+      <c r="H68" s="9">
+        <v>1090</v>
       </c>
       <c r="I68" s="4">
         <v>359</v>
@@ -3645,8 +3659,8 @@
       <c r="L68" s="4">
         <v>198</v>
       </c>
-      <c r="M68" s="5">
-        <v>3.2240000000000002</v>
+      <c r="M68" s="7">
+        <v>3224</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
@@ -3684,8 +3698,8 @@
       <c r="L69" s="4">
         <v>217</v>
       </c>
-      <c r="M69" s="5">
-        <v>3.04</v>
+      <c r="M69" s="7">
+        <v>3040</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
@@ -3725,8 +3739,8 @@
       <c r="L70" s="4">
         <v>211</v>
       </c>
-      <c r="M70" s="5">
-        <v>2.8980000000000001</v>
+      <c r="M70" s="7">
+        <v>2898</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
@@ -3740,8 +3754,8 @@
       <c r="D71" s="4">
         <v>78</v>
       </c>
-      <c r="E71" s="4">
-        <v>1.038</v>
+      <c r="E71" s="9">
+        <v>1038</v>
       </c>
       <c r="F71" s="4">
         <v>410</v>
@@ -3764,8 +3778,8 @@
       <c r="L71" s="4">
         <v>239</v>
       </c>
-      <c r="M71" s="5">
-        <v>2.79</v>
+      <c r="M71" s="7">
+        <v>2790</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
@@ -3805,8 +3819,8 @@
       <c r="L72" s="4">
         <v>250</v>
       </c>
-      <c r="M72" s="5">
-        <v>2.532</v>
+      <c r="M72" s="7">
+        <v>2532</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
@@ -3820,8 +3834,8 @@
       <c r="D73" s="4">
         <v>112</v>
       </c>
-      <c r="E73" s="4">
-        <v>1.028</v>
+      <c r="E73" s="9">
+        <v>1028</v>
       </c>
       <c r="F73" s="4">
         <v>276</v>
@@ -3844,8 +3858,8 @@
       <c r="L73" s="4">
         <v>282</v>
       </c>
-      <c r="M73" s="5">
-        <v>2.5099999999999998</v>
+      <c r="M73" s="7">
+        <v>2510</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
@@ -3885,8 +3899,8 @@
       <c r="L74" s="4">
         <v>194</v>
       </c>
-      <c r="M74" s="5">
-        <v>1.9950000000000001</v>
+      <c r="M74" s="7">
+        <v>1995</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
@@ -3924,8 +3938,8 @@
       <c r="L75" s="4">
         <v>226</v>
       </c>
-      <c r="M75" s="5">
-        <v>1.9970000000000001</v>
+      <c r="M75" s="7">
+        <v>1997</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
@@ -3965,8 +3979,8 @@
       <c r="L76" s="4">
         <v>104</v>
       </c>
-      <c r="M76" s="5">
-        <v>1.4470000000000001</v>
+      <c r="M76" s="7">
+        <v>1447</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
@@ -4004,8 +4018,8 @@
       <c r="L77" s="4">
         <v>120</v>
       </c>
-      <c r="M77" s="5">
-        <v>1.5980000000000001</v>
+      <c r="M77" s="7">
+        <v>1598</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
@@ -4164,8 +4178,8 @@
       <c r="L81" s="4">
         <v>49</v>
       </c>
-      <c r="M81" s="5">
-        <v>1.2270000000000001</v>
+      <c r="M81" s="7">
+        <v>1227</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
@@ -4173,26 +4187,26 @@
         <v>12</v>
       </c>
       <c r="B82" s="6"/>
-      <c r="C82" s="5">
-        <v>1.556</v>
-      </c>
-      <c r="D82" s="5">
-        <v>1.5469999999999999</v>
-      </c>
-      <c r="E82" s="5">
-        <v>12.039</v>
-      </c>
-      <c r="F82" s="5">
-        <v>7.2770000000000001</v>
-      </c>
-      <c r="G82" s="5">
-        <v>11.188000000000001</v>
-      </c>
-      <c r="H82" s="5">
-        <v>20.530999999999999</v>
-      </c>
-      <c r="I82" s="5">
-        <v>9.3840000000000003</v>
+      <c r="C82" s="7">
+        <v>1556</v>
+      </c>
+      <c r="D82" s="7">
+        <v>1547</v>
+      </c>
+      <c r="E82" s="7">
+        <v>12039</v>
+      </c>
+      <c r="F82" s="7">
+        <v>7277</v>
+      </c>
+      <c r="G82" s="7">
+        <v>11188</v>
+      </c>
+      <c r="H82" s="7">
+        <v>20531</v>
+      </c>
+      <c r="I82" s="7">
+        <v>9384</v>
       </c>
       <c r="J82" s="5">
         <v>566</v>
@@ -4200,11 +4214,11 @@
       <c r="K82" s="5">
         <v>37</v>
       </c>
-      <c r="L82" s="5">
-        <v>5.3579999999999997</v>
-      </c>
-      <c r="M82" s="5">
-        <v>69.483000000000004</v>
+      <c r="L82" s="7">
+        <v>5358</v>
+      </c>
+      <c r="M82" s="7">
+        <v>69483</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -5217,8 +5231,8 @@
       <c r="D108" s="5">
         <v>257</v>
       </c>
-      <c r="E108" s="5">
-        <v>1.619</v>
+      <c r="E108" s="7">
+        <v>1619</v>
       </c>
       <c r="F108" s="5">
         <v>525</v>
@@ -5226,8 +5240,8 @@
       <c r="G108" s="5">
         <v>570</v>
       </c>
-      <c r="H108" s="5">
-        <v>1.159</v>
+      <c r="H108" s="7">
+        <v>1159</v>
       </c>
       <c r="I108" s="5">
         <v>526</v>
@@ -5241,8 +5255,8 @@
       <c r="L108" s="5">
         <v>35</v>
       </c>
-      <c r="M108" s="5">
-        <v>5.1909999999999998</v>
+      <c r="M108" s="7">
+        <v>5191</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -5303,14 +5317,14 @@
       <c r="F110" s="4">
         <v>4</v>
       </c>
-      <c r="G110" s="4">
-        <v>4.7069999999999999</v>
-      </c>
-      <c r="H110" s="4">
-        <v>8.9380000000000006</v>
-      </c>
-      <c r="I110" s="4">
-        <v>1.4330000000000001</v>
+      <c r="G110" s="9">
+        <v>4707</v>
+      </c>
+      <c r="H110" s="9">
+        <v>8938</v>
+      </c>
+      <c r="I110" s="9">
+        <v>1433</v>
       </c>
       <c r="J110" s="4">
         <v>13</v>
@@ -5321,8 +5335,8 @@
       <c r="L110" s="4">
         <v>363</v>
       </c>
-      <c r="M110" s="5">
-        <v>15.616</v>
+      <c r="M110" s="7">
+        <v>15616</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
@@ -5342,14 +5356,14 @@
       <c r="F111" s="4">
         <v>8</v>
       </c>
-      <c r="G111" s="4">
-        <v>3.31</v>
-      </c>
-      <c r="H111" s="4">
-        <v>8.7469999999999999</v>
-      </c>
-      <c r="I111" s="4">
-        <v>2.4609999999999999</v>
+      <c r="G111" s="9">
+        <v>3310</v>
+      </c>
+      <c r="H111" s="9">
+        <v>8747</v>
+      </c>
+      <c r="I111" s="9">
+        <v>2461</v>
       </c>
       <c r="J111" s="4">
         <v>17</v>
@@ -5360,8 +5374,8 @@
       <c r="L111" s="4">
         <v>414</v>
       </c>
-      <c r="M111" s="5">
-        <v>15.182</v>
+      <c r="M111" s="7">
+        <v>15182</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
@@ -5383,14 +5397,14 @@
       <c r="F112" s="4">
         <v>114</v>
       </c>
-      <c r="G112" s="4">
-        <v>3.6230000000000002</v>
-      </c>
-      <c r="H112" s="4">
-        <v>3.62</v>
-      </c>
-      <c r="I112" s="4">
-        <v>3.419</v>
+      <c r="G112" s="9">
+        <v>3623</v>
+      </c>
+      <c r="H112" s="9">
+        <v>3620</v>
+      </c>
+      <c r="I112" s="9">
+        <v>3419</v>
       </c>
       <c r="J112" s="4">
         <v>160</v>
@@ -5401,8 +5415,8 @@
       <c r="L112" s="4">
         <v>478</v>
       </c>
-      <c r="M112" s="5">
-        <v>11.571999999999999</v>
+      <c r="M112" s="7">
+        <v>11572</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
@@ -5422,14 +5436,14 @@
       <c r="F113" s="4">
         <v>149</v>
       </c>
-      <c r="G113" s="4">
-        <v>2.544</v>
-      </c>
-      <c r="H113" s="4">
-        <v>3.12</v>
-      </c>
-      <c r="I113" s="4">
-        <v>4.0880000000000001</v>
+      <c r="G113" s="9">
+        <v>2544</v>
+      </c>
+      <c r="H113" s="9">
+        <v>3120</v>
+      </c>
+      <c r="I113" s="9">
+        <v>4088</v>
       </c>
       <c r="J113" s="4">
         <v>251</v>
@@ -5440,8 +5454,8 @@
       <c r="L113" s="4">
         <v>564</v>
       </c>
-      <c r="M113" s="5">
-        <v>11.183999999999999</v>
+      <c r="M113" s="7">
+        <v>11184</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
@@ -5460,17 +5474,17 @@
       <c r="E114" s="4">
         <v>137</v>
       </c>
-      <c r="F114" s="4">
-        <v>2.0510000000000002</v>
-      </c>
-      <c r="G114" s="4">
-        <v>1.47</v>
-      </c>
-      <c r="H114" s="4">
-        <v>3.319</v>
-      </c>
-      <c r="I114" s="4">
-        <v>2.964</v>
+      <c r="F114" s="9">
+        <v>2051</v>
+      </c>
+      <c r="G114" s="9">
+        <v>1470</v>
+      </c>
+      <c r="H114" s="9">
+        <v>3319</v>
+      </c>
+      <c r="I114" s="9">
+        <v>2964</v>
       </c>
       <c r="J114" s="4">
         <v>252</v>
@@ -5481,8 +5495,8 @@
       <c r="L114" s="4">
         <v>546</v>
       </c>
-      <c r="M114" s="5">
-        <v>10.895</v>
+      <c r="M114" s="7">
+        <v>10895</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
@@ -5499,17 +5513,17 @@
       <c r="E115" s="4">
         <v>258</v>
       </c>
-      <c r="F115" s="4">
-        <v>2.17</v>
-      </c>
-      <c r="G115" s="4">
-        <v>1.0589999999999999</v>
-      </c>
-      <c r="H115" s="4">
-        <v>2.952</v>
-      </c>
-      <c r="I115" s="4">
-        <v>3.1280000000000001</v>
+      <c r="F115" s="9">
+        <v>2170</v>
+      </c>
+      <c r="G115" s="9">
+        <v>1059</v>
+      </c>
+      <c r="H115" s="9">
+        <v>2952</v>
+      </c>
+      <c r="I115" s="9">
+        <v>3128</v>
       </c>
       <c r="J115" s="4">
         <v>280</v>
@@ -5520,8 +5534,8 @@
       <c r="L115" s="4">
         <v>603</v>
       </c>
-      <c r="M115" s="5">
-        <v>10.925000000000001</v>
+      <c r="M115" s="7">
+        <v>10925</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
@@ -5540,17 +5554,17 @@
       <c r="E116" s="4">
         <v>713</v>
       </c>
-      <c r="F116" s="4">
-        <v>2.3439999999999999</v>
-      </c>
-      <c r="G116" s="4">
-        <v>1.137</v>
-      </c>
-      <c r="H116" s="4">
-        <v>3.722</v>
-      </c>
-      <c r="I116" s="4">
-        <v>2.5219999999999998</v>
+      <c r="F116" s="9">
+        <v>2344</v>
+      </c>
+      <c r="G116" s="9">
+        <v>1137</v>
+      </c>
+      <c r="H116" s="9">
+        <v>3722</v>
+      </c>
+      <c r="I116" s="9">
+        <v>2522</v>
       </c>
       <c r="J116" s="4">
         <v>255</v>
@@ -5561,8 +5575,8 @@
       <c r="L116" s="4">
         <v>507</v>
       </c>
-      <c r="M116" s="5">
-        <v>11.331</v>
+      <c r="M116" s="7">
+        <v>11331</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
@@ -5576,20 +5590,20 @@
       <c r="D117" s="4">
         <v>211</v>
       </c>
-      <c r="E117" s="4">
-        <v>1.923</v>
-      </c>
-      <c r="F117" s="4">
-        <v>1.9350000000000001</v>
-      </c>
-      <c r="G117" s="4">
-        <v>1.2030000000000001</v>
-      </c>
-      <c r="H117" s="4">
-        <v>2.8879999999999999</v>
-      </c>
-      <c r="I117" s="4">
-        <v>2.0169999999999999</v>
+      <c r="E117" s="9">
+        <v>1923</v>
+      </c>
+      <c r="F117" s="9">
+        <v>1935</v>
+      </c>
+      <c r="G117" s="9">
+        <v>1203</v>
+      </c>
+      <c r="H117" s="9">
+        <v>2888</v>
+      </c>
+      <c r="I117" s="9">
+        <v>2017</v>
       </c>
       <c r="J117" s="4">
         <v>191</v>
@@ -5600,8 +5614,8 @@
       <c r="L117" s="4">
         <v>497</v>
       </c>
-      <c r="M117" s="5">
-        <v>10.976000000000001</v>
+      <c r="M117" s="7">
+        <v>10976</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
@@ -5617,20 +5631,20 @@
       <c r="D118" s="4">
         <v>37</v>
       </c>
-      <c r="E118" s="4">
-        <v>1.409</v>
-      </c>
-      <c r="F118" s="4">
-        <v>1.744</v>
-      </c>
-      <c r="G118" s="4">
-        <v>2.1989999999999998</v>
-      </c>
-      <c r="H118" s="4">
-        <v>3.855</v>
-      </c>
-      <c r="I118" s="4">
-        <v>1.7350000000000001</v>
+      <c r="E118" s="9">
+        <v>1409</v>
+      </c>
+      <c r="F118" s="9">
+        <v>1744</v>
+      </c>
+      <c r="G118" s="9">
+        <v>2199</v>
+      </c>
+      <c r="H118" s="9">
+        <v>3855</v>
+      </c>
+      <c r="I118" s="9">
+        <v>1735</v>
       </c>
       <c r="J118" s="4">
         <v>224</v>
@@ -5641,8 +5655,8 @@
       <c r="L118" s="4">
         <v>384</v>
       </c>
-      <c r="M118" s="5">
-        <v>11.616</v>
+      <c r="M118" s="7">
+        <v>11616</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
@@ -5656,20 +5670,20 @@
       <c r="D119" s="4">
         <v>175</v>
       </c>
-      <c r="E119" s="4">
-        <v>3.0910000000000002</v>
-      </c>
-      <c r="F119" s="4">
-        <v>1.4510000000000001</v>
-      </c>
-      <c r="G119" s="4">
-        <v>1.875</v>
-      </c>
-      <c r="H119" s="4">
-        <v>2.6230000000000002</v>
-      </c>
-      <c r="I119" s="4">
-        <v>1.2030000000000001</v>
+      <c r="E119" s="9">
+        <v>3091</v>
+      </c>
+      <c r="F119" s="9">
+        <v>1451</v>
+      </c>
+      <c r="G119" s="9">
+        <v>1875</v>
+      </c>
+      <c r="H119" s="9">
+        <v>2623</v>
+      </c>
+      <c r="I119" s="9">
+        <v>1203</v>
       </c>
       <c r="J119" s="4">
         <v>160</v>
@@ -5680,8 +5694,8 @@
       <c r="L119" s="4">
         <v>370</v>
       </c>
-      <c r="M119" s="5">
-        <v>11.055999999999999</v>
+      <c r="M119" s="7">
+        <v>11056</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
@@ -5697,20 +5711,20 @@
       <c r="D120" s="4">
         <v>26</v>
       </c>
-      <c r="E120" s="4">
-        <v>1.7989999999999999</v>
-      </c>
-      <c r="F120" s="4">
-        <v>1.9530000000000001</v>
-      </c>
-      <c r="G120" s="4">
-        <v>1.7110000000000001</v>
-      </c>
-      <c r="H120" s="4">
-        <v>2.88</v>
-      </c>
-      <c r="I120" s="4">
-        <v>1.2310000000000001</v>
+      <c r="E120" s="9">
+        <v>1799</v>
+      </c>
+      <c r="F120" s="9">
+        <v>1953</v>
+      </c>
+      <c r="G120" s="9">
+        <v>1711</v>
+      </c>
+      <c r="H120" s="9">
+        <v>2880</v>
+      </c>
+      <c r="I120" s="9">
+        <v>1231</v>
       </c>
       <c r="J120" s="4">
         <v>135</v>
@@ -5721,8 +5735,8 @@
       <c r="L120" s="4">
         <v>328</v>
       </c>
-      <c r="M120" s="5">
-        <v>10.105</v>
+      <c r="M120" s="7">
+        <v>10105</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
@@ -5736,17 +5750,17 @@
       <c r="D121" s="4">
         <v>123</v>
       </c>
-      <c r="E121" s="4">
-        <v>3.49</v>
-      </c>
-      <c r="F121" s="4">
-        <v>1.49</v>
-      </c>
-      <c r="G121" s="4">
-        <v>1.5720000000000001</v>
-      </c>
-      <c r="H121" s="4">
-        <v>1.8480000000000001</v>
+      <c r="E121" s="9">
+        <v>3490</v>
+      </c>
+      <c r="F121" s="9">
+        <v>1490</v>
+      </c>
+      <c r="G121" s="9">
+        <v>1572</v>
+      </c>
+      <c r="H121" s="9">
+        <v>1848</v>
       </c>
       <c r="I121" s="4">
         <v>659</v>
@@ -5760,8 +5774,8 @@
       <c r="L121" s="4">
         <v>339</v>
       </c>
-      <c r="M121" s="5">
-        <v>9.7149999999999999</v>
+      <c r="M121" s="7">
+        <v>9715</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
@@ -5777,17 +5791,17 @@
       <c r="D122" s="4">
         <v>27</v>
       </c>
-      <c r="E122" s="4">
-        <v>1.9259999999999999</v>
-      </c>
-      <c r="F122" s="4">
-        <v>1.8560000000000001</v>
-      </c>
-      <c r="G122" s="4">
-        <v>1.6870000000000001</v>
-      </c>
-      <c r="H122" s="4">
-        <v>2.0819999999999999</v>
+      <c r="E122" s="9">
+        <v>1926</v>
+      </c>
+      <c r="F122" s="9">
+        <v>1856</v>
+      </c>
+      <c r="G122" s="9">
+        <v>1687</v>
+      </c>
+      <c r="H122" s="9">
+        <v>2082</v>
       </c>
       <c r="I122" s="4">
         <v>900</v>
@@ -5801,8 +5815,8 @@
       <c r="L122" s="4">
         <v>309</v>
       </c>
-      <c r="M122" s="5">
-        <v>8.9269999999999996</v>
+      <c r="M122" s="7">
+        <v>8927</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.25">
@@ -5816,17 +5830,17 @@
       <c r="D123" s="4">
         <v>146</v>
       </c>
-      <c r="E123" s="4">
-        <v>3.7069999999999999</v>
-      </c>
-      <c r="F123" s="4">
-        <v>1.391</v>
-      </c>
-      <c r="G123" s="4">
-        <v>1.3320000000000001</v>
-      </c>
-      <c r="H123" s="4">
-        <v>1.206</v>
+      <c r="E123" s="9">
+        <v>3707</v>
+      </c>
+      <c r="F123" s="9">
+        <v>1391</v>
+      </c>
+      <c r="G123" s="9">
+        <v>1332</v>
+      </c>
+      <c r="H123" s="9">
+        <v>1206</v>
       </c>
       <c r="I123" s="4">
         <v>375</v>
@@ -5840,8 +5854,8 @@
       <c r="L123" s="4">
         <v>353</v>
       </c>
-      <c r="M123" s="5">
-        <v>8.6910000000000007</v>
+      <c r="M123" s="7">
+        <v>8691</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.25">
@@ -5857,17 +5871,17 @@
       <c r="D124" s="4">
         <v>39</v>
       </c>
-      <c r="E124" s="4">
-        <v>2.125</v>
-      </c>
-      <c r="F124" s="4">
-        <v>1.637</v>
-      </c>
-      <c r="G124" s="4">
-        <v>1.3180000000000001</v>
-      </c>
-      <c r="H124" s="4">
-        <v>1.556</v>
+      <c r="E124" s="9">
+        <v>2125</v>
+      </c>
+      <c r="F124" s="9">
+        <v>1637</v>
+      </c>
+      <c r="G124" s="9">
+        <v>1318</v>
+      </c>
+      <c r="H124" s="9">
+        <v>1556</v>
       </c>
       <c r="I124" s="4">
         <v>638</v>
@@ -5881,8 +5895,8 @@
       <c r="L124" s="4">
         <v>317</v>
       </c>
-      <c r="M124" s="5">
-        <v>7.7480000000000002</v>
+      <c r="M124" s="7">
+        <v>7748</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
@@ -5896,8 +5910,8 @@
       <c r="D125" s="4">
         <v>203</v>
       </c>
-      <c r="E125" s="4">
-        <v>3.8820000000000001</v>
+      <c r="E125" s="9">
+        <v>3882</v>
       </c>
       <c r="F125" s="4">
         <v>849</v>
@@ -5920,8 +5934,8 @@
       <c r="L125" s="4">
         <v>326</v>
       </c>
-      <c r="M125" s="5">
-        <v>7.2910000000000004</v>
+      <c r="M125" s="7">
+        <v>7291</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.25">
@@ -5937,8 +5951,8 @@
       <c r="D126" s="4">
         <v>55</v>
       </c>
-      <c r="E126" s="4">
-        <v>2.4129999999999998</v>
+      <c r="E126" s="9">
+        <v>2413</v>
       </c>
       <c r="F126" s="4">
         <v>831</v>
@@ -5946,8 +5960,8 @@
       <c r="G126" s="4">
         <v>901</v>
       </c>
-      <c r="H126" s="4">
-        <v>1.097</v>
+      <c r="H126" s="9">
+        <v>1097</v>
       </c>
       <c r="I126" s="4">
         <v>415</v>
@@ -5961,8 +5975,8 @@
       <c r="L126" s="4">
         <v>290</v>
       </c>
-      <c r="M126" s="5">
-        <v>6.07</v>
+      <c r="M126" s="7">
+        <v>6070</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.25">
@@ -5976,8 +5990,8 @@
       <c r="D127" s="4">
         <v>282</v>
       </c>
-      <c r="E127" s="4">
-        <v>3.62</v>
+      <c r="E127" s="9">
+        <v>3620</v>
       </c>
       <c r="F127" s="4">
         <v>394</v>
@@ -6000,8 +6014,8 @@
       <c r="L127" s="4">
         <v>346</v>
       </c>
-      <c r="M127" s="5">
-        <v>6.1440000000000001</v>
+      <c r="M127" s="7">
+        <v>6144</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.25">
@@ -6017,8 +6031,8 @@
       <c r="D128" s="4">
         <v>66</v>
       </c>
-      <c r="E128" s="4">
-        <v>2.339</v>
+      <c r="E128" s="9">
+        <v>2339</v>
       </c>
       <c r="F128" s="4">
         <v>336</v>
@@ -6041,8 +6055,8 @@
       <c r="L128" s="4">
         <v>205</v>
       </c>
-      <c r="M128" s="5">
-        <v>4.5579999999999998</v>
+      <c r="M128" s="7">
+        <v>4558</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.25">
@@ -6056,8 +6070,8 @@
       <c r="D129" s="4">
         <v>378</v>
       </c>
-      <c r="E129" s="4">
-        <v>3.0750000000000002</v>
+      <c r="E129" s="9">
+        <v>3075</v>
       </c>
       <c r="F129" s="4">
         <v>127</v>
@@ -6080,8 +6094,8 @@
       <c r="L129" s="4">
         <v>248</v>
       </c>
-      <c r="M129" s="5">
-        <v>5.0069999999999997</v>
+      <c r="M129" s="7">
+        <v>5007</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.25">
@@ -6097,8 +6111,8 @@
       <c r="D130" s="4">
         <v>113</v>
       </c>
-      <c r="E130" s="4">
-        <v>1.6279999999999999</v>
+      <c r="E130" s="9">
+        <v>1628</v>
       </c>
       <c r="F130" s="4">
         <v>88</v>
@@ -6121,8 +6135,8 @@
       <c r="L130" s="4">
         <v>92</v>
       </c>
-      <c r="M130" s="5">
-        <v>2.8140000000000001</v>
+      <c r="M130" s="7">
+        <v>2814</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.25">
@@ -6136,8 +6150,8 @@
       <c r="D131" s="4">
         <v>379</v>
       </c>
-      <c r="E131" s="4">
-        <v>2.012</v>
+      <c r="E131" s="9">
+        <v>2012</v>
       </c>
       <c r="F131" s="4">
         <v>32</v>
@@ -6160,8 +6174,8 @@
       <c r="L131" s="4">
         <v>135</v>
       </c>
-      <c r="M131" s="5">
-        <v>3.4649999999999999</v>
+      <c r="M131" s="7">
+        <v>3465</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.25">
@@ -6177,8 +6191,8 @@
       <c r="D132" s="4">
         <v>279</v>
       </c>
-      <c r="E132" s="4">
-        <v>2.0470000000000002</v>
+      <c r="E132" s="9">
+        <v>2047</v>
       </c>
       <c r="F132" s="4">
         <v>36</v>
@@ -6201,8 +6215,8 @@
       <c r="L132" s="4">
         <v>115</v>
       </c>
-      <c r="M132" s="5">
-        <v>3.2349999999999999</v>
+      <c r="M132" s="7">
+        <v>3235</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.25">
@@ -6210,14 +6224,14 @@
       <c r="B133" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C133" s="4">
-        <v>1.6890000000000001</v>
+      <c r="C133" s="9">
+        <v>1689</v>
       </c>
       <c r="D133" s="4">
         <v>748</v>
       </c>
-      <c r="E133" s="4">
-        <v>2.2160000000000002</v>
+      <c r="E133" s="9">
+        <v>2216</v>
       </c>
       <c r="F133" s="4">
         <v>11</v>
@@ -6240,8 +6254,8 @@
       <c r="L133" s="4">
         <v>141</v>
       </c>
-      <c r="M133" s="5">
-        <v>4.952</v>
+      <c r="M133" s="7">
+        <v>4952</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
@@ -6249,38 +6263,38 @@
         <v>12</v>
       </c>
       <c r="B134" s="6"/>
-      <c r="C134" s="5">
-        <v>4.5049999999999999</v>
-      </c>
-      <c r="D134" s="5">
-        <v>4.194</v>
-      </c>
-      <c r="E134" s="5">
-        <v>44.420999999999999</v>
-      </c>
-      <c r="F134" s="5">
-        <v>23.001000000000001</v>
-      </c>
-      <c r="G134" s="5">
-        <v>34.600999999999999</v>
-      </c>
-      <c r="H134" s="5">
-        <v>57.191000000000003</v>
-      </c>
-      <c r="I134" s="5">
-        <v>30.379000000000001</v>
-      </c>
-      <c r="J134" s="5">
-        <v>2.3220000000000001</v>
+      <c r="C134" s="7">
+        <v>4505</v>
+      </c>
+      <c r="D134" s="7">
+        <v>4194</v>
+      </c>
+      <c r="E134" s="7">
+        <v>44421</v>
+      </c>
+      <c r="F134" s="7">
+        <v>23001</v>
+      </c>
+      <c r="G134" s="7">
+        <v>34601</v>
+      </c>
+      <c r="H134" s="7">
+        <v>57191</v>
+      </c>
+      <c r="I134" s="7">
+        <v>30379</v>
+      </c>
+      <c r="J134" s="7">
+        <v>2322</v>
       </c>
       <c r="K134" s="5">
         <v>191</v>
       </c>
-      <c r="L134" s="5">
-        <v>8.27</v>
-      </c>
-      <c r="M134" s="5">
-        <v>209.07499999999999</v>
+      <c r="L134" s="7">
+        <v>8270</v>
+      </c>
+      <c r="M134" s="7">
+        <v>209075</v>
       </c>
     </row>
     <row r="135" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -6344,8 +6358,8 @@
       <c r="G136" s="4">
         <v>383</v>
       </c>
-      <c r="H136" s="4">
-        <v>1.353</v>
+      <c r="H136" s="9">
+        <v>1353</v>
       </c>
       <c r="I136" s="4">
         <v>279</v>
@@ -6359,8 +6373,8 @@
       <c r="L136" s="4">
         <v>20</v>
       </c>
-      <c r="M136" s="5">
-        <v>2.052</v>
+      <c r="M136" s="7">
+        <v>2052</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
@@ -6383,8 +6397,8 @@
       <c r="G137" s="4">
         <v>350</v>
       </c>
-      <c r="H137" s="4">
-        <v>1.1679999999999999</v>
+      <c r="H137" s="9">
+        <v>1168</v>
       </c>
       <c r="I137" s="4">
         <v>453</v>
@@ -6398,8 +6412,8 @@
       <c r="L137" s="4">
         <v>3</v>
       </c>
-      <c r="M137" s="5">
-        <v>1.9970000000000001</v>
+      <c r="M137" s="7">
+        <v>1997</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
@@ -6439,8 +6453,8 @@
       <c r="L138" s="4">
         <v>4</v>
       </c>
-      <c r="M138" s="5">
-        <v>1.492</v>
+      <c r="M138" s="7">
+        <v>1492</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
@@ -6478,8 +6492,8 @@
       <c r="L139" s="4">
         <v>3</v>
       </c>
-      <c r="M139" s="5">
-        <v>1.349</v>
+      <c r="M139" s="7">
+        <v>1349</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
@@ -6519,8 +6533,8 @@
       <c r="L140" s="4">
         <v>9</v>
       </c>
-      <c r="M140" s="5">
-        <v>1.286</v>
+      <c r="M140" s="7">
+        <v>1286</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
@@ -6558,8 +6572,8 @@
       <c r="L141" s="4">
         <v>6</v>
       </c>
-      <c r="M141" s="5">
-        <v>1.286</v>
+      <c r="M141" s="7">
+        <v>1286</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
@@ -6599,8 +6613,8 @@
       <c r="L142" s="4">
         <v>12</v>
       </c>
-      <c r="M142" s="5">
-        <v>1.462</v>
+      <c r="M142" s="7">
+        <v>1462</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
@@ -6638,8 +6652,8 @@
       <c r="L143" s="4">
         <v>8</v>
       </c>
-      <c r="M143" s="5">
-        <v>1.389</v>
+      <c r="M143" s="7">
+        <v>1389</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
@@ -6679,8 +6693,8 @@
       <c r="L144" s="4">
         <v>5</v>
       </c>
-      <c r="M144" s="5">
-        <v>1.6080000000000001</v>
+      <c r="M144" s="7">
+        <v>1608</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.25">
@@ -6718,8 +6732,8 @@
       <c r="L145" s="4">
         <v>6</v>
       </c>
-      <c r="M145" s="5">
-        <v>1.6639999999999999</v>
+      <c r="M145" s="7">
+        <v>1664</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.25">
@@ -6759,8 +6773,8 @@
       <c r="L146" s="4">
         <v>4</v>
       </c>
-      <c r="M146" s="5">
-        <v>1.534</v>
+      <c r="M146" s="7">
+        <v>1534</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.25">
@@ -6798,8 +6812,8 @@
       <c r="L147" s="4">
         <v>8</v>
       </c>
-      <c r="M147" s="5">
-        <v>1.661</v>
+      <c r="M147" s="7">
+        <v>1661</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.25">
@@ -6839,8 +6853,8 @@
       <c r="L148" s="4">
         <v>6</v>
       </c>
-      <c r="M148" s="5">
-        <v>1.6970000000000001</v>
+      <c r="M148" s="7">
+        <v>1697</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.25">
@@ -6878,8 +6892,8 @@
       <c r="L149" s="4">
         <v>13</v>
       </c>
-      <c r="M149" s="5">
-        <v>1.7</v>
+      <c r="M149" s="7">
+        <v>1700</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.25">
@@ -6919,8 +6933,8 @@
       <c r="L150" s="4">
         <v>12</v>
       </c>
-      <c r="M150" s="5">
-        <v>1.6519999999999999</v>
+      <c r="M150" s="7">
+        <v>1652</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.25">
@@ -6934,8 +6948,8 @@
       <c r="D151" s="4">
         <v>43</v>
       </c>
-      <c r="E151" s="4">
-        <v>1.07</v>
+      <c r="E151" s="9">
+        <v>1070</v>
       </c>
       <c r="F151" s="4">
         <v>109</v>
@@ -6958,8 +6972,8 @@
       <c r="L151" s="4">
         <v>16</v>
       </c>
-      <c r="M151" s="5">
-        <v>1.68</v>
+      <c r="M151" s="7">
+        <v>1680</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.25">
@@ -6999,8 +7013,8 @@
       <c r="L152" s="4">
         <v>7</v>
       </c>
-      <c r="M152" s="5">
-        <v>1.53</v>
+      <c r="M152" s="7">
+        <v>1530</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.25">
@@ -7014,8 +7028,8 @@
       <c r="D153" s="4">
         <v>79</v>
       </c>
-      <c r="E153" s="4">
-        <v>1.161</v>
+      <c r="E153" s="9">
+        <v>1161</v>
       </c>
       <c r="F153" s="4">
         <v>46</v>
@@ -7038,8 +7052,8 @@
       <c r="L153" s="4">
         <v>7</v>
       </c>
-      <c r="M153" s="5">
-        <v>1.611</v>
+      <c r="M153" s="7">
+        <v>1611</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.25">
@@ -7079,8 +7093,8 @@
       <c r="L154" s="4">
         <v>16</v>
       </c>
-      <c r="M154" s="5">
-        <v>1.2829999999999999</v>
+      <c r="M154" s="7">
+        <v>1283</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.25">
@@ -7118,8 +7132,8 @@
       <c r="L155" s="4">
         <v>14</v>
       </c>
-      <c r="M155" s="5">
-        <v>1.298</v>
+      <c r="M155" s="7">
+        <v>1298</v>
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.25">
@@ -7198,8 +7212,8 @@
       <c r="L157" s="4">
         <v>9</v>
       </c>
-      <c r="M157" s="5">
-        <v>1.071</v>
+      <c r="M157" s="7">
+        <v>1071</v>
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.25">
@@ -7239,8 +7253,8 @@
       <c r="L158" s="4">
         <v>7</v>
       </c>
-      <c r="M158" s="5">
-        <v>1.0880000000000001</v>
+      <c r="M158" s="7">
+        <v>1088</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.25">
@@ -7278,8 +7292,8 @@
       <c r="L159" s="4">
         <v>13</v>
       </c>
-      <c r="M159" s="5">
-        <v>1.7070000000000001</v>
+      <c r="M159" s="7">
+        <v>1707</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.25">
@@ -7287,26 +7301,26 @@
         <v>12</v>
       </c>
       <c r="B160" s="6"/>
-      <c r="C160" s="5">
-        <v>1.1319999999999999</v>
-      </c>
-      <c r="D160" s="5">
-        <v>1.0369999999999999</v>
-      </c>
-      <c r="E160" s="5">
-        <v>12.064</v>
-      </c>
-      <c r="F160" s="5">
-        <v>2.5059999999999998</v>
-      </c>
-      <c r="G160" s="5">
-        <v>4.4889999999999999</v>
-      </c>
-      <c r="H160" s="5">
-        <v>8.68</v>
-      </c>
-      <c r="I160" s="5">
-        <v>5.4480000000000004</v>
+      <c r="C160" s="7">
+        <v>1132</v>
+      </c>
+      <c r="D160" s="7">
+        <v>1037</v>
+      </c>
+      <c r="E160" s="7">
+        <v>12064</v>
+      </c>
+      <c r="F160" s="7">
+        <v>2506</v>
+      </c>
+      <c r="G160" s="7">
+        <v>4489</v>
+      </c>
+      <c r="H160" s="7">
+        <v>8680</v>
+      </c>
+      <c r="I160" s="7">
+        <v>5448</v>
       </c>
       <c r="J160" s="5">
         <v>395</v>
@@ -7317,8 +7331,8 @@
       <c r="L160" s="5">
         <v>211</v>
       </c>
-      <c r="M160" s="5">
-        <v>36.005000000000003</v>
+      <c r="M160" s="7">
+        <v>36005</v>
       </c>
     </row>
     <row r="161" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -7379,11 +7393,11 @@
       <c r="F162" s="4">
         <v>1</v>
       </c>
-      <c r="G162" s="4">
-        <v>1.0129999999999999</v>
-      </c>
-      <c r="H162" s="4">
-        <v>2.6230000000000002</v>
+      <c r="G162" s="9">
+        <v>1013</v>
+      </c>
+      <c r="H162" s="9">
+        <v>2623</v>
       </c>
       <c r="I162" s="4">
         <v>544</v>
@@ -7397,8 +7411,8 @@
       <c r="L162" s="4">
         <v>18</v>
       </c>
-      <c r="M162" s="5">
-        <v>4.2720000000000002</v>
+      <c r="M162" s="7">
+        <v>4272</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.25">
@@ -7421,8 +7435,8 @@
       <c r="G163" s="4">
         <v>829</v>
       </c>
-      <c r="H163" s="4">
-        <v>2.2509999999999999</v>
+      <c r="H163" s="9">
+        <v>2251</v>
       </c>
       <c r="I163" s="4">
         <v>713</v>
@@ -7436,8 +7450,8 @@
       <c r="L163" s="4">
         <v>10</v>
       </c>
-      <c r="M163" s="5">
-        <v>3.8969999999999998</v>
+      <c r="M163" s="7">
+        <v>3897</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.25">
@@ -7462,11 +7476,11 @@
       <c r="G164" s="4">
         <v>670</v>
       </c>
-      <c r="H164" s="4">
-        <v>1.105</v>
-      </c>
-      <c r="I164" s="4">
-        <v>1.0680000000000001</v>
+      <c r="H164" s="9">
+        <v>1105</v>
+      </c>
+      <c r="I164" s="9">
+        <v>1068</v>
       </c>
       <c r="J164" s="4">
         <v>58</v>
@@ -7477,8 +7491,8 @@
       <c r="L164" s="4">
         <v>14</v>
       </c>
-      <c r="M164" s="5">
-        <v>2.992</v>
+      <c r="M164" s="7">
+        <v>2992</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.25">
@@ -7504,8 +7518,8 @@
       <c r="H165" s="4">
         <v>647</v>
       </c>
-      <c r="I165" s="4">
-        <v>1.226</v>
+      <c r="I165" s="9">
+        <v>1226</v>
       </c>
       <c r="J165" s="4">
         <v>69</v>
@@ -7516,8 +7530,8 @@
       <c r="L165" s="4">
         <v>21</v>
       </c>
-      <c r="M165" s="5">
-        <v>2.758</v>
+      <c r="M165" s="7">
+        <v>2758</v>
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.25">
@@ -7542,8 +7556,8 @@
       <c r="G166" s="4">
         <v>316</v>
       </c>
-      <c r="H166" s="4">
-        <v>1.054</v>
+      <c r="H166" s="9">
+        <v>1054</v>
       </c>
       <c r="I166" s="4">
         <v>938</v>
@@ -7557,8 +7571,8 @@
       <c r="L166" s="4">
         <v>9</v>
       </c>
-      <c r="M166" s="5">
-        <v>2.92</v>
+      <c r="M166" s="7">
+        <v>2920</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.25">
@@ -7596,8 +7610,8 @@
       <c r="L167" s="4">
         <v>22</v>
       </c>
-      <c r="M167" s="5">
-        <v>2.6949999999999998</v>
+      <c r="M167" s="7">
+        <v>2695</v>
       </c>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.25">
@@ -7622,8 +7636,8 @@
       <c r="G168" s="4">
         <v>284</v>
       </c>
-      <c r="H168" s="4">
-        <v>1.109</v>
+      <c r="H168" s="9">
+        <v>1109</v>
       </c>
       <c r="I168" s="4">
         <v>740</v>
@@ -7637,8 +7651,8 @@
       <c r="L168" s="4">
         <v>19</v>
       </c>
-      <c r="M168" s="5">
-        <v>2.97</v>
+      <c r="M168" s="7">
+        <v>2970</v>
       </c>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.25">
@@ -7676,8 +7690,8 @@
       <c r="L169" s="4">
         <v>9</v>
       </c>
-      <c r="M169" s="5">
-        <v>2.8610000000000002</v>
+      <c r="M169" s="7">
+        <v>2861</v>
       </c>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.25">
@@ -7702,8 +7716,8 @@
       <c r="G170" s="4">
         <v>539</v>
       </c>
-      <c r="H170" s="4">
-        <v>1.1559999999999999</v>
+      <c r="H170" s="9">
+        <v>1156</v>
       </c>
       <c r="I170" s="4">
         <v>526</v>
@@ -7717,8 +7731,8 @@
       <c r="L170" s="4">
         <v>13</v>
       </c>
-      <c r="M170" s="5">
-        <v>3.1629999999999998</v>
+      <c r="M170" s="7">
+        <v>3163</v>
       </c>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.25">
@@ -7756,8 +7770,8 @@
       <c r="L171" s="4">
         <v>19</v>
       </c>
-      <c r="M171" s="5">
-        <v>3.113</v>
+      <c r="M171" s="7">
+        <v>3113</v>
       </c>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.25">
@@ -7797,8 +7811,8 @@
       <c r="L172" s="4">
         <v>15</v>
       </c>
-      <c r="M172" s="5">
-        <v>2.8410000000000002</v>
+      <c r="M172" s="7">
+        <v>2841</v>
       </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.25">
@@ -7812,8 +7826,8 @@
       <c r="D173" s="4">
         <v>51</v>
       </c>
-      <c r="E173" s="4">
-        <v>1.0509999999999999</v>
+      <c r="E173" s="9">
+        <v>1051</v>
       </c>
       <c r="F173" s="4">
         <v>561</v>
@@ -7836,8 +7850,8 @@
       <c r="L173" s="4">
         <v>14</v>
       </c>
-      <c r="M173" s="5">
-        <v>2.9089999999999998</v>
+      <c r="M173" s="7">
+        <v>2909</v>
       </c>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.25">
@@ -7877,8 +7891,8 @@
       <c r="L174" s="4">
         <v>20</v>
       </c>
-      <c r="M174" s="5">
-        <v>2.7759999999999998</v>
+      <c r="M174" s="7">
+        <v>2776</v>
       </c>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.25">
@@ -7892,8 +7906,8 @@
       <c r="D175" s="4">
         <v>58</v>
       </c>
-      <c r="E175" s="4">
-        <v>1.29</v>
+      <c r="E175" s="9">
+        <v>1290</v>
       </c>
       <c r="F175" s="4">
         <v>451</v>
@@ -7916,8 +7930,8 @@
       <c r="L175" s="4">
         <v>17</v>
       </c>
-      <c r="M175" s="5">
-        <v>2.778</v>
+      <c r="M175" s="7">
+        <v>2778</v>
       </c>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.25">
@@ -7957,8 +7971,8 @@
       <c r="L176" s="4">
         <v>21</v>
       </c>
-      <c r="M176" s="5">
-        <v>2.6160000000000001</v>
+      <c r="M176" s="7">
+        <v>2616</v>
       </c>
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.25">
@@ -7972,8 +7986,8 @@
       <c r="D177" s="4">
         <v>80</v>
       </c>
-      <c r="E177" s="4">
-        <v>1.593</v>
+      <c r="E177" s="9">
+        <v>1593</v>
       </c>
       <c r="F177" s="4">
         <v>292</v>
@@ -7996,8 +8010,8 @@
       <c r="L177" s="4">
         <v>19</v>
       </c>
-      <c r="M177" s="5">
-        <v>2.698</v>
+      <c r="M177" s="7">
+        <v>2698</v>
       </c>
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.25">
@@ -8013,8 +8027,8 @@
       <c r="D178" s="4">
         <v>30</v>
       </c>
-      <c r="E178" s="4">
-        <v>1.3320000000000001</v>
+      <c r="E178" s="9">
+        <v>1332</v>
       </c>
       <c r="F178" s="4">
         <v>367</v>
@@ -8037,8 +8051,8 @@
       <c r="L178" s="4">
         <v>18</v>
       </c>
-      <c r="M178" s="5">
-        <v>2.669</v>
+      <c r="M178" s="7">
+        <v>2669</v>
       </c>
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.25">
@@ -8052,8 +8066,8 @@
       <c r="D179" s="4">
         <v>133</v>
       </c>
-      <c r="E179" s="4">
-        <v>1.8180000000000001</v>
+      <c r="E179" s="9">
+        <v>1818</v>
       </c>
       <c r="F179" s="4">
         <v>175</v>
@@ -8076,8 +8090,8 @@
       <c r="L179" s="4">
         <v>18</v>
       </c>
-      <c r="M179" s="5">
-        <v>2.6890000000000001</v>
+      <c r="M179" s="7">
+        <v>2689</v>
       </c>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.25">
@@ -8093,8 +8107,8 @@
       <c r="D180" s="4">
         <v>40</v>
       </c>
-      <c r="E180" s="4">
-        <v>1.2569999999999999</v>
+      <c r="E180" s="9">
+        <v>1257</v>
       </c>
       <c r="F180" s="4">
         <v>123</v>
@@ -8117,8 +8131,8 @@
       <c r="L180" s="4">
         <v>21</v>
       </c>
-      <c r="M180" s="5">
-        <v>2.0920000000000001</v>
+      <c r="M180" s="7">
+        <v>2092</v>
       </c>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.25">
@@ -8132,8 +8146,8 @@
       <c r="D181" s="4">
         <v>160</v>
       </c>
-      <c r="E181" s="4">
-        <v>1.61</v>
+      <c r="E181" s="9">
+        <v>1610</v>
       </c>
       <c r="F181" s="4">
         <v>61</v>
@@ -8156,8 +8170,8 @@
       <c r="L181" s="4">
         <v>13</v>
       </c>
-      <c r="M181" s="5">
-        <v>2.298</v>
+      <c r="M181" s="7">
+        <v>2298</v>
       </c>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.25">
@@ -8173,8 +8187,8 @@
       <c r="D182" s="4">
         <v>77</v>
       </c>
-      <c r="E182" s="4">
-        <v>1.081</v>
+      <c r="E182" s="9">
+        <v>1081</v>
       </c>
       <c r="F182" s="4">
         <v>42</v>
@@ -8197,8 +8211,8 @@
       <c r="L182" s="4">
         <v>5</v>
       </c>
-      <c r="M182" s="5">
-        <v>1.5609999999999999</v>
+      <c r="M182" s="7">
+        <v>1561</v>
       </c>
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.25">
@@ -8212,8 +8226,8 @@
       <c r="D183" s="4">
         <v>242</v>
       </c>
-      <c r="E183" s="4">
-        <v>1.1000000000000001</v>
+      <c r="E183" s="9">
+        <v>1100</v>
       </c>
       <c r="F183" s="4">
         <v>13</v>
@@ -8236,8 +8250,8 @@
       <c r="L183" s="4">
         <v>21</v>
       </c>
-      <c r="M183" s="5">
-        <v>1.7430000000000001</v>
+      <c r="M183" s="7">
+        <v>1743</v>
       </c>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.25">
@@ -8253,8 +8267,8 @@
       <c r="D184" s="4">
         <v>217</v>
       </c>
-      <c r="E184" s="4">
-        <v>1.167</v>
+      <c r="E184" s="9">
+        <v>1167</v>
       </c>
       <c r="F184" s="4">
         <v>12</v>
@@ -8277,8 +8291,8 @@
       <c r="L184" s="4">
         <v>22</v>
       </c>
-      <c r="M184" s="5">
-        <v>1.742</v>
+      <c r="M184" s="7">
+        <v>1742</v>
       </c>
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.25">
@@ -8292,8 +8306,8 @@
       <c r="D185" s="4">
         <v>545</v>
       </c>
-      <c r="E185" s="4">
-        <v>1.133</v>
+      <c r="E185" s="9">
+        <v>1133</v>
       </c>
       <c r="F185" s="4">
         <v>4</v>
@@ -8316,8 +8330,8 @@
       <c r="L185" s="4">
         <v>40</v>
       </c>
-      <c r="M185" s="5">
-        <v>2.6379999999999999</v>
+      <c r="M185" s="7">
+        <v>2638</v>
       </c>
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.25">
@@ -8325,26 +8339,26 @@
         <v>12</v>
       </c>
       <c r="B186" s="6"/>
-      <c r="C186" s="5">
-        <v>2.0659999999999998</v>
-      </c>
-      <c r="D186" s="5">
-        <v>2.1019999999999999</v>
-      </c>
-      <c r="E186" s="5">
-        <v>18.881</v>
-      </c>
-      <c r="F186" s="5">
-        <v>6.4669999999999996</v>
-      </c>
-      <c r="G186" s="5">
-        <v>8.8810000000000002</v>
-      </c>
-      <c r="H186" s="5">
-        <v>16.471</v>
-      </c>
-      <c r="I186" s="5">
-        <v>9.6389999999999993</v>
+      <c r="C186" s="7">
+        <v>2066</v>
+      </c>
+      <c r="D186" s="7">
+        <v>2102</v>
+      </c>
+      <c r="E186" s="7">
+        <v>18881</v>
+      </c>
+      <c r="F186" s="7">
+        <v>6467</v>
+      </c>
+      <c r="G186" s="7">
+        <v>8881</v>
+      </c>
+      <c r="H186" s="7">
+        <v>16471</v>
+      </c>
+      <c r="I186" s="7">
+        <v>9639</v>
       </c>
       <c r="J186" s="5">
         <v>712</v>
@@ -8355,8 +8369,8 @@
       <c r="L186" s="5">
         <v>418</v>
       </c>
-      <c r="M186" s="5">
-        <v>65.691000000000003</v>
+      <c r="M186" s="7">
+        <v>65691</v>
       </c>
     </row>
     <row r="187" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -9369,17 +9383,17 @@
       <c r="D212" s="5">
         <v>465</v>
       </c>
-      <c r="E212" s="5">
-        <v>3.8340000000000001</v>
+      <c r="E212" s="7">
+        <v>3834</v>
       </c>
       <c r="F212" s="5">
         <v>864</v>
       </c>
-      <c r="G212" s="5">
-        <v>1.25</v>
-      </c>
-      <c r="H212" s="5">
-        <v>1.639</v>
+      <c r="G212" s="7">
+        <v>1250</v>
+      </c>
+      <c r="H212" s="7">
+        <v>1639</v>
       </c>
       <c r="I212" s="5">
         <v>916</v>
@@ -9393,8 +9407,8 @@
       <c r="L212" s="5">
         <v>56</v>
       </c>
-      <c r="M212" s="5">
-        <v>9.7080000000000002</v>
+      <c r="M212" s="7">
+        <v>9708</v>
       </c>
     </row>
     <row r="213" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -9458,8 +9472,8 @@
       <c r="G214" s="4">
         <v>752</v>
       </c>
-      <c r="H214" s="4">
-        <v>2.2480000000000002</v>
+      <c r="H214" s="9">
+        <v>2248</v>
       </c>
       <c r="I214" s="4">
         <v>405</v>
@@ -9473,8 +9487,8 @@
       <c r="L214" s="4">
         <v>69</v>
       </c>
-      <c r="M214" s="5">
-        <v>3.49</v>
+      <c r="M214" s="7">
+        <v>3490</v>
       </c>
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.25">
@@ -9497,8 +9511,8 @@
       <c r="G215" s="4">
         <v>537</v>
       </c>
-      <c r="H215" s="4">
-        <v>2.056</v>
+      <c r="H215" s="9">
+        <v>2056</v>
       </c>
       <c r="I215" s="4">
         <v>676</v>
@@ -9512,8 +9526,8 @@
       <c r="L215" s="4">
         <v>50</v>
       </c>
-      <c r="M215" s="5">
-        <v>3.3580000000000001</v>
+      <c r="M215" s="7">
+        <v>3358</v>
       </c>
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.25">
@@ -9553,8 +9567,8 @@
       <c r="L216" s="4">
         <v>60</v>
       </c>
-      <c r="M216" s="5">
-        <v>2.67</v>
+      <c r="M216" s="7">
+        <v>2670</v>
       </c>
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.25">
@@ -9580,8 +9594,8 @@
       <c r="H217" s="4">
         <v>785</v>
       </c>
-      <c r="I217" s="4">
-        <v>1.2290000000000001</v>
+      <c r="I217" s="9">
+        <v>1229</v>
       </c>
       <c r="J217" s="4">
         <v>68</v>
@@ -9592,8 +9606,8 @@
       <c r="L217" s="4">
         <v>76</v>
       </c>
-      <c r="M217" s="5">
-        <v>2.8140000000000001</v>
+      <c r="M217" s="7">
+        <v>2814</v>
       </c>
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.25">
@@ -9618,8 +9632,8 @@
       <c r="G218" s="4">
         <v>323</v>
       </c>
-      <c r="H218" s="4">
-        <v>1.119</v>
+      <c r="H218" s="9">
+        <v>1119</v>
       </c>
       <c r="I218" s="4">
         <v>865</v>
@@ -9633,8 +9647,8 @@
       <c r="L218" s="4">
         <v>63</v>
       </c>
-      <c r="M218" s="5">
-        <v>2.8410000000000002</v>
+      <c r="M218" s="7">
+        <v>2841</v>
       </c>
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.25">
@@ -9660,8 +9674,8 @@
       <c r="H219" s="4">
         <v>800</v>
       </c>
-      <c r="I219" s="4">
-        <v>1.0229999999999999</v>
+      <c r="I219" s="9">
+        <v>1023</v>
       </c>
       <c r="J219" s="4">
         <v>67</v>
@@ -9672,8 +9686,8 @@
       <c r="L219" s="4">
         <v>79</v>
       </c>
-      <c r="M219" s="5">
-        <v>2.7839999999999998</v>
+      <c r="M219" s="7">
+        <v>2784</v>
       </c>
     </row>
     <row r="220" spans="1:13" x14ac:dyDescent="0.25">
@@ -9698,8 +9712,8 @@
       <c r="G220" s="4">
         <v>300</v>
       </c>
-      <c r="H220" s="4">
-        <v>1.1539999999999999</v>
+      <c r="H220" s="9">
+        <v>1154</v>
       </c>
       <c r="I220" s="4">
         <v>778</v>
@@ -9713,8 +9727,8 @@
       <c r="L220" s="4">
         <v>69</v>
       </c>
-      <c r="M220" s="5">
-        <v>2.9220000000000002</v>
+      <c r="M220" s="7">
+        <v>2922</v>
       </c>
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.25">
@@ -9752,8 +9766,8 @@
       <c r="L221" s="4">
         <v>45</v>
       </c>
-      <c r="M221" s="5">
-        <v>2.87</v>
+      <c r="M221" s="7">
+        <v>2870</v>
       </c>
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.25">
@@ -9778,8 +9792,8 @@
       <c r="G222" s="4">
         <v>525</v>
       </c>
-      <c r="H222" s="4">
-        <v>1.2</v>
+      <c r="H222" s="9">
+        <v>1200</v>
       </c>
       <c r="I222" s="4">
         <v>586</v>
@@ -9793,8 +9807,8 @@
       <c r="L222" s="4">
         <v>32</v>
       </c>
-      <c r="M222" s="5">
-        <v>3.0950000000000002</v>
+      <c r="M222" s="7">
+        <v>3095</v>
       </c>
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.25">
@@ -9832,8 +9846,8 @@
       <c r="L223" s="4">
         <v>51</v>
       </c>
-      <c r="M223" s="5">
-        <v>2.9329999999999998</v>
+      <c r="M223" s="7">
+        <v>2933</v>
       </c>
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.25">
@@ -9873,8 +9887,8 @@
       <c r="L224" s="4">
         <v>36</v>
       </c>
-      <c r="M224" s="5">
-        <v>2.63</v>
+      <c r="M224" s="7">
+        <v>2630</v>
       </c>
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.25">
@@ -9912,8 +9926,8 @@
       <c r="L225" s="4">
         <v>43</v>
       </c>
-      <c r="M225" s="5">
-        <v>2.4849999999999999</v>
+      <c r="M225" s="7">
+        <v>2485</v>
       </c>
     </row>
     <row r="226" spans="1:13" x14ac:dyDescent="0.25">
@@ -9953,8 +9967,8 @@
       <c r="L226" s="4">
         <v>55</v>
       </c>
-      <c r="M226" s="5">
-        <v>2.3820000000000001</v>
+      <c r="M226" s="7">
+        <v>2382</v>
       </c>
     </row>
     <row r="227" spans="1:13" x14ac:dyDescent="0.25">
@@ -9992,8 +10006,8 @@
       <c r="L227" s="4">
         <v>51</v>
       </c>
-      <c r="M227" s="5">
-        <v>2.29</v>
+      <c r="M227" s="7">
+        <v>2290</v>
       </c>
     </row>
     <row r="228" spans="1:13" x14ac:dyDescent="0.25">
@@ -10033,8 +10047,8 @@
       <c r="L228" s="4">
         <v>52</v>
       </c>
-      <c r="M228" s="5">
-        <v>2.165</v>
+      <c r="M228" s="7">
+        <v>2165</v>
       </c>
     </row>
     <row r="229" spans="1:13" x14ac:dyDescent="0.25">
@@ -10072,8 +10086,8 @@
       <c r="L229" s="4">
         <v>64</v>
       </c>
-      <c r="M229" s="5">
-        <v>2.125</v>
+      <c r="M229" s="7">
+        <v>2125</v>
       </c>
     </row>
     <row r="230" spans="1:13" x14ac:dyDescent="0.25">
@@ -10113,8 +10127,8 @@
       <c r="L230" s="4">
         <v>50</v>
       </c>
-      <c r="M230" s="5">
-        <v>1.911</v>
+      <c r="M230" s="7">
+        <v>1911</v>
       </c>
     </row>
     <row r="231" spans="1:13" x14ac:dyDescent="0.25">
@@ -10152,8 +10166,8 @@
       <c r="L231" s="4">
         <v>48</v>
       </c>
-      <c r="M231" s="5">
-        <v>1.954</v>
+      <c r="M231" s="7">
+        <v>1954</v>
       </c>
     </row>
     <row r="232" spans="1:13" x14ac:dyDescent="0.25">
@@ -10193,8 +10207,8 @@
       <c r="L232" s="4">
         <v>23</v>
       </c>
-      <c r="M232" s="5">
-        <v>1.4370000000000001</v>
+      <c r="M232" s="7">
+        <v>1437</v>
       </c>
     </row>
     <row r="233" spans="1:13" x14ac:dyDescent="0.25">
@@ -10232,8 +10246,8 @@
       <c r="L233" s="4">
         <v>18</v>
       </c>
-      <c r="M233" s="5">
-        <v>1.4950000000000001</v>
+      <c r="M233" s="7">
+        <v>1495</v>
       </c>
     </row>
     <row r="234" spans="1:13" x14ac:dyDescent="0.25">
@@ -10312,8 +10326,8 @@
       <c r="L235" s="4">
         <v>24</v>
       </c>
-      <c r="M235" s="5">
-        <v>1.056</v>
+      <c r="M235" s="7">
+        <v>1056</v>
       </c>
     </row>
     <row r="236" spans="1:13" x14ac:dyDescent="0.25">
@@ -10392,8 +10406,8 @@
       <c r="L237" s="4">
         <v>22</v>
       </c>
-      <c r="M237" s="5">
-        <v>1.506</v>
+      <c r="M237" s="7">
+        <v>1506</v>
       </c>
     </row>
     <row r="238" spans="1:13" x14ac:dyDescent="0.25">
@@ -10404,23 +10418,23 @@
       <c r="C238" s="5">
         <v>992</v>
       </c>
-      <c r="D238" s="5">
-        <v>1.0680000000000001</v>
-      </c>
-      <c r="E238" s="5">
-        <v>10.500999999999999</v>
-      </c>
-      <c r="F238" s="5">
-        <v>5.3680000000000003</v>
-      </c>
-      <c r="G238" s="5">
-        <v>8.4009999999999998</v>
-      </c>
-      <c r="H238" s="5">
-        <v>17.361000000000001</v>
-      </c>
-      <c r="I238" s="5">
-        <v>9.5690000000000008</v>
+      <c r="D238" s="7">
+        <v>1068</v>
+      </c>
+      <c r="E238" s="7">
+        <v>10501</v>
+      </c>
+      <c r="F238" s="7">
+        <v>5368</v>
+      </c>
+      <c r="G238" s="7">
+        <v>8401</v>
+      </c>
+      <c r="H238" s="7">
+        <v>17361</v>
+      </c>
+      <c r="I238" s="7">
+        <v>9569</v>
       </c>
       <c r="J238" s="5">
         <v>685</v>
@@ -10428,11 +10442,11 @@
       <c r="K238" s="5">
         <v>50</v>
       </c>
-      <c r="L238" s="5">
-        <v>1.103</v>
-      </c>
-      <c r="M238" s="5">
-        <v>55.097999999999999</v>
+      <c r="L238" s="7">
+        <v>1103</v>
+      </c>
+      <c r="M238" s="7">
+        <v>55098</v>
       </c>
     </row>
     <row r="239" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -10496,8 +10510,8 @@
       <c r="G240" s="4">
         <v>687</v>
       </c>
-      <c r="H240" s="4">
-        <v>2.8959999999999999</v>
+      <c r="H240" s="9">
+        <v>2896</v>
       </c>
       <c r="I240" s="4">
         <v>547</v>
@@ -10511,8 +10525,8 @@
       <c r="L240" s="4">
         <v>29</v>
       </c>
-      <c r="M240" s="5">
-        <v>4.1920000000000002</v>
+      <c r="M240" s="7">
+        <v>4192</v>
       </c>
     </row>
     <row r="241" spans="1:13" x14ac:dyDescent="0.25">
@@ -10535,8 +10549,8 @@
       <c r="G241" s="4">
         <v>512</v>
       </c>
-      <c r="H241" s="4">
-        <v>2.7229999999999999</v>
+      <c r="H241" s="9">
+        <v>2723</v>
       </c>
       <c r="I241" s="4">
         <v>927</v>
@@ -10550,8 +10564,8 @@
       <c r="L241" s="4">
         <v>25</v>
       </c>
-      <c r="M241" s="5">
-        <v>4.2169999999999996</v>
+      <c r="M241" s="7">
+        <v>4217</v>
       </c>
     </row>
     <row r="242" spans="1:13" x14ac:dyDescent="0.25">
@@ -10576,11 +10590,11 @@
       <c r="G242" s="4">
         <v>505</v>
       </c>
-      <c r="H242" s="4">
-        <v>1.3340000000000001</v>
-      </c>
-      <c r="I242" s="4">
-        <v>1.554</v>
+      <c r="H242" s="9">
+        <v>1334</v>
+      </c>
+      <c r="I242" s="9">
+        <v>1554</v>
       </c>
       <c r="J242" s="4">
         <v>88</v>
@@ -10591,8 +10605,8 @@
       <c r="L242" s="4">
         <v>19</v>
       </c>
-      <c r="M242" s="5">
-        <v>3.5249999999999999</v>
+      <c r="M242" s="7">
+        <v>3525</v>
       </c>
     </row>
     <row r="243" spans="1:13" x14ac:dyDescent="0.25">
@@ -10618,8 +10632,8 @@
       <c r="H243" s="4">
         <v>838</v>
       </c>
-      <c r="I243" s="4">
-        <v>1.925</v>
+      <c r="I243" s="9">
+        <v>1925</v>
       </c>
       <c r="J243" s="4">
         <v>189</v>
@@ -10630,8 +10644,8 @@
       <c r="L243" s="4">
         <v>16</v>
       </c>
-      <c r="M243" s="5">
-        <v>3.335</v>
+      <c r="M243" s="7">
+        <v>3335</v>
       </c>
     </row>
     <row r="244" spans="1:13" x14ac:dyDescent="0.25">
@@ -10656,11 +10670,11 @@
       <c r="G244" s="4">
         <v>266</v>
       </c>
-      <c r="H244" s="4">
-        <v>1.1659999999999999</v>
-      </c>
-      <c r="I244" s="4">
-        <v>1.5580000000000001</v>
+      <c r="H244" s="9">
+        <v>1166</v>
+      </c>
+      <c r="I244" s="9">
+        <v>1558</v>
       </c>
       <c r="J244" s="4">
         <v>166</v>
@@ -10671,8 +10685,8 @@
       <c r="L244" s="4">
         <v>33</v>
       </c>
-      <c r="M244" s="5">
-        <v>3.4449999999999998</v>
+      <c r="M244" s="7">
+        <v>3445</v>
       </c>
     </row>
     <row r="245" spans="1:13" x14ac:dyDescent="0.25">
@@ -10698,8 +10712,8 @@
       <c r="H245" s="4">
         <v>959</v>
       </c>
-      <c r="I245" s="4">
-        <v>1.74</v>
+      <c r="I245" s="9">
+        <v>1740</v>
       </c>
       <c r="J245" s="4">
         <v>244</v>
@@ -10710,8 +10724,8 @@
       <c r="L245" s="4">
         <v>41</v>
       </c>
-      <c r="M245" s="5">
-        <v>3.5670000000000002</v>
+      <c r="M245" s="7">
+        <v>3567</v>
       </c>
     </row>
     <row r="246" spans="1:13" x14ac:dyDescent="0.25">
@@ -10736,11 +10750,11 @@
       <c r="G246" s="4">
         <v>233</v>
       </c>
-      <c r="H246" s="4">
-        <v>1.3089999999999999</v>
-      </c>
-      <c r="I246" s="4">
-        <v>1.3320000000000001</v>
+      <c r="H246" s="9">
+        <v>1309</v>
+      </c>
+      <c r="I246" s="9">
+        <v>1332</v>
       </c>
       <c r="J246" s="4">
         <v>181</v>
@@ -10751,8 +10765,8 @@
       <c r="L246" s="4">
         <v>44</v>
       </c>
-      <c r="M246" s="5">
-        <v>3.5630000000000002</v>
+      <c r="M246" s="7">
+        <v>3563</v>
       </c>
     </row>
     <row r="247" spans="1:13" x14ac:dyDescent="0.25">
@@ -10775,11 +10789,11 @@
       <c r="G247" s="4">
         <v>273</v>
       </c>
-      <c r="H247" s="4">
-        <v>1.097</v>
-      </c>
-      <c r="I247" s="4">
-        <v>1.3460000000000001</v>
+      <c r="H247" s="9">
+        <v>1097</v>
+      </c>
+      <c r="I247" s="9">
+        <v>1346</v>
       </c>
       <c r="J247" s="4">
         <v>226</v>
@@ -10790,8 +10804,8 @@
       <c r="L247" s="4">
         <v>52</v>
       </c>
-      <c r="M247" s="5">
-        <v>3.6659999999999999</v>
+      <c r="M247" s="7">
+        <v>3666</v>
       </c>
     </row>
     <row r="248" spans="1:13" x14ac:dyDescent="0.25">
@@ -10816,11 +10830,11 @@
       <c r="G248" s="4">
         <v>550</v>
       </c>
-      <c r="H248" s="4">
-        <v>1.468</v>
-      </c>
-      <c r="I248" s="4">
-        <v>1.2030000000000001</v>
+      <c r="H248" s="9">
+        <v>1468</v>
+      </c>
+      <c r="I248" s="9">
+        <v>1203</v>
       </c>
       <c r="J248" s="4">
         <v>203</v>
@@ -10831,8 +10845,8 @@
       <c r="L248" s="4">
         <v>49</v>
       </c>
-      <c r="M248" s="5">
-        <v>4.0350000000000001</v>
+      <c r="M248" s="7">
+        <v>4035</v>
       </c>
     </row>
     <row r="249" spans="1:13" x14ac:dyDescent="0.25">
@@ -10855,11 +10869,11 @@
       <c r="G249" s="4">
         <v>521</v>
       </c>
-      <c r="H249" s="4">
-        <v>1.379</v>
-      </c>
-      <c r="I249" s="4">
-        <v>1.2529999999999999</v>
+      <c r="H249" s="9">
+        <v>1379</v>
+      </c>
+      <c r="I249" s="9">
+        <v>1253</v>
       </c>
       <c r="J249" s="4">
         <v>219</v>
@@ -10870,8 +10884,8 @@
       <c r="L249" s="4">
         <v>38</v>
       </c>
-      <c r="M249" s="5">
-        <v>4.258</v>
+      <c r="M249" s="7">
+        <v>4258</v>
       </c>
     </row>
     <row r="250" spans="1:13" x14ac:dyDescent="0.25">
@@ -10896,11 +10910,11 @@
       <c r="G250" s="4">
         <v>475</v>
       </c>
-      <c r="H250" s="4">
-        <v>1.272</v>
-      </c>
-      <c r="I250" s="4">
-        <v>1</v>
+      <c r="H250" s="9">
+        <v>1272</v>
+      </c>
+      <c r="I250" s="9">
+        <v>1000</v>
       </c>
       <c r="J250" s="4">
         <v>156</v>
@@ -10911,8 +10925,8 @@
       <c r="L250" s="4">
         <v>39</v>
       </c>
-      <c r="M250" s="5">
-        <v>3.7069999999999999</v>
+      <c r="M250" s="7">
+        <v>3707</v>
       </c>
     </row>
     <row r="251" spans="1:13" x14ac:dyDescent="0.25">
@@ -10935,8 +10949,8 @@
       <c r="G251" s="4">
         <v>524</v>
       </c>
-      <c r="H251" s="4">
-        <v>1.222</v>
+      <c r="H251" s="9">
+        <v>1222</v>
       </c>
       <c r="I251" s="4">
         <v>916</v>
@@ -10950,8 +10964,8 @@
       <c r="L251" s="4">
         <v>54</v>
       </c>
-      <c r="M251" s="5">
-        <v>4.0529999999999999</v>
+      <c r="M251" s="7">
+        <v>4053</v>
       </c>
     </row>
     <row r="252" spans="1:13" x14ac:dyDescent="0.25">
@@ -10976,8 +10990,8 @@
       <c r="G252" s="4">
         <v>502</v>
       </c>
-      <c r="H252" s="4">
-        <v>1.103</v>
+      <c r="H252" s="9">
+        <v>1103</v>
       </c>
       <c r="I252" s="4">
         <v>865</v>
@@ -10991,8 +11005,8 @@
       <c r="L252" s="4">
         <v>59</v>
       </c>
-      <c r="M252" s="5">
-        <v>3.5720000000000001</v>
+      <c r="M252" s="7">
+        <v>3572</v>
       </c>
     </row>
     <row r="253" spans="1:13" x14ac:dyDescent="0.25">
@@ -11006,8 +11020,8 @@
       <c r="D253" s="4">
         <v>32</v>
       </c>
-      <c r="E253" s="4">
-        <v>1.141</v>
+      <c r="E253" s="9">
+        <v>1141</v>
       </c>
       <c r="F253" s="4">
         <v>387</v>
@@ -11015,8 +11029,8 @@
       <c r="G253" s="4">
         <v>546</v>
       </c>
-      <c r="H253" s="4">
-        <v>1.1990000000000001</v>
+      <c r="H253" s="9">
+        <v>1199</v>
       </c>
       <c r="I253" s="4">
         <v>744</v>
@@ -11030,8 +11044,8 @@
       <c r="L253" s="4">
         <v>73</v>
       </c>
-      <c r="M253" s="5">
-        <v>4.2629999999999999</v>
+      <c r="M253" s="7">
+        <v>4263</v>
       </c>
     </row>
     <row r="254" spans="1:13" x14ac:dyDescent="0.25">
@@ -11056,8 +11070,8 @@
       <c r="G254" s="4">
         <v>581</v>
       </c>
-      <c r="H254" s="4">
-        <v>1.0529999999999999</v>
+      <c r="H254" s="9">
+        <v>1053</v>
       </c>
       <c r="I254" s="4">
         <v>781</v>
@@ -11071,8 +11085,8 @@
       <c r="L254" s="4">
         <v>73</v>
       </c>
-      <c r="M254" s="5">
-        <v>3.8039999999999998</v>
+      <c r="M254" s="7">
+        <v>3804</v>
       </c>
     </row>
     <row r="255" spans="1:13" x14ac:dyDescent="0.25">
@@ -11086,8 +11100,8 @@
       <c r="D255" s="4">
         <v>71</v>
       </c>
-      <c r="E255" s="4">
-        <v>1.554</v>
+      <c r="E255" s="9">
+        <v>1554</v>
       </c>
       <c r="F255" s="4">
         <v>322</v>
@@ -11110,8 +11124,8 @@
       <c r="L255" s="4">
         <v>88</v>
       </c>
-      <c r="M255" s="5">
-        <v>4.2830000000000004</v>
+      <c r="M255" s="7">
+        <v>4283</v>
       </c>
     </row>
     <row r="256" spans="1:13" x14ac:dyDescent="0.25">
@@ -11127,8 +11141,8 @@
       <c r="D256" s="4">
         <v>22</v>
       </c>
-      <c r="E256" s="4">
-        <v>1.0329999999999999</v>
+      <c r="E256" s="9">
+        <v>1033</v>
       </c>
       <c r="F256" s="4">
         <v>267</v>
@@ -11151,8 +11165,8 @@
       <c r="L256" s="4">
         <v>89</v>
       </c>
-      <c r="M256" s="5">
-        <v>3.605</v>
+      <c r="M256" s="7">
+        <v>3605</v>
       </c>
     </row>
     <row r="257" spans="1:13" x14ac:dyDescent="0.25">
@@ -11166,8 +11180,8 @@
       <c r="D257" s="4">
         <v>97</v>
       </c>
-      <c r="E257" s="4">
-        <v>1.9379999999999999</v>
+      <c r="E257" s="9">
+        <v>1938</v>
       </c>
       <c r="F257" s="4">
         <v>169</v>
@@ -11190,8 +11204,8 @@
       <c r="L257" s="4">
         <v>87</v>
       </c>
-      <c r="M257" s="5">
-        <v>4.1239999999999997</v>
+      <c r="M257" s="7">
+        <v>4124</v>
       </c>
     </row>
     <row r="258" spans="1:13" x14ac:dyDescent="0.25">
@@ -11207,8 +11221,8 @@
       <c r="D258" s="4">
         <v>23</v>
       </c>
-      <c r="E258" s="4">
-        <v>1.286</v>
+      <c r="E258" s="9">
+        <v>1286</v>
       </c>
       <c r="F258" s="4">
         <v>128</v>
@@ -11231,8 +11245,8 @@
       <c r="L258" s="4">
         <v>79</v>
       </c>
-      <c r="M258" s="5">
-        <v>3.3359999999999999</v>
+      <c r="M258" s="7">
+        <v>3336</v>
       </c>
     </row>
     <row r="259" spans="1:13" x14ac:dyDescent="0.25">
@@ -11246,8 +11260,8 @@
       <c r="D259" s="4">
         <v>145</v>
       </c>
-      <c r="E259" s="4">
-        <v>1.9750000000000001</v>
+      <c r="E259" s="9">
+        <v>1975</v>
       </c>
       <c r="F259" s="4">
         <v>77</v>
@@ -11270,8 +11284,8 @@
       <c r="L259" s="4">
         <v>96</v>
       </c>
-      <c r="M259" s="5">
-        <v>3.6309999999999998</v>
+      <c r="M259" s="7">
+        <v>3631</v>
       </c>
     </row>
     <row r="260" spans="1:13" x14ac:dyDescent="0.25">
@@ -11287,8 +11301,8 @@
       <c r="D260" s="4">
         <v>47</v>
       </c>
-      <c r="E260" s="4">
-        <v>1.1499999999999999</v>
+      <c r="E260" s="9">
+        <v>1150</v>
       </c>
       <c r="F260" s="4">
         <v>38</v>
@@ -11311,8 +11325,8 @@
       <c r="L260" s="4">
         <v>67</v>
       </c>
-      <c r="M260" s="5">
-        <v>2.4830000000000001</v>
+      <c r="M260" s="7">
+        <v>2483</v>
       </c>
     </row>
     <row r="261" spans="1:13" x14ac:dyDescent="0.25">
@@ -11326,8 +11340,8 @@
       <c r="D261" s="4">
         <v>212</v>
       </c>
-      <c r="E261" s="4">
-        <v>1.4630000000000001</v>
+      <c r="E261" s="9">
+        <v>1463</v>
       </c>
       <c r="F261" s="4">
         <v>14</v>
@@ -11350,8 +11364,8 @@
       <c r="L261" s="4">
         <v>88</v>
       </c>
-      <c r="M261" s="5">
-        <v>2.653</v>
+      <c r="M261" s="7">
+        <v>2653</v>
       </c>
     </row>
     <row r="262" spans="1:13" x14ac:dyDescent="0.25">
@@ -11367,8 +11381,8 @@
       <c r="D262" s="4">
         <v>122</v>
       </c>
-      <c r="E262" s="4">
-        <v>1.306</v>
+      <c r="E262" s="9">
+        <v>1306</v>
       </c>
       <c r="F262" s="4">
         <v>18</v>
@@ -11391,8 +11405,8 @@
       <c r="L262" s="4">
         <v>104</v>
       </c>
-      <c r="M262" s="5">
-        <v>2.653</v>
+      <c r="M262" s="7">
+        <v>2653</v>
       </c>
     </row>
     <row r="263" spans="1:13" x14ac:dyDescent="0.25">
@@ -11406,8 +11420,8 @@
       <c r="D263" s="4">
         <v>456</v>
       </c>
-      <c r="E263" s="4">
-        <v>1.671</v>
+      <c r="E263" s="9">
+        <v>1671</v>
       </c>
       <c r="F263" s="4">
         <v>8</v>
@@ -11430,8 +11444,8 @@
       <c r="L263" s="4">
         <v>120</v>
       </c>
-      <c r="M263" s="5">
-        <v>3.3839999999999999</v>
+      <c r="M263" s="7">
+        <v>3384</v>
       </c>
     </row>
     <row r="264" spans="1:13" x14ac:dyDescent="0.25">
@@ -11439,38 +11453,38 @@
         <v>12</v>
       </c>
       <c r="B264" s="6"/>
-      <c r="C264" s="5">
-        <v>1.0389999999999999</v>
-      </c>
-      <c r="D264" s="5">
-        <v>1.3819999999999999</v>
-      </c>
-      <c r="E264" s="5">
-        <v>18.277000000000001</v>
-      </c>
-      <c r="F264" s="5">
-        <v>4.524</v>
-      </c>
-      <c r="G264" s="5">
-        <v>9.83</v>
-      </c>
-      <c r="H264" s="5">
-        <v>26.256</v>
-      </c>
-      <c r="I264" s="5">
-        <v>21.542000000000002</v>
-      </c>
-      <c r="J264" s="5">
-        <v>2.544</v>
+      <c r="C264" s="7">
+        <v>1039</v>
+      </c>
+      <c r="D264" s="7">
+        <v>1382</v>
+      </c>
+      <c r="E264" s="7">
+        <v>18277</v>
+      </c>
+      <c r="F264" s="7">
+        <v>4524</v>
+      </c>
+      <c r="G264" s="7">
+        <v>9830</v>
+      </c>
+      <c r="H264" s="7">
+        <v>26256</v>
+      </c>
+      <c r="I264" s="7">
+        <v>21542</v>
+      </c>
+      <c r="J264" s="7">
+        <v>2544</v>
       </c>
       <c r="K264" s="5">
         <v>498</v>
       </c>
-      <c r="L264" s="5">
-        <v>1.462</v>
-      </c>
-      <c r="M264" s="5">
-        <v>87.353999999999999</v>
+      <c r="L264" s="7">
+        <v>1462</v>
+      </c>
+      <c r="M264" s="7">
+        <v>87354</v>
       </c>
     </row>
     <row r="265" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -11531,11 +11545,11 @@
       <c r="F266" s="4">
         <v>3</v>
       </c>
-      <c r="G266" s="4">
-        <v>1.204</v>
-      </c>
-      <c r="H266" s="4">
-        <v>2.875</v>
+      <c r="G266" s="9">
+        <v>1204</v>
+      </c>
+      <c r="H266" s="9">
+        <v>2875</v>
       </c>
       <c r="I266" s="4">
         <v>576</v>
@@ -11549,8 +11563,8 @@
       <c r="L266" s="4">
         <v>32</v>
       </c>
-      <c r="M266" s="5">
-        <v>4.7690000000000001</v>
+      <c r="M266" s="7">
+        <v>4769</v>
       </c>
     </row>
     <row r="267" spans="1:13" x14ac:dyDescent="0.25">
@@ -11573,8 +11587,8 @@
       <c r="G267" s="4">
         <v>860</v>
       </c>
-      <c r="H267" s="4">
-        <v>2.6669999999999998</v>
+      <c r="H267" s="9">
+        <v>2667</v>
       </c>
       <c r="I267" s="4">
         <v>908</v>
@@ -11588,8 +11602,8 @@
       <c r="L267" s="4">
         <v>16</v>
       </c>
-      <c r="M267" s="5">
-        <v>4.5670000000000002</v>
+      <c r="M267" s="7">
+        <v>4567</v>
       </c>
     </row>
     <row r="268" spans="1:13" x14ac:dyDescent="0.25">
@@ -11614,11 +11628,11 @@
       <c r="G268" s="4">
         <v>758</v>
       </c>
-      <c r="H268" s="4">
-        <v>1.3</v>
-      </c>
-      <c r="I268" s="4">
-        <v>1.1659999999999999</v>
+      <c r="H268" s="9">
+        <v>1300</v>
+      </c>
+      <c r="I268" s="9">
+        <v>1166</v>
       </c>
       <c r="J268" s="4">
         <v>85</v>
@@ -11629,8 +11643,8 @@
       <c r="L268" s="4">
         <v>13</v>
       </c>
-      <c r="M268" s="5">
-        <v>3.4049999999999998</v>
+      <c r="M268" s="7">
+        <v>3405</v>
       </c>
     </row>
     <row r="269" spans="1:13" x14ac:dyDescent="0.25">
@@ -11656,8 +11670,8 @@
       <c r="H269" s="4">
         <v>835</v>
       </c>
-      <c r="I269" s="4">
-        <v>1.4450000000000001</v>
+      <c r="I269" s="9">
+        <v>1445</v>
       </c>
       <c r="J269" s="4">
         <v>87</v>
@@ -11668,8 +11682,8 @@
       <c r="L269" s="4">
         <v>12</v>
       </c>
-      <c r="M269" s="5">
-        <v>3.2029999999999998</v>
+      <c r="M269" s="7">
+        <v>3203</v>
       </c>
     </row>
     <row r="270" spans="1:13" x14ac:dyDescent="0.25">
@@ -11694,8 +11708,8 @@
       <c r="G270" s="4">
         <v>321</v>
       </c>
-      <c r="H270" s="4">
-        <v>1.2529999999999999</v>
+      <c r="H270" s="9">
+        <v>1253</v>
       </c>
       <c r="I270" s="4">
         <v>984</v>
@@ -11709,8 +11723,8 @@
       <c r="L270" s="4">
         <v>15</v>
       </c>
-      <c r="M270" s="5">
-        <v>3.161</v>
+      <c r="M270" s="7">
+        <v>3161</v>
       </c>
     </row>
     <row r="271" spans="1:13" x14ac:dyDescent="0.25">
@@ -11736,8 +11750,8 @@
       <c r="H271" s="4">
         <v>932</v>
       </c>
-      <c r="I271" s="4">
-        <v>1.0169999999999999</v>
+      <c r="I271" s="9">
+        <v>1017</v>
       </c>
       <c r="J271" s="4">
         <v>95</v>
@@ -11748,8 +11762,8 @@
       <c r="L271" s="4">
         <v>16</v>
       </c>
-      <c r="M271" s="5">
-        <v>3.0950000000000002</v>
+      <c r="M271" s="7">
+        <v>3095</v>
       </c>
     </row>
     <row r="272" spans="1:13" x14ac:dyDescent="0.25">
@@ -11774,8 +11788,8 @@
       <c r="G272" s="4">
         <v>324</v>
       </c>
-      <c r="H272" s="4">
-        <v>1.3859999999999999</v>
+      <c r="H272" s="9">
+        <v>1386</v>
       </c>
       <c r="I272" s="4">
         <v>921</v>
@@ -11789,8 +11803,8 @@
       <c r="L272" s="4">
         <v>22</v>
       </c>
-      <c r="M272" s="5">
-        <v>3.4769999999999999</v>
+      <c r="M272" s="7">
+        <v>3477</v>
       </c>
     </row>
     <row r="273" spans="1:13" x14ac:dyDescent="0.25">
@@ -11813,8 +11827,8 @@
       <c r="G273" s="4">
         <v>394</v>
       </c>
-      <c r="H273" s="4">
-        <v>1.02</v>
+      <c r="H273" s="9">
+        <v>1020</v>
       </c>
       <c r="I273" s="4">
         <v>688</v>
@@ -11828,8 +11842,8 @@
       <c r="L273" s="4">
         <v>22</v>
       </c>
-      <c r="M273" s="5">
-        <v>3.3239999999999998</v>
+      <c r="M273" s="7">
+        <v>3324</v>
       </c>
     </row>
     <row r="274" spans="1:13" x14ac:dyDescent="0.25">
@@ -11854,8 +11868,8 @@
       <c r="G274" s="4">
         <v>714</v>
       </c>
-      <c r="H274" s="4">
-        <v>1.4330000000000001</v>
+      <c r="H274" s="9">
+        <v>1433</v>
       </c>
       <c r="I274" s="4">
         <v>640</v>
@@ -11869,8 +11883,8 @@
       <c r="L274" s="4">
         <v>21</v>
       </c>
-      <c r="M274" s="5">
-        <v>3.8239999999999998</v>
+      <c r="M274" s="7">
+        <v>3824</v>
       </c>
     </row>
     <row r="275" spans="1:13" x14ac:dyDescent="0.25">
@@ -11908,8 +11922,8 @@
       <c r="L275" s="4">
         <v>17</v>
       </c>
-      <c r="M275" s="5">
-        <v>3.5680000000000001</v>
+      <c r="M275" s="7">
+        <v>3568</v>
       </c>
     </row>
     <row r="276" spans="1:13" x14ac:dyDescent="0.25">
@@ -11934,8 +11948,8 @@
       <c r="G276" s="4">
         <v>637</v>
       </c>
-      <c r="H276" s="4">
-        <v>1.0289999999999999</v>
+      <c r="H276" s="9">
+        <v>1029</v>
       </c>
       <c r="I276" s="4">
         <v>479</v>
@@ -11949,8 +11963,8 @@
       <c r="L276" s="4">
         <v>12</v>
       </c>
-      <c r="M276" s="5">
-        <v>3.5270000000000001</v>
+      <c r="M276" s="7">
+        <v>3527</v>
       </c>
     </row>
     <row r="277" spans="1:13" x14ac:dyDescent="0.25">
@@ -11964,8 +11978,8 @@
       <c r="D277" s="4">
         <v>42</v>
       </c>
-      <c r="E277" s="4">
-        <v>1.2769999999999999</v>
+      <c r="E277" s="9">
+        <v>1277</v>
       </c>
       <c r="F277" s="4">
         <v>548</v>
@@ -11988,8 +12002,8 @@
       <c r="L277" s="4">
         <v>14</v>
       </c>
-      <c r="M277" s="5">
-        <v>3.5790000000000002</v>
+      <c r="M277" s="7">
+        <v>3579</v>
       </c>
     </row>
     <row r="278" spans="1:13" x14ac:dyDescent="0.25">
@@ -12029,8 +12043,8 @@
       <c r="L278" s="4">
         <v>13</v>
       </c>
-      <c r="M278" s="5">
-        <v>3.61</v>
+      <c r="M278" s="7">
+        <v>3610</v>
       </c>
     </row>
     <row r="279" spans="1:13" x14ac:dyDescent="0.25">
@@ -12044,8 +12058,8 @@
       <c r="D279" s="4">
         <v>56</v>
       </c>
-      <c r="E279" s="4">
-        <v>1.714</v>
+      <c r="E279" s="9">
+        <v>1714</v>
       </c>
       <c r="F279" s="4">
         <v>604</v>
@@ -12068,8 +12082,8 @@
       <c r="L279" s="4">
         <v>13</v>
       </c>
-      <c r="M279" s="5">
-        <v>3.7759999999999998</v>
+      <c r="M279" s="7">
+        <v>3776</v>
       </c>
     </row>
     <row r="280" spans="1:13" x14ac:dyDescent="0.25">
@@ -12085,8 +12099,8 @@
       <c r="D280" s="4">
         <v>19</v>
       </c>
-      <c r="E280" s="4">
-        <v>1.302</v>
+      <c r="E280" s="9">
+        <v>1302</v>
       </c>
       <c r="F280" s="4">
         <v>542</v>
@@ -12109,8 +12123,8 @@
       <c r="L280" s="4">
         <v>14</v>
       </c>
-      <c r="M280" s="5">
-        <v>3.6190000000000002</v>
+      <c r="M280" s="7">
+        <v>3619</v>
       </c>
     </row>
     <row r="281" spans="1:13" x14ac:dyDescent="0.25">
@@ -12124,8 +12138,8 @@
       <c r="D281" s="4">
         <v>93</v>
       </c>
-      <c r="E281" s="4">
-        <v>2.1560000000000001</v>
+      <c r="E281" s="9">
+        <v>2156</v>
       </c>
       <c r="F281" s="4">
         <v>422</v>
@@ -12148,8 +12162,8 @@
       <c r="L281" s="4">
         <v>17</v>
       </c>
-      <c r="M281" s="5">
-        <v>3.726</v>
+      <c r="M281" s="7">
+        <v>3726</v>
       </c>
     </row>
     <row r="282" spans="1:13" x14ac:dyDescent="0.25">
@@ -12165,8 +12179,8 @@
       <c r="D282" s="4">
         <v>29</v>
       </c>
-      <c r="E282" s="4">
-        <v>1.7989999999999999</v>
+      <c r="E282" s="9">
+        <v>1799</v>
       </c>
       <c r="F282" s="4">
         <v>347</v>
@@ -12189,8 +12203,8 @@
       <c r="L282" s="4">
         <v>12</v>
       </c>
-      <c r="M282" s="5">
-        <v>3.3540000000000001</v>
+      <c r="M282" s="7">
+        <v>3354</v>
       </c>
     </row>
     <row r="283" spans="1:13" x14ac:dyDescent="0.25">
@@ -12204,8 +12218,8 @@
       <c r="D283" s="4">
         <v>157</v>
       </c>
-      <c r="E283" s="4">
-        <v>2.4500000000000002</v>
+      <c r="E283" s="9">
+        <v>2450</v>
       </c>
       <c r="F283" s="4">
         <v>205</v>
@@ -12228,8 +12242,8 @@
       <c r="L283" s="4">
         <v>25</v>
       </c>
-      <c r="M283" s="5">
-        <v>3.585</v>
+      <c r="M283" s="7">
+        <v>3585</v>
       </c>
     </row>
     <row r="284" spans="1:13" x14ac:dyDescent="0.25">
@@ -12245,8 +12259,8 @@
       <c r="D284" s="4">
         <v>58</v>
       </c>
-      <c r="E284" s="4">
-        <v>1.7609999999999999</v>
+      <c r="E284" s="9">
+        <v>1761</v>
       </c>
       <c r="F284" s="4">
         <v>120</v>
@@ -12269,8 +12283,8 @@
       <c r="L284" s="4">
         <v>19</v>
       </c>
-      <c r="M284" s="5">
-        <v>2.76</v>
+      <c r="M284" s="7">
+        <v>2760</v>
       </c>
     </row>
     <row r="285" spans="1:13" x14ac:dyDescent="0.25">
@@ -12284,8 +12298,8 @@
       <c r="D285" s="4">
         <v>274</v>
       </c>
-      <c r="E285" s="4">
-        <v>2.1</v>
+      <c r="E285" s="9">
+        <v>2100</v>
       </c>
       <c r="F285" s="4">
         <v>75</v>
@@ -12308,8 +12322,8 @@
       <c r="L285" s="4">
         <v>17</v>
       </c>
-      <c r="M285" s="5">
-        <v>2.9630000000000001</v>
+      <c r="M285" s="7">
+        <v>2963</v>
       </c>
     </row>
     <row r="286" spans="1:13" x14ac:dyDescent="0.25">
@@ -12325,8 +12339,8 @@
       <c r="D286" s="4">
         <v>82</v>
       </c>
-      <c r="E286" s="4">
-        <v>1.4870000000000001</v>
+      <c r="E286" s="9">
+        <v>1487</v>
       </c>
       <c r="F286" s="4">
         <v>65</v>
@@ -12349,8 +12363,8 @@
       <c r="L286" s="4">
         <v>8</v>
       </c>
-      <c r="M286" s="5">
-        <v>2.0609999999999999</v>
+      <c r="M286" s="7">
+        <v>2061</v>
       </c>
     </row>
     <row r="287" spans="1:13" x14ac:dyDescent="0.25">
@@ -12364,8 +12378,8 @@
       <c r="D287" s="4">
         <v>420</v>
       </c>
-      <c r="E287" s="4">
-        <v>1.5069999999999999</v>
+      <c r="E287" s="9">
+        <v>1507</v>
       </c>
       <c r="F287" s="4">
         <v>19</v>
@@ -12388,8 +12402,8 @@
       <c r="L287" s="4">
         <v>18</v>
       </c>
-      <c r="M287" s="5">
-        <v>2.4769999999999999</v>
+      <c r="M287" s="7">
+        <v>2477</v>
       </c>
     </row>
     <row r="288" spans="1:13" x14ac:dyDescent="0.25">
@@ -12405,8 +12419,8 @@
       <c r="D288" s="4">
         <v>300</v>
       </c>
-      <c r="E288" s="4">
-        <v>1.639</v>
+      <c r="E288" s="9">
+        <v>1639</v>
       </c>
       <c r="F288" s="4">
         <v>22</v>
@@ -12429,8 +12443,8 @@
       <c r="L288" s="4">
         <v>23</v>
       </c>
-      <c r="M288" s="5">
-        <v>2.4209999999999998</v>
+      <c r="M288" s="7">
+        <v>2421</v>
       </c>
     </row>
     <row r="289" spans="1:13" x14ac:dyDescent="0.25">
@@ -12438,14 +12452,14 @@
       <c r="B289" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C289" s="4">
-        <v>1.1359999999999999</v>
+      <c r="C289" s="9">
+        <v>1136</v>
       </c>
       <c r="D289" s="4">
         <v>768</v>
       </c>
-      <c r="E289" s="4">
-        <v>1.49</v>
+      <c r="E289" s="9">
+        <v>1490</v>
       </c>
       <c r="F289" s="4">
         <v>4</v>
@@ -12468,8 +12482,8 @@
       <c r="L289" s="4">
         <v>33</v>
       </c>
-      <c r="M289" s="5">
-        <v>3.5310000000000001</v>
+      <c r="M289" s="7">
+        <v>3531</v>
       </c>
     </row>
     <row r="290" spans="1:13" x14ac:dyDescent="0.25">
@@ -12477,26 +12491,26 @@
         <v>12</v>
       </c>
       <c r="B290" s="6"/>
-      <c r="C290" s="5">
-        <v>2.3580000000000001</v>
-      </c>
-      <c r="D290" s="5">
-        <v>2.6859999999999999</v>
-      </c>
-      <c r="E290" s="5">
-        <v>24.82</v>
-      </c>
-      <c r="F290" s="5">
-        <v>6.9950000000000001</v>
-      </c>
-      <c r="G290" s="5">
-        <v>11.669</v>
-      </c>
-      <c r="H290" s="5">
-        <v>19.829999999999998</v>
-      </c>
-      <c r="I290" s="5">
-        <v>11.582000000000001</v>
+      <c r="C290" s="7">
+        <v>2358</v>
+      </c>
+      <c r="D290" s="7">
+        <v>2686</v>
+      </c>
+      <c r="E290" s="7">
+        <v>24820</v>
+      </c>
+      <c r="F290" s="7">
+        <v>6995</v>
+      </c>
+      <c r="G290" s="7">
+        <v>11669</v>
+      </c>
+      <c r="H290" s="7">
+        <v>19830</v>
+      </c>
+      <c r="I290" s="7">
+        <v>11582</v>
       </c>
       <c r="J290" s="5">
         <v>930</v>
@@ -12507,8 +12521,8 @@
       <c r="L290" s="5">
         <v>424</v>
       </c>
-      <c r="M290" s="5">
-        <v>81.382000000000005</v>
+      <c r="M290" s="7">
+        <v>81382</v>
       </c>
     </row>
     <row r="291" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -12569,14 +12583,14 @@
       <c r="F292" s="4">
         <v>1</v>
       </c>
-      <c r="G292" s="4">
-        <v>3.1589999999999998</v>
-      </c>
-      <c r="H292" s="4">
-        <v>15.657999999999999</v>
-      </c>
-      <c r="I292" s="4">
-        <v>3.4</v>
+      <c r="G292" s="9">
+        <v>3159</v>
+      </c>
+      <c r="H292" s="9">
+        <v>15658</v>
+      </c>
+      <c r="I292" s="9">
+        <v>3400</v>
       </c>
       <c r="J292" s="4">
         <v>56</v>
@@ -12587,8 +12601,8 @@
       <c r="L292" s="4">
         <v>121</v>
       </c>
-      <c r="M292" s="5">
-        <v>22.446000000000002</v>
+      <c r="M292" s="7">
+        <v>22446</v>
       </c>
     </row>
     <row r="293" spans="1:13" x14ac:dyDescent="0.25">
@@ -12608,14 +12622,14 @@
       <c r="F293" s="4">
         <v>4</v>
       </c>
-      <c r="G293" s="4">
-        <v>2.2749999999999999</v>
-      </c>
-      <c r="H293" s="4">
-        <v>14.696999999999999</v>
-      </c>
-      <c r="I293" s="4">
-        <v>4.9429999999999996</v>
+      <c r="G293" s="9">
+        <v>2275</v>
+      </c>
+      <c r="H293" s="9">
+        <v>14697</v>
+      </c>
+      <c r="I293" s="9">
+        <v>4943</v>
       </c>
       <c r="J293" s="4">
         <v>113</v>
@@ -12626,8 +12640,8 @@
       <c r="L293" s="4">
         <v>97</v>
       </c>
-      <c r="M293" s="5">
-        <v>22.198</v>
+      <c r="M293" s="7">
+        <v>22198</v>
       </c>
     </row>
     <row r="294" spans="1:13" x14ac:dyDescent="0.25">
@@ -12649,17 +12663,17 @@
       <c r="F294" s="4">
         <v>30</v>
       </c>
-      <c r="G294" s="4">
-        <v>1.9079999999999999</v>
-      </c>
-      <c r="H294" s="4">
-        <v>5.351</v>
-      </c>
-      <c r="I294" s="4">
-        <v>9.6549999999999994</v>
-      </c>
-      <c r="J294" s="4">
-        <v>1.0129999999999999</v>
+      <c r="G294" s="9">
+        <v>1908</v>
+      </c>
+      <c r="H294" s="9">
+        <v>5351</v>
+      </c>
+      <c r="I294" s="9">
+        <v>9655</v>
+      </c>
+      <c r="J294" s="9">
+        <v>1013</v>
       </c>
       <c r="K294" s="4">
         <v>2</v>
@@ -12667,8 +12681,8 @@
       <c r="L294" s="4">
         <v>101</v>
       </c>
-      <c r="M294" s="5">
-        <v>18.131</v>
+      <c r="M294" s="7">
+        <v>18131</v>
       </c>
     </row>
     <row r="295" spans="1:13" x14ac:dyDescent="0.25">
@@ -12688,17 +12702,17 @@
       <c r="F295" s="4">
         <v>52</v>
       </c>
-      <c r="G295" s="4">
-        <v>1.556</v>
-      </c>
-      <c r="H295" s="4">
-        <v>3.7370000000000001</v>
-      </c>
-      <c r="I295" s="4">
-        <v>11.958</v>
-      </c>
-      <c r="J295" s="4">
-        <v>1.5009999999999999</v>
+      <c r="G295" s="9">
+        <v>1556</v>
+      </c>
+      <c r="H295" s="9">
+        <v>3737</v>
+      </c>
+      <c r="I295" s="9">
+        <v>11958</v>
+      </c>
+      <c r="J295" s="9">
+        <v>1501</v>
       </c>
       <c r="K295" s="4">
         <v>3</v>
@@ -12706,8 +12720,8 @@
       <c r="L295" s="4">
         <v>127</v>
       </c>
-      <c r="M295" s="5">
-        <v>19.138000000000002</v>
+      <c r="M295" s="7">
+        <v>19138</v>
       </c>
     </row>
     <row r="296" spans="1:13" x14ac:dyDescent="0.25">
@@ -12729,17 +12743,17 @@
       <c r="F296" s="4">
         <v>930</v>
       </c>
-      <c r="G296" s="4">
-        <v>1.048</v>
-      </c>
-      <c r="H296" s="4">
-        <v>5.343</v>
-      </c>
-      <c r="I296" s="4">
-        <v>10.103</v>
-      </c>
-      <c r="J296" s="4">
-        <v>1.6539999999999999</v>
+      <c r="G296" s="9">
+        <v>1048</v>
+      </c>
+      <c r="H296" s="9">
+        <v>5343</v>
+      </c>
+      <c r="I296" s="9">
+        <v>10103</v>
+      </c>
+      <c r="J296" s="9">
+        <v>1654</v>
       </c>
       <c r="K296" s="4">
         <v>65</v>
@@ -12747,8 +12761,8 @@
       <c r="L296" s="4">
         <v>123</v>
       </c>
-      <c r="M296" s="5">
-        <v>19.407</v>
+      <c r="M296" s="7">
+        <v>19407</v>
       </c>
     </row>
     <row r="297" spans="1:13" x14ac:dyDescent="0.25">
@@ -12765,20 +12779,20 @@
       <c r="E297" s="4">
         <v>166</v>
       </c>
-      <c r="F297" s="4">
-        <v>1.349</v>
+      <c r="F297" s="9">
+        <v>1349</v>
       </c>
       <c r="G297" s="4">
         <v>928</v>
       </c>
-      <c r="H297" s="4">
-        <v>4.4480000000000004</v>
-      </c>
-      <c r="I297" s="4">
-        <v>11.803000000000001</v>
-      </c>
-      <c r="J297" s="4">
-        <v>1.9570000000000001</v>
+      <c r="H297" s="9">
+        <v>4448</v>
+      </c>
+      <c r="I297" s="9">
+        <v>11803</v>
+      </c>
+      <c r="J297" s="9">
+        <v>1957</v>
       </c>
       <c r="K297" s="4">
         <v>82</v>
@@ -12786,8 +12800,8 @@
       <c r="L297" s="4">
         <v>227</v>
       </c>
-      <c r="M297" s="5">
-        <v>21.178000000000001</v>
+      <c r="M297" s="7">
+        <v>21178</v>
       </c>
     </row>
     <row r="298" spans="1:13" x14ac:dyDescent="0.25">
@@ -12806,20 +12820,20 @@
       <c r="E298" s="4">
         <v>406</v>
       </c>
-      <c r="F298" s="4">
-        <v>1.3240000000000001</v>
-      </c>
-      <c r="G298" s="4">
-        <v>1.048</v>
-      </c>
-      <c r="H298" s="4">
-        <v>6.2539999999999996</v>
-      </c>
-      <c r="I298" s="4">
-        <v>10.039</v>
-      </c>
-      <c r="J298" s="4">
-        <v>1.867</v>
+      <c r="F298" s="9">
+        <v>1324</v>
+      </c>
+      <c r="G298" s="9">
+        <v>1048</v>
+      </c>
+      <c r="H298" s="9">
+        <v>6254</v>
+      </c>
+      <c r="I298" s="9">
+        <v>10039</v>
+      </c>
+      <c r="J298" s="9">
+        <v>1867</v>
       </c>
       <c r="K298" s="4">
         <v>201</v>
@@ -12827,8 +12841,8 @@
       <c r="L298" s="4">
         <v>160</v>
       </c>
-      <c r="M298" s="5">
-        <v>21.344999999999999</v>
+      <c r="M298" s="7">
+        <v>21345</v>
       </c>
     </row>
     <row r="299" spans="1:13" x14ac:dyDescent="0.25">
@@ -12842,23 +12856,23 @@
       <c r="D299" s="4">
         <v>98</v>
       </c>
-      <c r="E299" s="4">
-        <v>1.288</v>
-      </c>
-      <c r="F299" s="4">
-        <v>1.4970000000000001</v>
-      </c>
-      <c r="G299" s="4">
-        <v>1.258</v>
-      </c>
-      <c r="H299" s="4">
-        <v>5.8280000000000003</v>
-      </c>
-      <c r="I299" s="4">
-        <v>10.957000000000001</v>
-      </c>
-      <c r="J299" s="4">
-        <v>2.1</v>
+      <c r="E299" s="9">
+        <v>1288</v>
+      </c>
+      <c r="F299" s="9">
+        <v>1497</v>
+      </c>
+      <c r="G299" s="9">
+        <v>1258</v>
+      </c>
+      <c r="H299" s="9">
+        <v>5828</v>
+      </c>
+      <c r="I299" s="9">
+        <v>10957</v>
+      </c>
+      <c r="J299" s="9">
+        <v>2100</v>
       </c>
       <c r="K299" s="4">
         <v>235</v>
@@ -12866,8 +12880,8 @@
       <c r="L299" s="4">
         <v>210</v>
       </c>
-      <c r="M299" s="5">
-        <v>23.512</v>
+      <c r="M299" s="7">
+        <v>23512</v>
       </c>
     </row>
     <row r="300" spans="1:13" x14ac:dyDescent="0.25">
@@ -12886,20 +12900,20 @@
       <c r="E300" s="4">
         <v>838</v>
       </c>
-      <c r="F300" s="4">
-        <v>1.0680000000000001</v>
-      </c>
-      <c r="G300" s="4">
-        <v>2.1190000000000002</v>
-      </c>
-      <c r="H300" s="4">
-        <v>7.3440000000000003</v>
-      </c>
-      <c r="I300" s="4">
-        <v>9.3829999999999991</v>
-      </c>
-      <c r="J300" s="4">
-        <v>1.9370000000000001</v>
+      <c r="F300" s="9">
+        <v>1068</v>
+      </c>
+      <c r="G300" s="9">
+        <v>2119</v>
+      </c>
+      <c r="H300" s="9">
+        <v>7344</v>
+      </c>
+      <c r="I300" s="9">
+        <v>9383</v>
+      </c>
+      <c r="J300" s="9">
+        <v>1937</v>
       </c>
       <c r="K300" s="4">
         <v>274</v>
@@ -12907,8 +12921,8 @@
       <c r="L300" s="4">
         <v>162</v>
       </c>
-      <c r="M300" s="5">
-        <v>23.161999999999999</v>
+      <c r="M300" s="7">
+        <v>23162</v>
       </c>
     </row>
     <row r="301" spans="1:13" x14ac:dyDescent="0.25">
@@ -12922,23 +12936,23 @@
       <c r="D301" s="4">
         <v>92</v>
       </c>
-      <c r="E301" s="4">
-        <v>2.2349999999999999</v>
-      </c>
-      <c r="F301" s="4">
-        <v>1.2030000000000001</v>
-      </c>
-      <c r="G301" s="4">
-        <v>2.1349999999999998</v>
-      </c>
-      <c r="H301" s="4">
-        <v>7.1470000000000002</v>
-      </c>
-      <c r="I301" s="4">
-        <v>9.66</v>
-      </c>
-      <c r="J301" s="4">
-        <v>1.8280000000000001</v>
+      <c r="E301" s="9">
+        <v>2235</v>
+      </c>
+      <c r="F301" s="9">
+        <v>1203</v>
+      </c>
+      <c r="G301" s="9">
+        <v>2135</v>
+      </c>
+      <c r="H301" s="9">
+        <v>7147</v>
+      </c>
+      <c r="I301" s="9">
+        <v>9660</v>
+      </c>
+      <c r="J301" s="9">
+        <v>1828</v>
       </c>
       <c r="K301" s="4">
         <v>249</v>
@@ -12946,8 +12960,8 @@
       <c r="L301" s="4">
         <v>171</v>
       </c>
-      <c r="M301" s="5">
-        <v>24.774999999999999</v>
+      <c r="M301" s="7">
+        <v>24775</v>
       </c>
     </row>
     <row r="302" spans="1:13" x14ac:dyDescent="0.25">
@@ -12963,23 +12977,23 @@
       <c r="D302" s="4">
         <v>18</v>
       </c>
-      <c r="E302" s="4">
-        <v>1.131</v>
-      </c>
-      <c r="F302" s="4">
-        <v>1.341</v>
-      </c>
-      <c r="G302" s="4">
-        <v>1.89</v>
-      </c>
-      <c r="H302" s="4">
-        <v>6.5039999999999996</v>
-      </c>
-      <c r="I302" s="4">
-        <v>7.5019999999999998</v>
-      </c>
-      <c r="J302" s="4">
-        <v>1.381</v>
+      <c r="E302" s="9">
+        <v>1131</v>
+      </c>
+      <c r="F302" s="9">
+        <v>1341</v>
+      </c>
+      <c r="G302" s="9">
+        <v>1890</v>
+      </c>
+      <c r="H302" s="9">
+        <v>6504</v>
+      </c>
+      <c r="I302" s="9">
+        <v>7502</v>
+      </c>
+      <c r="J302" s="9">
+        <v>1381</v>
       </c>
       <c r="K302" s="4">
         <v>335</v>
@@ -12987,8 +13001,8 @@
       <c r="L302" s="4">
         <v>168</v>
       </c>
-      <c r="M302" s="5">
-        <v>20.283999999999999</v>
+      <c r="M302" s="7">
+        <v>20284</v>
       </c>
     </row>
     <row r="303" spans="1:13" x14ac:dyDescent="0.25">
@@ -13002,20 +13016,20 @@
       <c r="D303" s="4">
         <v>73</v>
       </c>
-      <c r="E303" s="4">
-        <v>2.5990000000000002</v>
-      </c>
-      <c r="F303" s="4">
-        <v>1.5009999999999999</v>
-      </c>
-      <c r="G303" s="4">
-        <v>2.1240000000000001</v>
-      </c>
-      <c r="H303" s="4">
-        <v>6.0730000000000004</v>
-      </c>
-      <c r="I303" s="4">
-        <v>6.9669999999999996</v>
+      <c r="E303" s="9">
+        <v>2599</v>
+      </c>
+      <c r="F303" s="9">
+        <v>1501</v>
+      </c>
+      <c r="G303" s="9">
+        <v>2124</v>
+      </c>
+      <c r="H303" s="9">
+        <v>6073</v>
+      </c>
+      <c r="I303" s="9">
+        <v>6967</v>
       </c>
       <c r="J303" s="4">
         <v>974</v>
@@ -13026,8 +13040,8 @@
       <c r="L303" s="4">
         <v>130</v>
       </c>
-      <c r="M303" s="5">
-        <v>20.788</v>
+      <c r="M303" s="7">
+        <v>20788</v>
       </c>
     </row>
     <row r="304" spans="1:13" x14ac:dyDescent="0.25">
@@ -13043,23 +13057,23 @@
       <c r="D304" s="4">
         <v>17</v>
       </c>
-      <c r="E304" s="4">
-        <v>1.3149999999999999</v>
-      </c>
-      <c r="F304" s="4">
-        <v>1.4430000000000001</v>
-      </c>
-      <c r="G304" s="4">
-        <v>1.7549999999999999</v>
-      </c>
-      <c r="H304" s="4">
-        <v>5.2389999999999999</v>
-      </c>
-      <c r="I304" s="4">
-        <v>5.6340000000000003</v>
-      </c>
-      <c r="J304" s="4">
-        <v>1.0049999999999999</v>
+      <c r="E304" s="9">
+        <v>1315</v>
+      </c>
+      <c r="F304" s="9">
+        <v>1443</v>
+      </c>
+      <c r="G304" s="9">
+        <v>1755</v>
+      </c>
+      <c r="H304" s="9">
+        <v>5239</v>
+      </c>
+      <c r="I304" s="9">
+        <v>5634</v>
+      </c>
+      <c r="J304" s="9">
+        <v>1005</v>
       </c>
       <c r="K304" s="4">
         <v>348</v>
@@ -13067,8 +13081,8 @@
       <c r="L304" s="4">
         <v>141</v>
       </c>
-      <c r="M304" s="5">
-        <v>16.913</v>
+      <c r="M304" s="7">
+        <v>16913</v>
       </c>
     </row>
     <row r="305" spans="1:13" x14ac:dyDescent="0.25">
@@ -13082,20 +13096,20 @@
       <c r="D305" s="4">
         <v>105</v>
       </c>
-      <c r="E305" s="4">
-        <v>3.1309999999999998</v>
-      </c>
-      <c r="F305" s="4">
-        <v>1.482</v>
-      </c>
-      <c r="G305" s="4">
-        <v>2.0049999999999999</v>
-      </c>
-      <c r="H305" s="4">
-        <v>4.9509999999999996</v>
-      </c>
-      <c r="I305" s="4">
-        <v>4.319</v>
+      <c r="E305" s="9">
+        <v>3131</v>
+      </c>
+      <c r="F305" s="9">
+        <v>1482</v>
+      </c>
+      <c r="G305" s="9">
+        <v>2005</v>
+      </c>
+      <c r="H305" s="9">
+        <v>4951</v>
+      </c>
+      <c r="I305" s="9">
+        <v>4319</v>
       </c>
       <c r="J305" s="4">
         <v>581</v>
@@ -13106,8 +13120,8 @@
       <c r="L305" s="4">
         <v>142</v>
       </c>
-      <c r="M305" s="5">
-        <v>16.986999999999998</v>
+      <c r="M305" s="7">
+        <v>16987</v>
       </c>
     </row>
     <row r="306" spans="1:13" x14ac:dyDescent="0.25">
@@ -13123,20 +13137,20 @@
       <c r="D306" s="4">
         <v>27</v>
       </c>
-      <c r="E306" s="4">
-        <v>1.5940000000000001</v>
-      </c>
-      <c r="F306" s="4">
-        <v>1.2609999999999999</v>
-      </c>
-      <c r="G306" s="4">
-        <v>1.736</v>
-      </c>
-      <c r="H306" s="4">
-        <v>4.0270000000000001</v>
-      </c>
-      <c r="I306" s="4">
-        <v>4.1130000000000004</v>
+      <c r="E306" s="9">
+        <v>1594</v>
+      </c>
+      <c r="F306" s="9">
+        <v>1261</v>
+      </c>
+      <c r="G306" s="9">
+        <v>1736</v>
+      </c>
+      <c r="H306" s="9">
+        <v>4027</v>
+      </c>
+      <c r="I306" s="9">
+        <v>4113</v>
       </c>
       <c r="J306" s="4">
         <v>677</v>
@@ -13147,8 +13161,8 @@
       <c r="L306" s="4">
         <v>140</v>
       </c>
-      <c r="M306" s="5">
-        <v>13.879</v>
+      <c r="M306" s="7">
+        <v>13879</v>
       </c>
     </row>
     <row r="307" spans="1:13" x14ac:dyDescent="0.25">
@@ -13162,20 +13176,20 @@
       <c r="D307" s="4">
         <v>228</v>
       </c>
-      <c r="E307" s="4">
-        <v>3.786</v>
-      </c>
-      <c r="F307" s="4">
-        <v>1.0129999999999999</v>
-      </c>
-      <c r="G307" s="4">
-        <v>1.647</v>
-      </c>
-      <c r="H307" s="4">
-        <v>3.7429999999999999</v>
-      </c>
-      <c r="I307" s="4">
-        <v>2.7309999999999999</v>
+      <c r="E307" s="9">
+        <v>3786</v>
+      </c>
+      <c r="F307" s="9">
+        <v>1013</v>
+      </c>
+      <c r="G307" s="9">
+        <v>1647</v>
+      </c>
+      <c r="H307" s="9">
+        <v>3743</v>
+      </c>
+      <c r="I307" s="9">
+        <v>2731</v>
       </c>
       <c r="J307" s="4">
         <v>315</v>
@@ -13186,8 +13200,8 @@
       <c r="L307" s="4">
         <v>118</v>
       </c>
-      <c r="M307" s="5">
-        <v>13.840999999999999</v>
+      <c r="M307" s="7">
+        <v>13841</v>
       </c>
     </row>
     <row r="308" spans="1:13" x14ac:dyDescent="0.25">
@@ -13203,20 +13217,20 @@
       <c r="D308" s="4">
         <v>56</v>
       </c>
-      <c r="E308" s="4">
-        <v>2.1890000000000001</v>
+      <c r="E308" s="9">
+        <v>2189</v>
       </c>
       <c r="F308" s="4">
         <v>673</v>
       </c>
-      <c r="G308" s="4">
-        <v>1.256</v>
-      </c>
-      <c r="H308" s="4">
-        <v>3.59</v>
-      </c>
-      <c r="I308" s="4">
-        <v>2.8239999999999998</v>
+      <c r="G308" s="9">
+        <v>1256</v>
+      </c>
+      <c r="H308" s="9">
+        <v>3590</v>
+      </c>
+      <c r="I308" s="9">
+        <v>2824</v>
       </c>
       <c r="J308" s="4">
         <v>322</v>
@@ -13227,8 +13241,8 @@
       <c r="L308" s="4">
         <v>127</v>
       </c>
-      <c r="M308" s="5">
-        <v>11.222</v>
+      <c r="M308" s="7">
+        <v>11222</v>
       </c>
     </row>
     <row r="309" spans="1:13" x14ac:dyDescent="0.25">
@@ -13242,20 +13256,20 @@
       <c r="D309" s="4">
         <v>304</v>
       </c>
-      <c r="E309" s="4">
-        <v>4.3029999999999999</v>
+      <c r="E309" s="9">
+        <v>4303</v>
       </c>
       <c r="F309" s="4">
         <v>524</v>
       </c>
-      <c r="G309" s="4">
-        <v>1.286</v>
-      </c>
-      <c r="H309" s="4">
-        <v>3.1309999999999998</v>
-      </c>
-      <c r="I309" s="4">
-        <v>1.6020000000000001</v>
+      <c r="G309" s="9">
+        <v>1286</v>
+      </c>
+      <c r="H309" s="9">
+        <v>3131</v>
+      </c>
+      <c r="I309" s="9">
+        <v>1602</v>
       </c>
       <c r="J309" s="4">
         <v>116</v>
@@ -13266,8 +13280,8 @@
       <c r="L309" s="4">
         <v>129</v>
       </c>
-      <c r="M309" s="5">
-        <v>11.673999999999999</v>
+      <c r="M309" s="7">
+        <v>11674</v>
       </c>
     </row>
     <row r="310" spans="1:13" x14ac:dyDescent="0.25">
@@ -13283,20 +13297,20 @@
       <c r="D310" s="4">
         <v>86</v>
       </c>
-      <c r="E310" s="4">
-        <v>2.2789999999999999</v>
+      <c r="E310" s="9">
+        <v>2279</v>
       </c>
       <c r="F310" s="4">
         <v>275</v>
       </c>
-      <c r="G310" s="4">
-        <v>1.0529999999999999</v>
-      </c>
-      <c r="H310" s="4">
-        <v>2.2629999999999999</v>
-      </c>
-      <c r="I310" s="4">
-        <v>2.1949999999999998</v>
+      <c r="G310" s="9">
+        <v>1053</v>
+      </c>
+      <c r="H310" s="9">
+        <v>2263</v>
+      </c>
+      <c r="I310" s="9">
+        <v>2195</v>
       </c>
       <c r="J310" s="4">
         <v>179</v>
@@ -13307,8 +13321,8 @@
       <c r="L310" s="4">
         <v>109</v>
       </c>
-      <c r="M310" s="5">
-        <v>8.56</v>
+      <c r="M310" s="7">
+        <v>8560</v>
       </c>
     </row>
     <row r="311" spans="1:13" x14ac:dyDescent="0.25">
@@ -13322,20 +13336,20 @@
       <c r="D311" s="4">
         <v>449</v>
       </c>
-      <c r="E311" s="4">
-        <v>3.6589999999999998</v>
+      <c r="E311" s="9">
+        <v>3659</v>
       </c>
       <c r="F311" s="4">
         <v>174</v>
       </c>
-      <c r="G311" s="4">
-        <v>1.1839999999999999</v>
-      </c>
-      <c r="H311" s="4">
-        <v>1.875</v>
-      </c>
-      <c r="I311" s="4">
-        <v>1.37</v>
+      <c r="G311" s="9">
+        <v>1184</v>
+      </c>
+      <c r="H311" s="9">
+        <v>1875</v>
+      </c>
+      <c r="I311" s="9">
+        <v>1370</v>
       </c>
       <c r="J311" s="4">
         <v>67</v>
@@ -13346,8 +13360,8 @@
       <c r="L311" s="4">
         <v>121</v>
       </c>
-      <c r="M311" s="5">
-        <v>9.2430000000000003</v>
+      <c r="M311" s="7">
+        <v>9243</v>
       </c>
     </row>
     <row r="312" spans="1:13" x14ac:dyDescent="0.25">
@@ -13363,8 +13377,8 @@
       <c r="D312" s="4">
         <v>103</v>
       </c>
-      <c r="E312" s="4">
-        <v>1.9119999999999999</v>
+      <c r="E312" s="9">
+        <v>1912</v>
       </c>
       <c r="F312" s="4">
         <v>95</v>
@@ -13372,11 +13386,11 @@
       <c r="G312" s="4">
         <v>719</v>
       </c>
-      <c r="H312" s="4">
-        <v>1.242</v>
-      </c>
-      <c r="I312" s="4">
-        <v>1.482</v>
+      <c r="H312" s="9">
+        <v>1242</v>
+      </c>
+      <c r="I312" s="9">
+        <v>1482</v>
       </c>
       <c r="J312" s="4">
         <v>101</v>
@@ -13387,8 +13401,8 @@
       <c r="L312" s="4">
         <v>75</v>
       </c>
-      <c r="M312" s="5">
-        <v>5.82</v>
+      <c r="M312" s="7">
+        <v>5820</v>
       </c>
     </row>
     <row r="313" spans="1:13" x14ac:dyDescent="0.25">
@@ -13402,8 +13416,8 @@
       <c r="D313" s="4">
         <v>452</v>
       </c>
-      <c r="E313" s="4">
-        <v>2.8359999999999999</v>
+      <c r="E313" s="9">
+        <v>2836</v>
       </c>
       <c r="F313" s="4">
         <v>50</v>
@@ -13426,8 +13440,8 @@
       <c r="L313" s="4">
         <v>84</v>
       </c>
-      <c r="M313" s="5">
-        <v>6.5250000000000004</v>
+      <c r="M313" s="7">
+        <v>6525</v>
       </c>
     </row>
     <row r="314" spans="1:13" x14ac:dyDescent="0.25">
@@ -13443,8 +13457,8 @@
       <c r="D314" s="4">
         <v>234</v>
       </c>
-      <c r="E314" s="4">
-        <v>2.0049999999999999</v>
+      <c r="E314" s="9">
+        <v>2005</v>
       </c>
       <c r="F314" s="4">
         <v>53</v>
@@ -13455,8 +13469,8 @@
       <c r="H314" s="4">
         <v>908</v>
       </c>
-      <c r="I314" s="4">
-        <v>1.274</v>
+      <c r="I314" s="9">
+        <v>1274</v>
       </c>
       <c r="J314" s="4">
         <v>86</v>
@@ -13467,8 +13481,8 @@
       <c r="L314" s="4">
         <v>82</v>
       </c>
-      <c r="M314" s="5">
-        <v>5.4909999999999997</v>
+      <c r="M314" s="7">
+        <v>5491</v>
       </c>
     </row>
     <row r="315" spans="1:13" x14ac:dyDescent="0.25">
@@ -13476,14 +13490,14 @@
       <c r="B315" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C315" s="4">
-        <v>1.3280000000000001</v>
+      <c r="C315" s="9">
+        <v>1328</v>
       </c>
       <c r="D315" s="4">
         <v>977</v>
       </c>
-      <c r="E315" s="4">
-        <v>3.3820000000000001</v>
+      <c r="E315" s="9">
+        <v>3382</v>
       </c>
       <c r="F315" s="4">
         <v>20</v>
@@ -13506,8 +13520,8 @@
       <c r="L315" s="4">
         <v>118</v>
       </c>
-      <c r="M315" s="5">
-        <v>7.7160000000000002</v>
+      <c r="M315" s="7">
+        <v>7716</v>
       </c>
     </row>
     <row r="316" spans="1:13" x14ac:dyDescent="0.25">
@@ -13515,38 +13529,38 @@
         <v>12</v>
       </c>
       <c r="B316" s="6"/>
-      <c r="C316" s="5">
-        <v>2.9980000000000002</v>
-      </c>
-      <c r="D316" s="5">
-        <v>3.7869999999999999</v>
-      </c>
-      <c r="E316" s="5">
-        <v>41.323</v>
-      </c>
-      <c r="F316" s="5">
-        <v>17.363</v>
-      </c>
-      <c r="G316" s="5">
-        <v>36.33</v>
-      </c>
-      <c r="H316" s="5">
-        <v>120.929</v>
-      </c>
-      <c r="I316" s="5">
-        <v>135.22900000000001</v>
-      </c>
-      <c r="J316" s="5">
-        <v>19.885999999999999</v>
-      </c>
-      <c r="K316" s="5">
-        <v>3.2069999999999999</v>
-      </c>
-      <c r="L316" s="5">
-        <v>3.1829999999999998</v>
-      </c>
-      <c r="M316" s="5">
-        <v>384.23500000000001</v>
+      <c r="C316" s="7">
+        <v>2998</v>
+      </c>
+      <c r="D316" s="7">
+        <v>3787</v>
+      </c>
+      <c r="E316" s="7">
+        <v>41323</v>
+      </c>
+      <c r="F316" s="7">
+        <v>17363</v>
+      </c>
+      <c r="G316" s="7">
+        <v>36330</v>
+      </c>
+      <c r="H316" s="7">
+        <v>120929</v>
+      </c>
+      <c r="I316" s="7">
+        <v>135229</v>
+      </c>
+      <c r="J316" s="7">
+        <v>19886</v>
+      </c>
+      <c r="K316" s="7">
+        <v>3207</v>
+      </c>
+      <c r="L316" s="7">
+        <v>3183</v>
+      </c>
+      <c r="M316" s="7">
+        <v>384235</v>
       </c>
     </row>
     <row r="317" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -14544,8 +14558,8 @@
       <c r="L341" s="4">
         <v>4</v>
       </c>
-      <c r="M341" s="5">
-        <v>1.0249999999999999</v>
+      <c r="M341" s="7">
+        <v>1025</v>
       </c>
     </row>
     <row r="342" spans="1:13" x14ac:dyDescent="0.25">
@@ -14553,26 +14567,26 @@
         <v>12</v>
       </c>
       <c r="B342" s="6"/>
-      <c r="C342" s="5">
-        <v>1.2290000000000001</v>
+      <c r="C342" s="7">
+        <v>1229</v>
       </c>
       <c r="D342" s="5">
         <v>768</v>
       </c>
-      <c r="E342" s="5">
-        <v>5.165</v>
-      </c>
-      <c r="F342" s="5">
-        <v>1.4990000000000001</v>
-      </c>
-      <c r="G342" s="5">
-        <v>1.857</v>
-      </c>
-      <c r="H342" s="5">
-        <v>3.4340000000000002</v>
-      </c>
-      <c r="I342" s="5">
-        <v>1.474</v>
+      <c r="E342" s="7">
+        <v>5165</v>
+      </c>
+      <c r="F342" s="7">
+        <v>1499</v>
+      </c>
+      <c r="G342" s="7">
+        <v>1857</v>
+      </c>
+      <c r="H342" s="7">
+        <v>3434</v>
+      </c>
+      <c r="I342" s="7">
+        <v>1474</v>
       </c>
       <c r="J342" s="5">
         <v>119</v>
@@ -14583,8 +14597,8 @@
       <c r="L342" s="5">
         <v>40</v>
       </c>
-      <c r="M342" s="5">
-        <v>15.599</v>
+      <c r="M342" s="7">
+        <v>15599</v>
       </c>
     </row>
     <row r="343" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -14648,8 +14662,8 @@
       <c r="G344" s="4">
         <v>590</v>
       </c>
-      <c r="H344" s="4">
-        <v>2.6960000000000002</v>
+      <c r="H344" s="9">
+        <v>2696</v>
       </c>
       <c r="I344" s="4">
         <v>559</v>
@@ -14663,8 +14677,8 @@
       <c r="L344" s="4">
         <v>22</v>
       </c>
-      <c r="M344" s="5">
-        <v>3.8889999999999998</v>
+      <c r="M344" s="7">
+        <v>3889</v>
       </c>
     </row>
     <row r="345" spans="1:13" x14ac:dyDescent="0.25">
@@ -14687,8 +14701,8 @@
       <c r="G345" s="4">
         <v>511</v>
       </c>
-      <c r="H345" s="4">
-        <v>2.4329999999999998</v>
+      <c r="H345" s="9">
+        <v>2433</v>
       </c>
       <c r="I345" s="4">
         <v>783</v>
@@ -14702,8 +14716,8 @@
       <c r="L345" s="4">
         <v>11</v>
       </c>
-      <c r="M345" s="5">
-        <v>3.7810000000000001</v>
+      <c r="M345" s="7">
+        <v>3781</v>
       </c>
     </row>
     <row r="346" spans="1:13" x14ac:dyDescent="0.25">
@@ -14728,11 +14742,11 @@
       <c r="G346" s="4">
         <v>529</v>
       </c>
-      <c r="H346" s="4">
-        <v>1.1439999999999999</v>
-      </c>
-      <c r="I346" s="4">
-        <v>1.1619999999999999</v>
+      <c r="H346" s="9">
+        <v>1144</v>
+      </c>
+      <c r="I346" s="9">
+        <v>1162</v>
       </c>
       <c r="J346" s="4">
         <v>60</v>
@@ -14743,8 +14757,8 @@
       <c r="L346" s="4">
         <v>16</v>
       </c>
-      <c r="M346" s="5">
-        <v>2.9470000000000001</v>
+      <c r="M346" s="7">
+        <v>2947</v>
       </c>
     </row>
     <row r="347" spans="1:13" x14ac:dyDescent="0.25">
@@ -14770,8 +14784,8 @@
       <c r="H347" s="4">
         <v>808</v>
       </c>
-      <c r="I347" s="4">
-        <v>1.379</v>
+      <c r="I347" s="9">
+        <v>1379</v>
       </c>
       <c r="J347" s="4">
         <v>103</v>
@@ -14782,8 +14796,8 @@
       <c r="L347" s="4">
         <v>12</v>
       </c>
-      <c r="M347" s="5">
-        <v>2.8809999999999998</v>
+      <c r="M347" s="7">
+        <v>2881</v>
       </c>
     </row>
     <row r="348" spans="1:13" x14ac:dyDescent="0.25">
@@ -14808,8 +14822,8 @@
       <c r="G348" s="4">
         <v>313</v>
       </c>
-      <c r="H348" s="4">
-        <v>1.2070000000000001</v>
+      <c r="H348" s="9">
+        <v>1207</v>
       </c>
       <c r="I348" s="4">
         <v>943</v>
@@ -14823,8 +14837,8 @@
       <c r="L348" s="4">
         <v>10</v>
       </c>
-      <c r="M348" s="5">
-        <v>2.871</v>
+      <c r="M348" s="7">
+        <v>2871</v>
       </c>
     </row>
     <row r="349" spans="1:13" x14ac:dyDescent="0.25">
@@ -14862,8 +14876,8 @@
       <c r="L349" s="4">
         <v>14</v>
       </c>
-      <c r="M349" s="5">
-        <v>2.7930000000000001</v>
+      <c r="M349" s="7">
+        <v>2793</v>
       </c>
     </row>
     <row r="350" spans="1:13" x14ac:dyDescent="0.25">
@@ -14888,8 +14902,8 @@
       <c r="G350" s="4">
         <v>273</v>
       </c>
-      <c r="H350" s="4">
-        <v>1.3620000000000001</v>
+      <c r="H350" s="9">
+        <v>1362</v>
       </c>
       <c r="I350" s="4">
         <v>791</v>
@@ -14903,8 +14917,8 @@
       <c r="L350" s="4">
         <v>21</v>
       </c>
-      <c r="M350" s="5">
-        <v>3.0510000000000002</v>
+      <c r="M350" s="7">
+        <v>3051</v>
       </c>
     </row>
     <row r="351" spans="1:13" x14ac:dyDescent="0.25">
@@ -14942,8 +14956,8 @@
       <c r="L351" s="4">
         <v>8</v>
       </c>
-      <c r="M351" s="5">
-        <v>2.96</v>
+      <c r="M351" s="7">
+        <v>2960</v>
       </c>
     </row>
     <row r="352" spans="1:13" x14ac:dyDescent="0.25">
@@ -14968,8 +14982,8 @@
       <c r="G352" s="4">
         <v>472</v>
       </c>
-      <c r="H352" s="4">
-        <v>1.4510000000000001</v>
+      <c r="H352" s="9">
+        <v>1451</v>
       </c>
       <c r="I352" s="4">
         <v>549</v>
@@ -14983,8 +14997,8 @@
       <c r="L352" s="4">
         <v>17</v>
       </c>
-      <c r="M352" s="5">
-        <v>3.1539999999999999</v>
+      <c r="M352" s="7">
+        <v>3154</v>
       </c>
     </row>
     <row r="353" spans="1:13" x14ac:dyDescent="0.25">
@@ -15022,8 +15036,8 @@
       <c r="L353" s="4">
         <v>12</v>
       </c>
-      <c r="M353" s="5">
-        <v>3.206</v>
+      <c r="M353" s="7">
+        <v>3206</v>
       </c>
     </row>
     <row r="354" spans="1:13" x14ac:dyDescent="0.25">
@@ -15048,8 +15062,8 @@
       <c r="G354" s="4">
         <v>579</v>
       </c>
-      <c r="H354" s="4">
-        <v>1.1479999999999999</v>
+      <c r="H354" s="9">
+        <v>1148</v>
       </c>
       <c r="I354" s="4">
         <v>487</v>
@@ -15063,8 +15077,8 @@
       <c r="L354" s="4">
         <v>19</v>
       </c>
-      <c r="M354" s="5">
-        <v>3.141</v>
+      <c r="M354" s="7">
+        <v>3141</v>
       </c>
     </row>
     <row r="355" spans="1:13" x14ac:dyDescent="0.25">
@@ -15102,8 +15116,8 @@
       <c r="L355" s="4">
         <v>15</v>
       </c>
-      <c r="M355" s="5">
-        <v>2.9220000000000002</v>
+      <c r="M355" s="7">
+        <v>2922</v>
       </c>
     </row>
     <row r="356" spans="1:13" x14ac:dyDescent="0.25">
@@ -15143,8 +15157,8 @@
       <c r="L356" s="4">
         <v>13</v>
       </c>
-      <c r="M356" s="5">
-        <v>2.9049999999999998</v>
+      <c r="M356" s="7">
+        <v>2905</v>
       </c>
     </row>
     <row r="357" spans="1:13" x14ac:dyDescent="0.25">
@@ -15158,8 +15172,8 @@
       <c r="D357" s="4">
         <v>42</v>
       </c>
-      <c r="E357" s="4">
-        <v>1.18</v>
+      <c r="E357" s="9">
+        <v>1180</v>
       </c>
       <c r="F357" s="4">
         <v>398</v>
@@ -15182,8 +15196,8 @@
       <c r="L357" s="4">
         <v>19</v>
       </c>
-      <c r="M357" s="5">
-        <v>2.8090000000000002</v>
+      <c r="M357" s="7">
+        <v>2809</v>
       </c>
     </row>
     <row r="358" spans="1:13" x14ac:dyDescent="0.25">
@@ -15223,8 +15237,8 @@
       <c r="L358" s="4">
         <v>17</v>
       </c>
-      <c r="M358" s="5">
-        <v>2.5259999999999998</v>
+      <c r="M358" s="7">
+        <v>2526</v>
       </c>
     </row>
     <row r="359" spans="1:13" x14ac:dyDescent="0.25">
@@ -15238,8 +15252,8 @@
       <c r="D359" s="4">
         <v>94</v>
       </c>
-      <c r="E359" s="4">
-        <v>1.4470000000000001</v>
+      <c r="E359" s="9">
+        <v>1447</v>
       </c>
       <c r="F359" s="4">
         <v>267</v>
@@ -15262,8 +15276,8 @@
       <c r="L359" s="4">
         <v>11</v>
       </c>
-      <c r="M359" s="5">
-        <v>2.609</v>
+      <c r="M359" s="7">
+        <v>2609</v>
       </c>
     </row>
     <row r="360" spans="1:13" x14ac:dyDescent="0.25">
@@ -15303,8 +15317,8 @@
       <c r="L360" s="4">
         <v>17</v>
       </c>
-      <c r="M360" s="5">
-        <v>2.2519999999999998</v>
+      <c r="M360" s="7">
+        <v>2252</v>
       </c>
     </row>
     <row r="361" spans="1:13" x14ac:dyDescent="0.25">
@@ -15318,8 +15332,8 @@
       <c r="D361" s="4">
         <v>122</v>
       </c>
-      <c r="E361" s="4">
-        <v>1.4710000000000001</v>
+      <c r="E361" s="9">
+        <v>1471</v>
       </c>
       <c r="F361" s="4">
         <v>108</v>
@@ -15342,8 +15356,8 @@
       <c r="L361" s="4">
         <v>16</v>
       </c>
-      <c r="M361" s="5">
-        <v>2.2810000000000001</v>
+      <c r="M361" s="7">
+        <v>2281</v>
       </c>
     </row>
     <row r="362" spans="1:13" x14ac:dyDescent="0.25">
@@ -15383,8 +15397,8 @@
       <c r="L362" s="4">
         <v>19</v>
       </c>
-      <c r="M362" s="5">
-        <v>1.841</v>
+      <c r="M362" s="7">
+        <v>1841</v>
       </c>
     </row>
     <row r="363" spans="1:13" x14ac:dyDescent="0.25">
@@ -15398,8 +15412,8 @@
       <c r="D363" s="4">
         <v>210</v>
       </c>
-      <c r="E363" s="4">
-        <v>1.292</v>
+      <c r="E363" s="9">
+        <v>1292</v>
       </c>
       <c r="F363" s="4">
         <v>57</v>
@@ -15422,8 +15436,8 @@
       <c r="L363" s="4">
         <v>19</v>
       </c>
-      <c r="M363" s="5">
-        <v>2.0270000000000001</v>
+      <c r="M363" s="7">
+        <v>2027</v>
       </c>
     </row>
     <row r="364" spans="1:13" x14ac:dyDescent="0.25">
@@ -15463,8 +15477,8 @@
       <c r="L364" s="4">
         <v>17</v>
       </c>
-      <c r="M364" s="5">
-        <v>1.2430000000000001</v>
+      <c r="M364" s="7">
+        <v>1243</v>
       </c>
     </row>
     <row r="365" spans="1:13" x14ac:dyDescent="0.25">
@@ -15502,8 +15516,8 @@
       <c r="L365" s="4">
         <v>21</v>
       </c>
-      <c r="M365" s="5">
-        <v>1.45</v>
+      <c r="M365" s="7">
+        <v>1450</v>
       </c>
     </row>
     <row r="366" spans="1:13" x14ac:dyDescent="0.25">
@@ -15543,8 +15557,8 @@
       <c r="L366" s="4">
         <v>16</v>
       </c>
-      <c r="M366" s="5">
-        <v>1.4319999999999999</v>
+      <c r="M366" s="7">
+        <v>1432</v>
       </c>
     </row>
     <row r="367" spans="1:13" x14ac:dyDescent="0.25">
@@ -15558,8 +15572,8 @@
       <c r="D367" s="4">
         <v>458</v>
       </c>
-      <c r="E367" s="4">
-        <v>1.0129999999999999</v>
+      <c r="E367" s="9">
+        <v>1013</v>
       </c>
       <c r="F367" s="4">
         <v>3</v>
@@ -15582,8 +15596,8 @@
       <c r="L367" s="4">
         <v>26</v>
       </c>
-      <c r="M367" s="5">
-        <v>2.19</v>
+      <c r="M367" s="7">
+        <v>2190</v>
       </c>
     </row>
     <row r="368" spans="1:13" x14ac:dyDescent="0.25">
@@ -15591,26 +15605,26 @@
         <v>12</v>
       </c>
       <c r="B368" s="6"/>
-      <c r="C368" s="5">
-        <v>1.224</v>
-      </c>
-      <c r="D368" s="5">
-        <v>1.617</v>
-      </c>
-      <c r="E368" s="5">
-        <v>15.199</v>
-      </c>
-      <c r="F368" s="5">
-        <v>5.0590000000000002</v>
-      </c>
-      <c r="G368" s="5">
-        <v>8.9600000000000009</v>
-      </c>
-      <c r="H368" s="5">
-        <v>19.535</v>
-      </c>
-      <c r="I368" s="5">
-        <v>10.329000000000001</v>
+      <c r="C368" s="7">
+        <v>1224</v>
+      </c>
+      <c r="D368" s="7">
+        <v>1617</v>
+      </c>
+      <c r="E368" s="7">
+        <v>15199</v>
+      </c>
+      <c r="F368" s="7">
+        <v>5059</v>
+      </c>
+      <c r="G368" s="7">
+        <v>8960</v>
+      </c>
+      <c r="H368" s="7">
+        <v>19535</v>
+      </c>
+      <c r="I368" s="7">
+        <v>10329</v>
       </c>
       <c r="J368" s="5">
         <v>779</v>
@@ -15621,8 +15635,8 @@
       <c r="L368" s="5">
         <v>388</v>
       </c>
-      <c r="M368" s="5">
-        <v>63.161000000000001</v>
+      <c r="M368" s="7">
+        <v>63161</v>
       </c>
     </row>
     <row r="369" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -15683,14 +15697,14 @@
       <c r="F370" s="4">
         <v>7</v>
       </c>
-      <c r="G370" s="4">
-        <v>9.452</v>
-      </c>
-      <c r="H370" s="4">
-        <v>28.105</v>
-      </c>
-      <c r="I370" s="4">
-        <v>5.0860000000000003</v>
+      <c r="G370" s="9">
+        <v>9452</v>
+      </c>
+      <c r="H370" s="9">
+        <v>28105</v>
+      </c>
+      <c r="I370" s="9">
+        <v>5086</v>
       </c>
       <c r="J370" s="4">
         <v>41</v>
@@ -15701,8 +15715,8 @@
       <c r="L370" s="4">
         <v>392</v>
       </c>
-      <c r="M370" s="5">
-        <v>43.323999999999998</v>
+      <c r="M370" s="7">
+        <v>43324</v>
       </c>
     </row>
     <row r="371" spans="1:13" x14ac:dyDescent="0.25">
@@ -15722,14 +15736,14 @@
       <c r="F371" s="4">
         <v>11</v>
       </c>
-      <c r="G371" s="4">
-        <v>7.1349999999999998</v>
-      </c>
-      <c r="H371" s="4">
-        <v>26.206</v>
-      </c>
-      <c r="I371" s="4">
-        <v>8.2910000000000004</v>
+      <c r="G371" s="9">
+        <v>7135</v>
+      </c>
+      <c r="H371" s="9">
+        <v>26206</v>
+      </c>
+      <c r="I371" s="9">
+        <v>8291</v>
       </c>
       <c r="J371" s="4">
         <v>67</v>
@@ -15740,8 +15754,8 @@
       <c r="L371" s="4">
         <v>164</v>
       </c>
-      <c r="M371" s="5">
-        <v>42.274999999999999</v>
+      <c r="M371" s="7">
+        <v>42275</v>
       </c>
     </row>
     <row r="372" spans="1:13" x14ac:dyDescent="0.25">
@@ -15763,14 +15777,14 @@
       <c r="F372" s="4">
         <v>227</v>
       </c>
-      <c r="G372" s="4">
-        <v>7.4809999999999999</v>
-      </c>
-      <c r="H372" s="4">
-        <v>12.929</v>
-      </c>
-      <c r="I372" s="4">
-        <v>11.622</v>
+      <c r="G372" s="9">
+        <v>7481</v>
+      </c>
+      <c r="H372" s="9">
+        <v>12929</v>
+      </c>
+      <c r="I372" s="9">
+        <v>11622</v>
       </c>
       <c r="J372" s="4">
         <v>577</v>
@@ -15781,8 +15795,8 @@
       <c r="L372" s="4">
         <v>194</v>
       </c>
-      <c r="M372" s="5">
-        <v>33.347999999999999</v>
+      <c r="M372" s="7">
+        <v>33348</v>
       </c>
     </row>
     <row r="373" spans="1:13" x14ac:dyDescent="0.25">
@@ -15802,14 +15816,14 @@
       <c r="F373" s="4">
         <v>352</v>
       </c>
-      <c r="G373" s="4">
-        <v>6.5090000000000003</v>
-      </c>
-      <c r="H373" s="4">
-        <v>9.0380000000000003</v>
-      </c>
-      <c r="I373" s="4">
-        <v>15.023</v>
+      <c r="G373" s="9">
+        <v>6509</v>
+      </c>
+      <c r="H373" s="9">
+        <v>9038</v>
+      </c>
+      <c r="I373" s="9">
+        <v>15023</v>
       </c>
       <c r="J373" s="4">
         <v>937</v>
@@ -15820,8 +15834,8 @@
       <c r="L373" s="4">
         <v>214</v>
       </c>
-      <c r="M373" s="5">
-        <v>33.113999999999997</v>
+      <c r="M373" s="7">
+        <v>33114</v>
       </c>
     </row>
     <row r="374" spans="1:13" x14ac:dyDescent="0.25">
@@ -15840,17 +15854,17 @@
       <c r="E374" s="4">
         <v>228</v>
       </c>
-      <c r="F374" s="4">
-        <v>4.1520000000000001</v>
-      </c>
-      <c r="G374" s="4">
-        <v>3.7120000000000002</v>
-      </c>
-      <c r="H374" s="4">
-        <v>13.670999999999999</v>
-      </c>
-      <c r="I374" s="4">
-        <v>11.207000000000001</v>
+      <c r="F374" s="9">
+        <v>4152</v>
+      </c>
+      <c r="G374" s="9">
+        <v>3712</v>
+      </c>
+      <c r="H374" s="9">
+        <v>13671</v>
+      </c>
+      <c r="I374" s="9">
+        <v>11207</v>
       </c>
       <c r="J374" s="4">
         <v>906</v>
@@ -15861,8 +15875,8 @@
       <c r="L374" s="4">
         <v>220</v>
       </c>
-      <c r="M374" s="5">
-        <v>34.415999999999997</v>
+      <c r="M374" s="7">
+        <v>34416</v>
       </c>
     </row>
     <row r="375" spans="1:13" x14ac:dyDescent="0.25">
@@ -15879,20 +15893,20 @@
       <c r="E375" s="4">
         <v>664</v>
       </c>
-      <c r="F375" s="4">
-        <v>5.54</v>
-      </c>
-      <c r="G375" s="4">
-        <v>3.121</v>
-      </c>
-      <c r="H375" s="4">
-        <v>9.9060000000000006</v>
-      </c>
-      <c r="I375" s="4">
-        <v>12.045999999999999</v>
-      </c>
-      <c r="J375" s="4">
-        <v>1.0329999999999999</v>
+      <c r="F375" s="9">
+        <v>5540</v>
+      </c>
+      <c r="G375" s="9">
+        <v>3121</v>
+      </c>
+      <c r="H375" s="9">
+        <v>9906</v>
+      </c>
+      <c r="I375" s="9">
+        <v>12046</v>
+      </c>
+      <c r="J375" s="9">
+        <v>1033</v>
       </c>
       <c r="K375" s="4">
         <v>20</v>
@@ -15900,8 +15914,8 @@
       <c r="L375" s="4">
         <v>361</v>
       </c>
-      <c r="M375" s="5">
-        <v>33.659999999999997</v>
+      <c r="M375" s="7">
+        <v>33660</v>
       </c>
     </row>
     <row r="376" spans="1:13" x14ac:dyDescent="0.25">
@@ -15917,20 +15931,20 @@
       <c r="D376" s="4">
         <v>153</v>
       </c>
-      <c r="E376" s="4">
-        <v>1.4970000000000001</v>
-      </c>
-      <c r="F376" s="4">
-        <v>5.3879999999999999</v>
-      </c>
-      <c r="G376" s="4">
-        <v>3.2719999999999998</v>
-      </c>
-      <c r="H376" s="4">
-        <v>14.852</v>
-      </c>
-      <c r="I376" s="4">
-        <v>9.4179999999999993</v>
+      <c r="E376" s="9">
+        <v>1497</v>
+      </c>
+      <c r="F376" s="9">
+        <v>5388</v>
+      </c>
+      <c r="G376" s="9">
+        <v>3272</v>
+      </c>
+      <c r="H376" s="9">
+        <v>14852</v>
+      </c>
+      <c r="I376" s="9">
+        <v>9418</v>
       </c>
       <c r="J376" s="4">
         <v>939</v>
@@ -15941,8 +15955,8 @@
       <c r="L376" s="4">
         <v>286</v>
       </c>
-      <c r="M376" s="5">
-        <v>35.912999999999997</v>
+      <c r="M376" s="7">
+        <v>35913</v>
       </c>
     </row>
     <row r="377" spans="1:13" x14ac:dyDescent="0.25">
@@ -15956,20 +15970,20 @@
       <c r="D377" s="4">
         <v>455</v>
       </c>
-      <c r="E377" s="4">
-        <v>5.0149999999999997</v>
-      </c>
-      <c r="F377" s="4">
-        <v>5.98</v>
-      </c>
-      <c r="G377" s="4">
-        <v>3.5419999999999998</v>
-      </c>
-      <c r="H377" s="4">
-        <v>10.412000000000001</v>
-      </c>
-      <c r="I377" s="4">
-        <v>8.4909999999999997</v>
+      <c r="E377" s="9">
+        <v>5015</v>
+      </c>
+      <c r="F377" s="9">
+        <v>5980</v>
+      </c>
+      <c r="G377" s="9">
+        <v>3542</v>
+      </c>
+      <c r="H377" s="9">
+        <v>10412</v>
+      </c>
+      <c r="I377" s="9">
+        <v>8491</v>
       </c>
       <c r="J377" s="4">
         <v>833</v>
@@ -15980,8 +15994,8 @@
       <c r="L377" s="4">
         <v>294</v>
       </c>
-      <c r="M377" s="5">
-        <v>35.325000000000003</v>
+      <c r="M377" s="7">
+        <v>35325</v>
       </c>
     </row>
     <row r="378" spans="1:13" x14ac:dyDescent="0.25">
@@ -15997,20 +16011,20 @@
       <c r="D378" s="4">
         <v>106</v>
       </c>
-      <c r="E378" s="4">
-        <v>3.0430000000000001</v>
-      </c>
-      <c r="F378" s="4">
-        <v>5.0759999999999996</v>
-      </c>
-      <c r="G378" s="4">
-        <v>6.6349999999999998</v>
-      </c>
-      <c r="H378" s="4">
-        <v>15.419</v>
-      </c>
-      <c r="I378" s="4">
-        <v>6.9660000000000002</v>
+      <c r="E378" s="9">
+        <v>3043</v>
+      </c>
+      <c r="F378" s="9">
+        <v>5076</v>
+      </c>
+      <c r="G378" s="9">
+        <v>6635</v>
+      </c>
+      <c r="H378" s="9">
+        <v>15419</v>
+      </c>
+      <c r="I378" s="9">
+        <v>6966</v>
       </c>
       <c r="J378" s="4">
         <v>851</v>
@@ -16021,8 +16035,8 @@
       <c r="L378" s="4">
         <v>259</v>
       </c>
-      <c r="M378" s="5">
-        <v>38.506</v>
+      <c r="M378" s="7">
+        <v>38506</v>
       </c>
     </row>
     <row r="379" spans="1:13" x14ac:dyDescent="0.25">
@@ -16036,20 +16050,20 @@
       <c r="D379" s="4">
         <v>423</v>
       </c>
-      <c r="E379" s="4">
-        <v>8.6140000000000008</v>
-      </c>
-      <c r="F379" s="4">
-        <v>4.7629999999999999</v>
-      </c>
-      <c r="G379" s="4">
-        <v>6.0990000000000002</v>
-      </c>
-      <c r="H379" s="4">
-        <v>10.435</v>
-      </c>
-      <c r="I379" s="4">
-        <v>5.98</v>
+      <c r="E379" s="9">
+        <v>8614</v>
+      </c>
+      <c r="F379" s="9">
+        <v>4763</v>
+      </c>
+      <c r="G379" s="9">
+        <v>6099</v>
+      </c>
+      <c r="H379" s="9">
+        <v>10435</v>
+      </c>
+      <c r="I379" s="9">
+        <v>5980</v>
       </c>
       <c r="J379" s="4">
         <v>745</v>
@@ -16060,8 +16074,8 @@
       <c r="L379" s="4">
         <v>248</v>
       </c>
-      <c r="M379" s="5">
-        <v>37.665999999999997</v>
+      <c r="M379" s="7">
+        <v>37666</v>
       </c>
     </row>
     <row r="380" spans="1:13" x14ac:dyDescent="0.25">
@@ -16077,20 +16091,20 @@
       <c r="D380" s="4">
         <v>64</v>
       </c>
-      <c r="E380" s="4">
-        <v>3.835</v>
-      </c>
-      <c r="F380" s="4">
-        <v>6.1159999999999997</v>
-      </c>
-      <c r="G380" s="4">
-        <v>5.8090000000000002</v>
-      </c>
-      <c r="H380" s="4">
-        <v>12.055999999999999</v>
-      </c>
-      <c r="I380" s="4">
-        <v>5.1029999999999998</v>
+      <c r="E380" s="9">
+        <v>3835</v>
+      </c>
+      <c r="F380" s="9">
+        <v>6116</v>
+      </c>
+      <c r="G380" s="9">
+        <v>5809</v>
+      </c>
+      <c r="H380" s="9">
+        <v>12056</v>
+      </c>
+      <c r="I380" s="9">
+        <v>5103</v>
       </c>
       <c r="J380" s="4">
         <v>644</v>
@@ -16101,8 +16115,8 @@
       <c r="L380" s="4">
         <v>218</v>
       </c>
-      <c r="M380" s="5">
-        <v>34.011000000000003</v>
+      <c r="M380" s="7">
+        <v>34011</v>
       </c>
     </row>
     <row r="381" spans="1:13" x14ac:dyDescent="0.25">
@@ -16116,20 +16130,20 @@
       <c r="D381" s="4">
         <v>343</v>
       </c>
-      <c r="E381" s="4">
-        <v>9.4369999999999994</v>
-      </c>
-      <c r="F381" s="4">
-        <v>5.3079999999999998</v>
-      </c>
-      <c r="G381" s="4">
-        <v>5.6029999999999998</v>
-      </c>
-      <c r="H381" s="4">
-        <v>7.9169999999999998</v>
-      </c>
-      <c r="I381" s="4">
-        <v>3.7240000000000002</v>
+      <c r="E381" s="9">
+        <v>9437</v>
+      </c>
+      <c r="F381" s="9">
+        <v>5308</v>
+      </c>
+      <c r="G381" s="9">
+        <v>5603</v>
+      </c>
+      <c r="H381" s="9">
+        <v>7917</v>
+      </c>
+      <c r="I381" s="9">
+        <v>3724</v>
       </c>
       <c r="J381" s="4">
         <v>367</v>
@@ -16140,8 +16154,8 @@
       <c r="L381" s="4">
         <v>225</v>
       </c>
-      <c r="M381" s="5">
-        <v>33.281999999999996</v>
+      <c r="M381" s="7">
+        <v>33282</v>
       </c>
     </row>
     <row r="382" spans="1:13" x14ac:dyDescent="0.25">
@@ -16157,20 +16171,20 @@
       <c r="D382" s="4">
         <v>54</v>
       </c>
-      <c r="E382" s="4">
-        <v>4.46</v>
-      </c>
-      <c r="F382" s="4">
-        <v>6.5940000000000003</v>
-      </c>
-      <c r="G382" s="4">
-        <v>5.3730000000000002</v>
-      </c>
-      <c r="H382" s="4">
-        <v>8.8260000000000005</v>
-      </c>
-      <c r="I382" s="4">
-        <v>3.5339999999999998</v>
+      <c r="E382" s="9">
+        <v>4460</v>
+      </c>
+      <c r="F382" s="9">
+        <v>6594</v>
+      </c>
+      <c r="G382" s="9">
+        <v>5373</v>
+      </c>
+      <c r="H382" s="9">
+        <v>8826</v>
+      </c>
+      <c r="I382" s="9">
+        <v>3534</v>
       </c>
       <c r="J382" s="4">
         <v>433</v>
@@ -16181,8 +16195,8 @@
       <c r="L382" s="4">
         <v>255</v>
       </c>
-      <c r="M382" s="5">
-        <v>29.687999999999999</v>
+      <c r="M382" s="7">
+        <v>29688</v>
       </c>
     </row>
     <row r="383" spans="1:13" x14ac:dyDescent="0.25">
@@ -16196,20 +16210,20 @@
       <c r="D383" s="4">
         <v>487</v>
       </c>
-      <c r="E383" s="4">
-        <v>10.074</v>
-      </c>
-      <c r="F383" s="4">
-        <v>4.7359999999999998</v>
-      </c>
-      <c r="G383" s="4">
-        <v>4.5439999999999996</v>
-      </c>
-      <c r="H383" s="4">
-        <v>5.8410000000000002</v>
-      </c>
-      <c r="I383" s="4">
-        <v>2.1269999999999998</v>
+      <c r="E383" s="9">
+        <v>10074</v>
+      </c>
+      <c r="F383" s="9">
+        <v>4736</v>
+      </c>
+      <c r="G383" s="9">
+        <v>4544</v>
+      </c>
+      <c r="H383" s="9">
+        <v>5841</v>
+      </c>
+      <c r="I383" s="9">
+        <v>2127</v>
       </c>
       <c r="J383" s="4">
         <v>240</v>
@@ -16220,8 +16234,8 @@
       <c r="L383" s="4">
         <v>271</v>
       </c>
-      <c r="M383" s="5">
-        <v>28.706</v>
+      <c r="M383" s="7">
+        <v>28706</v>
       </c>
     </row>
     <row r="384" spans="1:13" x14ac:dyDescent="0.25">
@@ -16237,20 +16251,20 @@
       <c r="D384" s="4">
         <v>97</v>
       </c>
-      <c r="E384" s="4">
-        <v>5.2460000000000004</v>
-      </c>
-      <c r="F384" s="4">
-        <v>5.2210000000000001</v>
-      </c>
-      <c r="G384" s="4">
-        <v>4.6829999999999998</v>
-      </c>
-      <c r="H384" s="4">
-        <v>6.3970000000000002</v>
-      </c>
-      <c r="I384" s="4">
-        <v>2.423</v>
+      <c r="E384" s="9">
+        <v>5246</v>
+      </c>
+      <c r="F384" s="9">
+        <v>5221</v>
+      </c>
+      <c r="G384" s="9">
+        <v>4683</v>
+      </c>
+      <c r="H384" s="9">
+        <v>6397</v>
+      </c>
+      <c r="I384" s="9">
+        <v>2423</v>
       </c>
       <c r="J384" s="4">
         <v>258</v>
@@ -16261,8 +16275,8 @@
       <c r="L384" s="4">
         <v>239</v>
       </c>
-      <c r="M384" s="5">
-        <v>24.696999999999999</v>
+      <c r="M384" s="7">
+        <v>24697</v>
       </c>
     </row>
     <row r="385" spans="1:13" x14ac:dyDescent="0.25">
@@ -16276,20 +16290,20 @@
       <c r="D385" s="4">
         <v>750</v>
       </c>
-      <c r="E385" s="4">
-        <v>10.808999999999999</v>
-      </c>
-      <c r="F385" s="4">
-        <v>3.07</v>
-      </c>
-      <c r="G385" s="4">
-        <v>3.274</v>
-      </c>
-      <c r="H385" s="4">
-        <v>4.1870000000000003</v>
-      </c>
-      <c r="I385" s="4">
-        <v>1.292</v>
+      <c r="E385" s="9">
+        <v>10809</v>
+      </c>
+      <c r="F385" s="9">
+        <v>3070</v>
+      </c>
+      <c r="G385" s="9">
+        <v>3274</v>
+      </c>
+      <c r="H385" s="9">
+        <v>4187</v>
+      </c>
+      <c r="I385" s="9">
+        <v>1292</v>
       </c>
       <c r="J385" s="4">
         <v>125</v>
@@ -16300,8 +16314,8 @@
       <c r="L385" s="4">
         <v>267</v>
       </c>
-      <c r="M385" s="5">
-        <v>24.446000000000002</v>
+      <c r="M385" s="7">
+        <v>24446</v>
       </c>
     </row>
     <row r="386" spans="1:13" x14ac:dyDescent="0.25">
@@ -16317,20 +16331,20 @@
       <c r="D386" s="4">
         <v>169</v>
       </c>
-      <c r="E386" s="4">
-        <v>6.8029999999999999</v>
-      </c>
-      <c r="F386" s="4">
-        <v>2.61</v>
-      </c>
-      <c r="G386" s="4">
-        <v>3.19</v>
-      </c>
-      <c r="H386" s="4">
-        <v>5.0019999999999998</v>
-      </c>
-      <c r="I386" s="4">
-        <v>1.7130000000000001</v>
+      <c r="E386" s="9">
+        <v>6803</v>
+      </c>
+      <c r="F386" s="9">
+        <v>2610</v>
+      </c>
+      <c r="G386" s="9">
+        <v>3190</v>
+      </c>
+      <c r="H386" s="9">
+        <v>5002</v>
+      </c>
+      <c r="I386" s="9">
+        <v>1713</v>
       </c>
       <c r="J386" s="4">
         <v>164</v>
@@ -16341,8 +16355,8 @@
       <c r="L386" s="4">
         <v>254</v>
       </c>
-      <c r="M386" s="5">
-        <v>20.029</v>
+      <c r="M386" s="7">
+        <v>20029</v>
       </c>
     </row>
     <row r="387" spans="1:13" x14ac:dyDescent="0.25">
@@ -16353,20 +16367,20 @@
       <c r="C387" s="4">
         <v>937</v>
       </c>
-      <c r="D387" s="4">
-        <v>1.0629999999999999</v>
-      </c>
-      <c r="E387" s="4">
-        <v>10.537000000000001</v>
-      </c>
-      <c r="F387" s="4">
-        <v>1.4810000000000001</v>
-      </c>
-      <c r="G387" s="4">
-        <v>2.3879999999999999</v>
-      </c>
-      <c r="H387" s="4">
-        <v>3.12</v>
+      <c r="D387" s="9">
+        <v>1063</v>
+      </c>
+      <c r="E387" s="9">
+        <v>10537</v>
+      </c>
+      <c r="F387" s="9">
+        <v>1481</v>
+      </c>
+      <c r="G387" s="9">
+        <v>2388</v>
+      </c>
+      <c r="H387" s="9">
+        <v>3120</v>
       </c>
       <c r="I387" s="4">
         <v>785</v>
@@ -16380,8 +16394,8 @@
       <c r="L387" s="4">
         <v>212</v>
       </c>
-      <c r="M387" s="5">
-        <v>20.600999999999999</v>
+      <c r="M387" s="7">
+        <v>20601</v>
       </c>
     </row>
     <row r="388" spans="1:13" x14ac:dyDescent="0.25">
@@ -16397,20 +16411,20 @@
       <c r="D388" s="4">
         <v>250</v>
       </c>
-      <c r="E388" s="4">
-        <v>6.5510000000000002</v>
-      </c>
-      <c r="F388" s="4">
-        <v>1.008</v>
-      </c>
-      <c r="G388" s="4">
-        <v>2.2320000000000002</v>
-      </c>
-      <c r="H388" s="4">
-        <v>2.9119999999999999</v>
-      </c>
-      <c r="I388" s="4">
-        <v>1.4019999999999999</v>
+      <c r="E388" s="9">
+        <v>6551</v>
+      </c>
+      <c r="F388" s="9">
+        <v>1008</v>
+      </c>
+      <c r="G388" s="9">
+        <v>2232</v>
+      </c>
+      <c r="H388" s="9">
+        <v>2912</v>
+      </c>
+      <c r="I388" s="9">
+        <v>1402</v>
       </c>
       <c r="J388" s="4">
         <v>92</v>
@@ -16421,8 +16435,8 @@
       <c r="L388" s="4">
         <v>226</v>
       </c>
-      <c r="M388" s="5">
-        <v>14.831</v>
+      <c r="M388" s="7">
+        <v>14831</v>
       </c>
     </row>
     <row r="389" spans="1:13" x14ac:dyDescent="0.25">
@@ -16430,23 +16444,23 @@
       <c r="B389" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C389" s="4">
-        <v>1.4570000000000001</v>
-      </c>
-      <c r="D389" s="4">
-        <v>1.365</v>
-      </c>
-      <c r="E389" s="4">
-        <v>8.8019999999999996</v>
+      <c r="C389" s="9">
+        <v>1457</v>
+      </c>
+      <c r="D389" s="9">
+        <v>1365</v>
+      </c>
+      <c r="E389" s="9">
+        <v>8802</v>
       </c>
       <c r="F389" s="4">
         <v>546</v>
       </c>
-      <c r="G389" s="4">
-        <v>2.0790000000000002</v>
-      </c>
-      <c r="H389" s="4">
-        <v>1.714</v>
+      <c r="G389" s="9">
+        <v>2079</v>
+      </c>
+      <c r="H389" s="9">
+        <v>1714</v>
       </c>
       <c r="I389" s="4">
         <v>701</v>
@@ -16460,8 +16474,8 @@
       <c r="L389" s="4">
         <v>197</v>
       </c>
-      <c r="M389" s="5">
-        <v>16.91</v>
+      <c r="M389" s="7">
+        <v>16910</v>
       </c>
     </row>
     <row r="390" spans="1:13" x14ac:dyDescent="0.25">
@@ -16477,17 +16491,17 @@
       <c r="D390" s="4">
         <v>324</v>
       </c>
-      <c r="E390" s="4">
-        <v>5.1980000000000004</v>
+      <c r="E390" s="9">
+        <v>5198</v>
       </c>
       <c r="F390" s="4">
         <v>343</v>
       </c>
-      <c r="G390" s="4">
-        <v>1.48</v>
-      </c>
-      <c r="H390" s="4">
-        <v>1.4890000000000001</v>
+      <c r="G390" s="9">
+        <v>1480</v>
+      </c>
+      <c r="H390" s="9">
+        <v>1489</v>
       </c>
       <c r="I390" s="4">
         <v>930</v>
@@ -16501,8 +16515,8 @@
       <c r="L390" s="4">
         <v>167</v>
       </c>
-      <c r="M390" s="5">
-        <v>10.19</v>
+      <c r="M390" s="7">
+        <v>10190</v>
       </c>
     </row>
     <row r="391" spans="1:13" x14ac:dyDescent="0.25">
@@ -16510,20 +16524,20 @@
       <c r="B391" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C391" s="4">
-        <v>1.5940000000000001</v>
-      </c>
-      <c r="D391" s="4">
-        <v>1.331</v>
-      </c>
-      <c r="E391" s="4">
-        <v>6.375</v>
+      <c r="C391" s="9">
+        <v>1594</v>
+      </c>
+      <c r="D391" s="9">
+        <v>1331</v>
+      </c>
+      <c r="E391" s="9">
+        <v>6375</v>
       </c>
       <c r="F391" s="4">
         <v>140</v>
       </c>
-      <c r="G391" s="4">
-        <v>1.526</v>
+      <c r="G391" s="9">
+        <v>1526</v>
       </c>
       <c r="H391" s="4">
         <v>893</v>
@@ -16540,8 +16554,8 @@
       <c r="L391" s="4">
         <v>187</v>
       </c>
-      <c r="M391" s="5">
-        <v>12.531000000000001</v>
+      <c r="M391" s="7">
+        <v>12531</v>
       </c>
     </row>
     <row r="392" spans="1:13" x14ac:dyDescent="0.25">
@@ -16557,17 +16571,17 @@
       <c r="D392" s="4">
         <v>838</v>
       </c>
-      <c r="E392" s="4">
-        <v>5.8259999999999996</v>
+      <c r="E392" s="9">
+        <v>5826</v>
       </c>
       <c r="F392" s="4">
         <v>126</v>
       </c>
-      <c r="G392" s="4">
-        <v>1.3149999999999999</v>
-      </c>
-      <c r="H392" s="4">
-        <v>1.0629999999999999</v>
+      <c r="G392" s="9">
+        <v>1315</v>
+      </c>
+      <c r="H392" s="9">
+        <v>1063</v>
       </c>
       <c r="I392" s="4">
         <v>926</v>
@@ -16581,8 +16595,8 @@
       <c r="L392" s="4">
         <v>191</v>
       </c>
-      <c r="M392" s="5">
-        <v>10.869</v>
+      <c r="M392" s="7">
+        <v>10869</v>
       </c>
     </row>
     <row r="393" spans="1:13" x14ac:dyDescent="0.25">
@@ -16590,20 +16604,20 @@
       <c r="B393" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C393" s="4">
-        <v>4.1180000000000003</v>
-      </c>
-      <c r="D393" s="4">
-        <v>2.61</v>
-      </c>
-      <c r="E393" s="4">
-        <v>8.0139999999999993</v>
+      <c r="C393" s="9">
+        <v>4118</v>
+      </c>
+      <c r="D393" s="9">
+        <v>2610</v>
+      </c>
+      <c r="E393" s="9">
+        <v>8014</v>
       </c>
       <c r="F393" s="4">
         <v>50</v>
       </c>
-      <c r="G393" s="4">
-        <v>1.2649999999999999</v>
+      <c r="G393" s="9">
+        <v>1265</v>
       </c>
       <c r="H393" s="4">
         <v>789</v>
@@ -16620,8 +16634,8 @@
       <c r="L393" s="4">
         <v>253</v>
       </c>
-      <c r="M393" s="5">
-        <v>17.471</v>
+      <c r="M393" s="7">
+        <v>17471</v>
       </c>
     </row>
     <row r="394" spans="1:13" x14ac:dyDescent="0.25">
@@ -16629,38 +16643,38 @@
         <v>12</v>
       </c>
       <c r="B394" s="6"/>
-      <c r="C394" s="5">
-        <v>11.228999999999999</v>
-      </c>
-      <c r="D394" s="5">
-        <v>12.74</v>
-      </c>
-      <c r="E394" s="5">
-        <v>122.11499999999999</v>
-      </c>
-      <c r="F394" s="5">
-        <v>68.844999999999999</v>
-      </c>
-      <c r="G394" s="5">
-        <v>101.71899999999999</v>
-      </c>
-      <c r="H394" s="5">
-        <v>213.179</v>
-      </c>
-      <c r="I394" s="5">
-        <v>119.581</v>
-      </c>
-      <c r="J394" s="5">
-        <v>9.5050000000000008</v>
-      </c>
-      <c r="K394" s="5">
-        <v>1.1020000000000001</v>
-      </c>
-      <c r="L394" s="5">
-        <v>5.7939999999999996</v>
-      </c>
-      <c r="M394" s="5">
-        <v>665.80899999999997</v>
+      <c r="C394" s="7">
+        <v>11229</v>
+      </c>
+      <c r="D394" s="7">
+        <v>12740</v>
+      </c>
+      <c r="E394" s="7">
+        <v>122115</v>
+      </c>
+      <c r="F394" s="7">
+        <v>68845</v>
+      </c>
+      <c r="G394" s="7">
+        <v>101719</v>
+      </c>
+      <c r="H394" s="7">
+        <v>213179</v>
+      </c>
+      <c r="I394" s="7">
+        <v>119581</v>
+      </c>
+      <c r="J394" s="7">
+        <v>9505</v>
+      </c>
+      <c r="K394" s="7">
+        <v>1102</v>
+      </c>
+      <c r="L394" s="7">
+        <v>5794</v>
+      </c>
+      <c r="M394" s="7">
+        <v>665809</v>
       </c>
     </row>
     <row r="395" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -16724,8 +16738,8 @@
       <c r="G396" s="4">
         <v>611</v>
       </c>
-      <c r="H396" s="4">
-        <v>1.6990000000000001</v>
+      <c r="H396" s="9">
+        <v>1699</v>
       </c>
       <c r="I396" s="4">
         <v>273</v>
@@ -16739,8 +16753,8 @@
       <c r="L396" s="4">
         <v>15</v>
       </c>
-      <c r="M396" s="5">
-        <v>2.6219999999999999</v>
+      <c r="M396" s="7">
+        <v>2622</v>
       </c>
     </row>
     <row r="397" spans="1:13" x14ac:dyDescent="0.25">
@@ -16763,8 +16777,8 @@
       <c r="G397" s="4">
         <v>506</v>
       </c>
-      <c r="H397" s="4">
-        <v>1.4330000000000001</v>
+      <c r="H397" s="9">
+        <v>1433</v>
       </c>
       <c r="I397" s="4">
         <v>523</v>
@@ -16778,8 +16792,8 @@
       <c r="L397" s="4">
         <v>4</v>
       </c>
-      <c r="M397" s="5">
-        <v>2.5259999999999998</v>
+      <c r="M397" s="7">
+        <v>2526</v>
       </c>
     </row>
     <row r="398" spans="1:13" x14ac:dyDescent="0.25">
@@ -16819,8 +16833,8 @@
       <c r="L398" s="4">
         <v>5</v>
       </c>
-      <c r="M398" s="5">
-        <v>1.883</v>
+      <c r="M398" s="7">
+        <v>1883</v>
       </c>
     </row>
     <row r="399" spans="1:13" x14ac:dyDescent="0.25">
@@ -16858,8 +16872,8 @@
       <c r="L399" s="4">
         <v>8</v>
       </c>
-      <c r="M399" s="5">
-        <v>1.7929999999999999</v>
+      <c r="M399" s="7">
+        <v>1793</v>
       </c>
     </row>
     <row r="400" spans="1:13" x14ac:dyDescent="0.25">
@@ -16899,8 +16913,8 @@
       <c r="L400" s="4">
         <v>2</v>
       </c>
-      <c r="M400" s="5">
-        <v>1.706</v>
+      <c r="M400" s="7">
+        <v>1706</v>
       </c>
     </row>
     <row r="401" spans="1:13" x14ac:dyDescent="0.25">
@@ -16938,8 +16952,8 @@
       <c r="L401" s="4">
         <v>9</v>
       </c>
-      <c r="M401" s="5">
-        <v>1.712</v>
+      <c r="M401" s="7">
+        <v>1712</v>
       </c>
     </row>
     <row r="402" spans="1:13" x14ac:dyDescent="0.25">
@@ -16979,8 +16993,8 @@
       <c r="L402" s="4">
         <v>7</v>
       </c>
-      <c r="M402" s="5">
-        <v>1.889</v>
+      <c r="M402" s="7">
+        <v>1889</v>
       </c>
     </row>
     <row r="403" spans="1:13" x14ac:dyDescent="0.25">
@@ -17018,8 +17032,8 @@
       <c r="L403" s="4">
         <v>4</v>
       </c>
-      <c r="M403" s="5">
-        <v>1.78</v>
+      <c r="M403" s="7">
+        <v>1780</v>
       </c>
     </row>
     <row r="404" spans="1:13" x14ac:dyDescent="0.25">
@@ -17059,8 +17073,8 @@
       <c r="L404" s="4">
         <v>12</v>
       </c>
-      <c r="M404" s="5">
-        <v>2.0179999999999998</v>
+      <c r="M404" s="7">
+        <v>2018</v>
       </c>
     </row>
     <row r="405" spans="1:13" x14ac:dyDescent="0.25">
@@ -17098,8 +17112,8 @@
       <c r="L405" s="4">
         <v>7</v>
       </c>
-      <c r="M405" s="5">
-        <v>1.9179999999999999</v>
+      <c r="M405" s="7">
+        <v>1918</v>
       </c>
     </row>
     <row r="406" spans="1:13" x14ac:dyDescent="0.25">
@@ -17139,8 +17153,8 @@
       <c r="L406" s="4">
         <v>9</v>
       </c>
-      <c r="M406" s="5">
-        <v>1.7949999999999999</v>
+      <c r="M406" s="7">
+        <v>1795</v>
       </c>
     </row>
     <row r="407" spans="1:13" x14ac:dyDescent="0.25">
@@ -17178,8 +17192,8 @@
       <c r="L407" s="4">
         <v>2</v>
       </c>
-      <c r="M407" s="5">
-        <v>1.708</v>
+      <c r="M407" s="7">
+        <v>1708</v>
       </c>
     </row>
     <row r="408" spans="1:13" x14ac:dyDescent="0.25">
@@ -17219,8 +17233,8 @@
       <c r="L408" s="4">
         <v>10</v>
       </c>
-      <c r="M408" s="5">
-        <v>1.8340000000000001</v>
+      <c r="M408" s="7">
+        <v>1834</v>
       </c>
     </row>
     <row r="409" spans="1:13" x14ac:dyDescent="0.25">
@@ -17258,8 +17272,8 @@
       <c r="L409" s="4">
         <v>5</v>
       </c>
-      <c r="M409" s="5">
-        <v>1.794</v>
+      <c r="M409" s="7">
+        <v>1794</v>
       </c>
     </row>
     <row r="410" spans="1:13" x14ac:dyDescent="0.25">
@@ -17299,8 +17313,8 @@
       <c r="L410" s="4">
         <v>11</v>
       </c>
-      <c r="M410" s="5">
-        <v>1.7809999999999999</v>
+      <c r="M410" s="7">
+        <v>1781</v>
       </c>
     </row>
     <row r="411" spans="1:13" x14ac:dyDescent="0.25">
@@ -17314,8 +17328,8 @@
       <c r="D411" s="4">
         <v>47</v>
       </c>
-      <c r="E411" s="4">
-        <v>1.2689999999999999</v>
+      <c r="E411" s="9">
+        <v>1269</v>
       </c>
       <c r="F411" s="4">
         <v>149</v>
@@ -17338,8 +17352,8 @@
       <c r="L411" s="4">
         <v>8</v>
       </c>
-      <c r="M411" s="5">
-        <v>1.887</v>
+      <c r="M411" s="7">
+        <v>1887</v>
       </c>
     </row>
     <row r="412" spans="1:13" x14ac:dyDescent="0.25">
@@ -17379,8 +17393,8 @@
       <c r="L412" s="4">
         <v>9</v>
       </c>
-      <c r="M412" s="5">
-        <v>1.732</v>
+      <c r="M412" s="7">
+        <v>1732</v>
       </c>
     </row>
     <row r="413" spans="1:13" x14ac:dyDescent="0.25">
@@ -17394,8 +17408,8 @@
       <c r="D413" s="4">
         <v>64</v>
       </c>
-      <c r="E413" s="4">
-        <v>1.389</v>
+      <c r="E413" s="9">
+        <v>1389</v>
       </c>
       <c r="F413" s="4">
         <v>76</v>
@@ -17418,8 +17432,8 @@
       <c r="L413" s="4">
         <v>10</v>
       </c>
-      <c r="M413" s="5">
-        <v>1.8240000000000001</v>
+      <c r="M413" s="7">
+        <v>1824</v>
       </c>
     </row>
     <row r="414" spans="1:13" x14ac:dyDescent="0.25">
@@ -17459,8 +17473,8 @@
       <c r="L414" s="4">
         <v>4</v>
       </c>
-      <c r="M414" s="5">
-        <v>1.446</v>
+      <c r="M414" s="7">
+        <v>1446</v>
       </c>
     </row>
     <row r="415" spans="1:13" x14ac:dyDescent="0.25">
@@ -17474,8 +17488,8 @@
       <c r="D415" s="4">
         <v>101</v>
       </c>
-      <c r="E415" s="4">
-        <v>1.145</v>
+      <c r="E415" s="9">
+        <v>1145</v>
       </c>
       <c r="F415" s="4">
         <v>29</v>
@@ -17498,8 +17512,8 @@
       <c r="L415" s="4">
         <v>9</v>
       </c>
-      <c r="M415" s="5">
-        <v>1.504</v>
+      <c r="M415" s="7">
+        <v>1504</v>
       </c>
     </row>
     <row r="416" spans="1:13" x14ac:dyDescent="0.25">
@@ -17578,8 +17592,8 @@
       <c r="L417" s="4">
         <v>8</v>
       </c>
-      <c r="M417" s="5">
-        <v>1.2569999999999999</v>
+      <c r="M417" s="7">
+        <v>1257</v>
       </c>
     </row>
     <row r="418" spans="1:13" x14ac:dyDescent="0.25">
@@ -17619,8 +17633,8 @@
       <c r="L418" s="4">
         <v>4</v>
       </c>
-      <c r="M418" s="5">
-        <v>1.351</v>
+      <c r="M418" s="7">
+        <v>1351</v>
       </c>
     </row>
     <row r="419" spans="1:13" x14ac:dyDescent="0.25">
@@ -17634,8 +17648,8 @@
       <c r="D419" s="4">
         <v>303</v>
       </c>
-      <c r="E419" s="4">
-        <v>1.0980000000000001</v>
+      <c r="E419" s="9">
+        <v>1098</v>
       </c>
       <c r="F419" s="4">
         <v>4</v>
@@ -17658,8 +17672,8 @@
       <c r="L419" s="4">
         <v>13</v>
       </c>
-      <c r="M419" s="5">
-        <v>1.9790000000000001</v>
+      <c r="M419" s="7">
+        <v>1979</v>
       </c>
     </row>
     <row r="420" spans="1:13" x14ac:dyDescent="0.25">
@@ -17667,26 +17681,26 @@
         <v>12</v>
       </c>
       <c r="B420" s="6"/>
-      <c r="C420" s="5">
-        <v>1.119</v>
-      </c>
-      <c r="D420" s="5">
-        <v>1.1830000000000001</v>
-      </c>
-      <c r="E420" s="5">
-        <v>14.311999999999999</v>
-      </c>
-      <c r="F420" s="5">
-        <v>3.5350000000000001</v>
-      </c>
-      <c r="G420" s="5">
-        <v>5.6260000000000003</v>
-      </c>
-      <c r="H420" s="5">
-        <v>10.058</v>
-      </c>
-      <c r="I420" s="5">
-        <v>6.2220000000000004</v>
+      <c r="C420" s="7">
+        <v>1119</v>
+      </c>
+      <c r="D420" s="7">
+        <v>1183</v>
+      </c>
+      <c r="E420" s="7">
+        <v>14312</v>
+      </c>
+      <c r="F420" s="7">
+        <v>3535</v>
+      </c>
+      <c r="G420" s="7">
+        <v>5626</v>
+      </c>
+      <c r="H420" s="7">
+        <v>10058</v>
+      </c>
+      <c r="I420" s="7">
+        <v>6222</v>
       </c>
       <c r="J420" s="5">
         <v>454</v>
@@ -17697,8 +17711,8 @@
       <c r="L420" s="5">
         <v>181</v>
       </c>
-      <c r="M420" s="5">
-        <v>42.726999999999997</v>
+      <c r="M420" s="7">
+        <v>42727</v>
       </c>
     </row>
     <row r="421" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -17759,14 +17773,14 @@
       <c r="F422" s="4">
         <v>14</v>
       </c>
-      <c r="G422" s="4">
-        <v>8.5890000000000004</v>
-      </c>
-      <c r="H422" s="4">
-        <v>21.308</v>
-      </c>
-      <c r="I422" s="4">
-        <v>3.8140000000000001</v>
+      <c r="G422" s="9">
+        <v>8589</v>
+      </c>
+      <c r="H422" s="9">
+        <v>21308</v>
+      </c>
+      <c r="I422" s="9">
+        <v>3814</v>
       </c>
       <c r="J422" s="4">
         <v>22</v>
@@ -17777,8 +17791,8 @@
       <c r="L422" s="4">
         <v>461</v>
       </c>
-      <c r="M422" s="5">
-        <v>34.618000000000002</v>
+      <c r="M422" s="7">
+        <v>34618</v>
       </c>
     </row>
     <row r="423" spans="1:13" x14ac:dyDescent="0.25">
@@ -17798,14 +17812,14 @@
       <c r="F423" s="4">
         <v>14</v>
       </c>
-      <c r="G423" s="4">
-        <v>7.0750000000000002</v>
-      </c>
-      <c r="H423" s="4">
-        <v>18.611999999999998</v>
-      </c>
-      <c r="I423" s="4">
-        <v>5.5620000000000003</v>
+      <c r="G423" s="9">
+        <v>7075</v>
+      </c>
+      <c r="H423" s="9">
+        <v>18612</v>
+      </c>
+      <c r="I423" s="9">
+        <v>5562</v>
       </c>
       <c r="J423" s="4">
         <v>42</v>
@@ -17816,8 +17830,8 @@
       <c r="L423" s="4">
         <v>394</v>
       </c>
-      <c r="M423" s="5">
-        <v>32.534999999999997</v>
+      <c r="M423" s="7">
+        <v>32535</v>
       </c>
     </row>
     <row r="424" spans="1:13" x14ac:dyDescent="0.25">
@@ -17839,14 +17853,14 @@
       <c r="F424" s="4">
         <v>330</v>
       </c>
-      <c r="G424" s="4">
-        <v>6.27</v>
-      </c>
-      <c r="H424" s="4">
-        <v>8.3109999999999999</v>
-      </c>
-      <c r="I424" s="4">
-        <v>8.0830000000000002</v>
+      <c r="G424" s="9">
+        <v>6270</v>
+      </c>
+      <c r="H424" s="9">
+        <v>8311</v>
+      </c>
+      <c r="I424" s="9">
+        <v>8083</v>
       </c>
       <c r="J424" s="4">
         <v>393</v>
@@ -17857,8 +17871,8 @@
       <c r="L424" s="4">
         <v>535</v>
       </c>
-      <c r="M424" s="5">
-        <v>24.483000000000001</v>
+      <c r="M424" s="7">
+        <v>24483</v>
       </c>
     </row>
     <row r="425" spans="1:13" x14ac:dyDescent="0.25">
@@ -17878,14 +17892,14 @@
       <c r="F425" s="4">
         <v>442</v>
       </c>
-      <c r="G425" s="4">
-        <v>5.14</v>
-      </c>
-      <c r="H425" s="4">
-        <v>5.7549999999999999</v>
-      </c>
-      <c r="I425" s="4">
-        <v>9.1229999999999993</v>
+      <c r="G425" s="9">
+        <v>5140</v>
+      </c>
+      <c r="H425" s="9">
+        <v>5755</v>
+      </c>
+      <c r="I425" s="9">
+        <v>9123</v>
       </c>
       <c r="J425" s="4">
         <v>623</v>
@@ -17896,8 +17910,8 @@
       <c r="L425" s="4">
         <v>637</v>
       </c>
-      <c r="M425" s="5">
-        <v>23.507000000000001</v>
+      <c r="M425" s="7">
+        <v>23507</v>
       </c>
     </row>
     <row r="426" spans="1:13" x14ac:dyDescent="0.25">
@@ -17916,17 +17930,17 @@
       <c r="E426" s="4">
         <v>376</v>
       </c>
-      <c r="F426" s="4">
-        <v>3.7989999999999999</v>
-      </c>
-      <c r="G426" s="4">
-        <v>3.0939999999999999</v>
-      </c>
-      <c r="H426" s="4">
-        <v>8.3780000000000001</v>
-      </c>
-      <c r="I426" s="4">
-        <v>6.8959999999999999</v>
+      <c r="F426" s="9">
+        <v>3799</v>
+      </c>
+      <c r="G426" s="9">
+        <v>3094</v>
+      </c>
+      <c r="H426" s="9">
+        <v>8378</v>
+      </c>
+      <c r="I426" s="9">
+        <v>6896</v>
       </c>
       <c r="J426" s="4">
         <v>534</v>
@@ -17937,8 +17951,8 @@
       <c r="L426" s="4">
         <v>633</v>
       </c>
-      <c r="M426" s="5">
-        <v>24.146000000000001</v>
+      <c r="M426" s="7">
+        <v>24146</v>
       </c>
     </row>
     <row r="427" spans="1:13" x14ac:dyDescent="0.25">
@@ -17949,23 +17963,23 @@
       <c r="C427" s="4">
         <v>384</v>
       </c>
-      <c r="D427" s="4">
-        <v>1.18</v>
+      <c r="D427" s="9">
+        <v>1180</v>
       </c>
       <c r="E427" s="4">
         <v>873</v>
       </c>
-      <c r="F427" s="4">
-        <v>4.3419999999999996</v>
-      </c>
-      <c r="G427" s="4">
-        <v>2.2360000000000002</v>
-      </c>
-      <c r="H427" s="4">
-        <v>6.2869999999999999</v>
-      </c>
-      <c r="I427" s="4">
-        <v>6.9550000000000001</v>
+      <c r="F427" s="9">
+        <v>4342</v>
+      </c>
+      <c r="G427" s="9">
+        <v>2236</v>
+      </c>
+      <c r="H427" s="9">
+        <v>6287</v>
+      </c>
+      <c r="I427" s="9">
+        <v>6955</v>
       </c>
       <c r="J427" s="4">
         <v>556</v>
@@ -17976,8 +17990,8 @@
       <c r="L427" s="4">
         <v>731</v>
       </c>
-      <c r="M427" s="5">
-        <v>23.559000000000001</v>
+      <c r="M427" s="7">
+        <v>23559</v>
       </c>
     </row>
     <row r="428" spans="1:13" x14ac:dyDescent="0.25">
@@ -17993,20 +18007,20 @@
       <c r="D428" s="4">
         <v>233</v>
       </c>
-      <c r="E428" s="4">
-        <v>1.429</v>
-      </c>
-      <c r="F428" s="4">
-        <v>4.6100000000000003</v>
-      </c>
-      <c r="G428" s="4">
-        <v>2.5110000000000001</v>
-      </c>
-      <c r="H428" s="4">
-        <v>9.5579999999999998</v>
-      </c>
-      <c r="I428" s="4">
-        <v>5.7060000000000004</v>
+      <c r="E428" s="9">
+        <v>1429</v>
+      </c>
+      <c r="F428" s="9">
+        <v>4610</v>
+      </c>
+      <c r="G428" s="9">
+        <v>2511</v>
+      </c>
+      <c r="H428" s="9">
+        <v>9558</v>
+      </c>
+      <c r="I428" s="9">
+        <v>5706</v>
       </c>
       <c r="J428" s="4">
         <v>493</v>
@@ -18017,8 +18031,8 @@
       <c r="L428" s="4">
         <v>576</v>
       </c>
-      <c r="M428" s="5">
-        <v>25.21</v>
+      <c r="M428" s="7">
+        <v>25210</v>
       </c>
     </row>
     <row r="429" spans="1:13" x14ac:dyDescent="0.25">
@@ -18032,20 +18046,20 @@
       <c r="D429" s="4">
         <v>710</v>
       </c>
-      <c r="E429" s="4">
-        <v>4.1059999999999999</v>
-      </c>
-      <c r="F429" s="4">
-        <v>4.3529999999999998</v>
-      </c>
-      <c r="G429" s="4">
-        <v>2.4830000000000001</v>
-      </c>
-      <c r="H429" s="4">
-        <v>6.8319999999999999</v>
-      </c>
-      <c r="I429" s="4">
-        <v>4.8899999999999997</v>
+      <c r="E429" s="9">
+        <v>4106</v>
+      </c>
+      <c r="F429" s="9">
+        <v>4353</v>
+      </c>
+      <c r="G429" s="9">
+        <v>2483</v>
+      </c>
+      <c r="H429" s="9">
+        <v>6832</v>
+      </c>
+      <c r="I429" s="9">
+        <v>4890</v>
       </c>
       <c r="J429" s="4">
         <v>416</v>
@@ -18056,8 +18070,8 @@
       <c r="L429" s="4">
         <v>597</v>
       </c>
-      <c r="M429" s="5">
-        <v>24.826000000000001</v>
+      <c r="M429" s="7">
+        <v>24826</v>
       </c>
     </row>
     <row r="430" spans="1:13" x14ac:dyDescent="0.25">
@@ -18073,20 +18087,20 @@
       <c r="D430" s="4">
         <v>100</v>
       </c>
-      <c r="E430" s="4">
-        <v>2.5579999999999998</v>
-      </c>
-      <c r="F430" s="4">
-        <v>3.794</v>
-      </c>
-      <c r="G430" s="4">
-        <v>5.1609999999999996</v>
-      </c>
-      <c r="H430" s="4">
-        <v>10.209</v>
-      </c>
-      <c r="I430" s="4">
-        <v>4.2809999999999997</v>
+      <c r="E430" s="9">
+        <v>2558</v>
+      </c>
+      <c r="F430" s="9">
+        <v>3794</v>
+      </c>
+      <c r="G430" s="9">
+        <v>5161</v>
+      </c>
+      <c r="H430" s="9">
+        <v>10209</v>
+      </c>
+      <c r="I430" s="9">
+        <v>4281</v>
       </c>
       <c r="J430" s="4">
         <v>463</v>
@@ -18097,8 +18111,8 @@
       <c r="L430" s="4">
         <v>380</v>
       </c>
-      <c r="M430" s="5">
-        <v>27.044</v>
+      <c r="M430" s="7">
+        <v>27044</v>
       </c>
     </row>
     <row r="431" spans="1:13" x14ac:dyDescent="0.25">
@@ -18112,20 +18126,20 @@
       <c r="D431" s="4">
         <v>603</v>
       </c>
-      <c r="E431" s="4">
-        <v>6.84</v>
-      </c>
-      <c r="F431" s="4">
-        <v>2.992</v>
-      </c>
-      <c r="G431" s="4">
-        <v>4.306</v>
-      </c>
-      <c r="H431" s="4">
-        <v>7.0549999999999997</v>
-      </c>
-      <c r="I431" s="4">
-        <v>3.6720000000000002</v>
+      <c r="E431" s="9">
+        <v>6840</v>
+      </c>
+      <c r="F431" s="9">
+        <v>2992</v>
+      </c>
+      <c r="G431" s="9">
+        <v>4306</v>
+      </c>
+      <c r="H431" s="9">
+        <v>7055</v>
+      </c>
+      <c r="I431" s="9">
+        <v>3672</v>
       </c>
       <c r="J431" s="4">
         <v>380</v>
@@ -18136,8 +18150,8 @@
       <c r="L431" s="4">
         <v>404</v>
       </c>
-      <c r="M431" s="5">
-        <v>26.652999999999999</v>
+      <c r="M431" s="7">
+        <v>26653</v>
       </c>
     </row>
     <row r="432" spans="1:13" x14ac:dyDescent="0.25">
@@ -18153,20 +18167,20 @@
       <c r="D432" s="4">
         <v>68</v>
       </c>
-      <c r="E432" s="4">
-        <v>2.8</v>
-      </c>
-      <c r="F432" s="4">
-        <v>4.2690000000000001</v>
-      </c>
-      <c r="G432" s="4">
-        <v>4.1180000000000003</v>
-      </c>
-      <c r="H432" s="4">
-        <v>8.0289999999999999</v>
-      </c>
-      <c r="I432" s="4">
-        <v>3.3140000000000001</v>
+      <c r="E432" s="9">
+        <v>2800</v>
+      </c>
+      <c r="F432" s="9">
+        <v>4269</v>
+      </c>
+      <c r="G432" s="9">
+        <v>4118</v>
+      </c>
+      <c r="H432" s="9">
+        <v>8029</v>
+      </c>
+      <c r="I432" s="9">
+        <v>3314</v>
       </c>
       <c r="J432" s="4">
         <v>314</v>
@@ -18177,8 +18191,8 @@
       <c r="L432" s="4">
         <v>306</v>
       </c>
-      <c r="M432" s="5">
-        <v>23.3</v>
+      <c r="M432" s="7">
+        <v>23300</v>
       </c>
     </row>
     <row r="433" spans="1:13" x14ac:dyDescent="0.25">
@@ -18192,20 +18206,20 @@
       <c r="D433" s="4">
         <v>505</v>
       </c>
-      <c r="E433" s="4">
-        <v>6.6820000000000004</v>
-      </c>
-      <c r="F433" s="4">
-        <v>3.25</v>
-      </c>
-      <c r="G433" s="4">
-        <v>3.782</v>
-      </c>
-      <c r="H433" s="4">
-        <v>5.407</v>
-      </c>
-      <c r="I433" s="4">
-        <v>2.2149999999999999</v>
+      <c r="E433" s="9">
+        <v>6682</v>
+      </c>
+      <c r="F433" s="9">
+        <v>3250</v>
+      </c>
+      <c r="G433" s="9">
+        <v>3782</v>
+      </c>
+      <c r="H433" s="9">
+        <v>5407</v>
+      </c>
+      <c r="I433" s="9">
+        <v>2215</v>
       </c>
       <c r="J433" s="4">
         <v>168</v>
@@ -18216,8 +18230,8 @@
       <c r="L433" s="4">
         <v>423</v>
       </c>
-      <c r="M433" s="5">
-        <v>22.786000000000001</v>
+      <c r="M433" s="7">
+        <v>22786</v>
       </c>
     </row>
     <row r="434" spans="1:13" x14ac:dyDescent="0.25">
@@ -18233,20 +18247,20 @@
       <c r="D434" s="4">
         <v>87</v>
       </c>
-      <c r="E434" s="4">
-        <v>2.8980000000000001</v>
-      </c>
-      <c r="F434" s="4">
-        <v>4.3689999999999998</v>
-      </c>
-      <c r="G434" s="4">
-        <v>4.2190000000000003</v>
-      </c>
-      <c r="H434" s="4">
-        <v>5.9279999999999999</v>
-      </c>
-      <c r="I434" s="4">
-        <v>2.4409999999999998</v>
+      <c r="E434" s="9">
+        <v>2898</v>
+      </c>
+      <c r="F434" s="9">
+        <v>4369</v>
+      </c>
+      <c r="G434" s="9">
+        <v>4219</v>
+      </c>
+      <c r="H434" s="9">
+        <v>5928</v>
+      </c>
+      <c r="I434" s="9">
+        <v>2441</v>
       </c>
       <c r="J434" s="4">
         <v>211</v>
@@ -18257,8 +18271,8 @@
       <c r="L434" s="4">
         <v>344</v>
       </c>
-      <c r="M434" s="5">
-        <v>20.573</v>
+      <c r="M434" s="7">
+        <v>20573</v>
       </c>
     </row>
     <row r="435" spans="1:13" x14ac:dyDescent="0.25">
@@ -18272,20 +18286,20 @@
       <c r="D435" s="4">
         <v>581</v>
       </c>
-      <c r="E435" s="4">
-        <v>7.0039999999999996</v>
-      </c>
-      <c r="F435" s="4">
-        <v>2.9780000000000002</v>
-      </c>
-      <c r="G435" s="4">
-        <v>3.2949999999999999</v>
-      </c>
-      <c r="H435" s="4">
-        <v>3.9020000000000001</v>
-      </c>
-      <c r="I435" s="4">
-        <v>1.27</v>
+      <c r="E435" s="9">
+        <v>7004</v>
+      </c>
+      <c r="F435" s="9">
+        <v>2978</v>
+      </c>
+      <c r="G435" s="9">
+        <v>3295</v>
+      </c>
+      <c r="H435" s="9">
+        <v>3902</v>
+      </c>
+      <c r="I435" s="9">
+        <v>1270</v>
       </c>
       <c r="J435" s="4">
         <v>104</v>
@@ -18296,8 +18310,8 @@
       <c r="L435" s="4">
         <v>422</v>
       </c>
-      <c r="M435" s="5">
-        <v>20.045000000000002</v>
+      <c r="M435" s="7">
+        <v>20045</v>
       </c>
     </row>
     <row r="436" spans="1:13" x14ac:dyDescent="0.25">
@@ -18313,20 +18327,20 @@
       <c r="D436" s="4">
         <v>108</v>
       </c>
-      <c r="E436" s="4">
-        <v>3.4380000000000002</v>
-      </c>
-      <c r="F436" s="4">
-        <v>3.573</v>
-      </c>
-      <c r="G436" s="4">
-        <v>3.51</v>
-      </c>
-      <c r="H436" s="4">
-        <v>4.274</v>
-      </c>
-      <c r="I436" s="4">
-        <v>1.615</v>
+      <c r="E436" s="9">
+        <v>3438</v>
+      </c>
+      <c r="F436" s="9">
+        <v>3573</v>
+      </c>
+      <c r="G436" s="9">
+        <v>3510</v>
+      </c>
+      <c r="H436" s="9">
+        <v>4274</v>
+      </c>
+      <c r="I436" s="9">
+        <v>1615</v>
       </c>
       <c r="J436" s="4">
         <v>169</v>
@@ -18337,8 +18351,8 @@
       <c r="L436" s="4">
         <v>395</v>
       </c>
-      <c r="M436" s="5">
-        <v>17.187999999999999</v>
+      <c r="M436" s="7">
+        <v>17188</v>
       </c>
     </row>
     <row r="437" spans="1:13" x14ac:dyDescent="0.25">
@@ -18352,17 +18366,17 @@
       <c r="D437" s="4">
         <v>795</v>
       </c>
-      <c r="E437" s="4">
-        <v>7.4370000000000003</v>
-      </c>
-      <c r="F437" s="4">
-        <v>2.08</v>
-      </c>
-      <c r="G437" s="4">
-        <v>2.4990000000000001</v>
-      </c>
-      <c r="H437" s="4">
-        <v>2.5880000000000001</v>
+      <c r="E437" s="9">
+        <v>7437</v>
+      </c>
+      <c r="F437" s="9">
+        <v>2080</v>
+      </c>
+      <c r="G437" s="9">
+        <v>2499</v>
+      </c>
+      <c r="H437" s="9">
+        <v>2588</v>
       </c>
       <c r="I437" s="4">
         <v>712</v>
@@ -18376,8 +18390,8 @@
       <c r="L437" s="4">
         <v>478</v>
       </c>
-      <c r="M437" s="5">
-        <v>17.343</v>
+      <c r="M437" s="7">
+        <v>17343</v>
       </c>
     </row>
     <row r="438" spans="1:13" x14ac:dyDescent="0.25">
@@ -18393,20 +18407,20 @@
       <c r="D438" s="4">
         <v>156</v>
       </c>
-      <c r="E438" s="4">
-        <v>4.4960000000000004</v>
-      </c>
-      <c r="F438" s="4">
-        <v>1.9550000000000001</v>
-      </c>
-      <c r="G438" s="4">
-        <v>2.331</v>
-      </c>
-      <c r="H438" s="4">
-        <v>3.5710000000000002</v>
-      </c>
-      <c r="I438" s="4">
-        <v>1.2709999999999999</v>
+      <c r="E438" s="9">
+        <v>4496</v>
+      </c>
+      <c r="F438" s="9">
+        <v>1955</v>
+      </c>
+      <c r="G438" s="9">
+        <v>2331</v>
+      </c>
+      <c r="H438" s="9">
+        <v>3571</v>
+      </c>
+      <c r="I438" s="9">
+        <v>1271</v>
       </c>
       <c r="J438" s="4">
         <v>89</v>
@@ -18417,8 +18431,8 @@
       <c r="L438" s="4">
         <v>333</v>
       </c>
-      <c r="M438" s="5">
-        <v>14.321</v>
+      <c r="M438" s="7">
+        <v>14321</v>
       </c>
     </row>
     <row r="439" spans="1:13" x14ac:dyDescent="0.25">
@@ -18432,17 +18446,17 @@
       <c r="D439" s="4">
         <v>910</v>
       </c>
-      <c r="E439" s="4">
-        <v>7.508</v>
-      </c>
-      <c r="F439" s="4">
-        <v>1.016</v>
-      </c>
-      <c r="G439" s="4">
-        <v>1.8109999999999999</v>
-      </c>
-      <c r="H439" s="4">
-        <v>1.8169999999999999</v>
+      <c r="E439" s="9">
+        <v>7508</v>
+      </c>
+      <c r="F439" s="9">
+        <v>1016</v>
+      </c>
+      <c r="G439" s="9">
+        <v>1811</v>
+      </c>
+      <c r="H439" s="9">
+        <v>1817</v>
       </c>
       <c r="I439" s="4">
         <v>472</v>
@@ -18456,8 +18470,8 @@
       <c r="L439" s="4">
         <v>414</v>
       </c>
-      <c r="M439" s="5">
-        <v>14.917</v>
+      <c r="M439" s="7">
+        <v>14917</v>
       </c>
     </row>
     <row r="440" spans="1:13" x14ac:dyDescent="0.25">
@@ -18473,20 +18487,20 @@
       <c r="D440" s="4">
         <v>213</v>
       </c>
-      <c r="E440" s="4">
-        <v>4.5839999999999996</v>
+      <c r="E440" s="9">
+        <v>4584</v>
       </c>
       <c r="F440" s="4">
         <v>813</v>
       </c>
-      <c r="G440" s="4">
-        <v>1.724</v>
-      </c>
-      <c r="H440" s="4">
-        <v>1.986</v>
-      </c>
-      <c r="I440" s="4">
-        <v>1.012</v>
+      <c r="G440" s="9">
+        <v>1724</v>
+      </c>
+      <c r="H440" s="9">
+        <v>1986</v>
+      </c>
+      <c r="I440" s="9">
+        <v>1012</v>
       </c>
       <c r="J440" s="4">
         <v>56</v>
@@ -18497,8 +18511,8 @@
       <c r="L440" s="4">
         <v>249</v>
       </c>
-      <c r="M440" s="5">
-        <v>10.778</v>
+      <c r="M440" s="7">
+        <v>10778</v>
       </c>
     </row>
     <row r="441" spans="1:13" x14ac:dyDescent="0.25">
@@ -18506,20 +18520,20 @@
       <c r="B441" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C441" s="4">
-        <v>1.246</v>
-      </c>
-      <c r="D441" s="4">
-        <v>1.1060000000000001</v>
-      </c>
-      <c r="E441" s="4">
-        <v>6.4909999999999997</v>
+      <c r="C441" s="9">
+        <v>1246</v>
+      </c>
+      <c r="D441" s="9">
+        <v>1106</v>
+      </c>
+      <c r="E441" s="9">
+        <v>6491</v>
       </c>
       <c r="F441" s="4">
         <v>396</v>
       </c>
-      <c r="G441" s="4">
-        <v>1.3879999999999999</v>
+      <c r="G441" s="9">
+        <v>1388</v>
       </c>
       <c r="H441" s="4">
         <v>999</v>
@@ -18536,8 +18550,8 @@
       <c r="L441" s="4">
         <v>271</v>
       </c>
-      <c r="M441" s="5">
-        <v>12.247999999999999</v>
+      <c r="M441" s="7">
+        <v>12248</v>
       </c>
     </row>
     <row r="442" spans="1:13" x14ac:dyDescent="0.25">
@@ -18553,17 +18567,17 @@
       <c r="D442" s="4">
         <v>247</v>
       </c>
-      <c r="E442" s="4">
-        <v>3.6880000000000002</v>
+      <c r="E442" s="9">
+        <v>3688</v>
       </c>
       <c r="F442" s="4">
         <v>268</v>
       </c>
-      <c r="G442" s="4">
-        <v>1.109</v>
-      </c>
-      <c r="H442" s="4">
-        <v>1.018</v>
+      <c r="G442" s="9">
+        <v>1109</v>
+      </c>
+      <c r="H442" s="9">
+        <v>1018</v>
       </c>
       <c r="I442" s="4">
         <v>631</v>
@@ -18577,8 +18591,8 @@
       <c r="L442" s="4">
         <v>146</v>
       </c>
-      <c r="M442" s="5">
-        <v>7.32</v>
+      <c r="M442" s="7">
+        <v>7320</v>
       </c>
     </row>
     <row r="443" spans="1:13" x14ac:dyDescent="0.25">
@@ -18586,14 +18600,14 @@
       <c r="B443" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C443" s="4">
-        <v>1.369</v>
-      </c>
-      <c r="D443" s="4">
-        <v>1.0329999999999999</v>
-      </c>
-      <c r="E443" s="4">
-        <v>4.6189999999999998</v>
+      <c r="C443" s="9">
+        <v>1369</v>
+      </c>
+      <c r="D443" s="9">
+        <v>1033</v>
+      </c>
+      <c r="E443" s="9">
+        <v>4619</v>
       </c>
       <c r="F443" s="4">
         <v>125</v>
@@ -18616,8 +18630,8 @@
       <c r="L443" s="4">
         <v>166</v>
       </c>
-      <c r="M443" s="5">
-        <v>8.9429999999999996</v>
+      <c r="M443" s="7">
+        <v>8943</v>
       </c>
     </row>
     <row r="444" spans="1:13" x14ac:dyDescent="0.25">
@@ -18633,8 +18647,8 @@
       <c r="D444" s="4">
         <v>640</v>
       </c>
-      <c r="E444" s="4">
-        <v>3.9870000000000001</v>
+      <c r="E444" s="9">
+        <v>3987</v>
       </c>
       <c r="F444" s="4">
         <v>85</v>
@@ -18657,8 +18671,8 @@
       <c r="L444" s="4">
         <v>193</v>
       </c>
-      <c r="M444" s="5">
-        <v>7.46</v>
+      <c r="M444" s="7">
+        <v>7460</v>
       </c>
     </row>
     <row r="445" spans="1:13" x14ac:dyDescent="0.25">
@@ -18666,14 +18680,14 @@
       <c r="B445" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C445" s="4">
-        <v>3.2669999999999999</v>
-      </c>
-      <c r="D445" s="4">
-        <v>1.907</v>
-      </c>
-      <c r="E445" s="4">
-        <v>5.1139999999999999</v>
+      <c r="C445" s="9">
+        <v>3267</v>
+      </c>
+      <c r="D445" s="9">
+        <v>1907</v>
+      </c>
+      <c r="E445" s="9">
+        <v>5114</v>
       </c>
       <c r="F445" s="4">
         <v>40</v>
@@ -18696,8 +18710,8 @@
       <c r="L445" s="4">
         <v>264</v>
       </c>
-      <c r="M445" s="5">
-        <v>11.747999999999999</v>
+      <c r="M445" s="7">
+        <v>11748</v>
       </c>
     </row>
     <row r="446" spans="1:13" x14ac:dyDescent="0.25">
@@ -18705,42 +18719,62 @@
         <v>12</v>
       </c>
       <c r="B446" s="6"/>
-      <c r="C446" s="5">
-        <v>10.705</v>
-      </c>
-      <c r="D446" s="5">
-        <v>12.856999999999999</v>
-      </c>
-      <c r="E446" s="5">
-        <v>89.052000000000007</v>
-      </c>
-      <c r="F446" s="5">
-        <v>49.906999999999996</v>
-      </c>
-      <c r="G446" s="5">
-        <v>79.218000000000004</v>
-      </c>
-      <c r="H446" s="5">
-        <v>143.25200000000001</v>
-      </c>
-      <c r="I446" s="5">
-        <v>75.173000000000002</v>
-      </c>
-      <c r="J446" s="5">
-        <v>5.202</v>
+      <c r="C446" s="7">
+        <v>10705</v>
+      </c>
+      <c r="D446" s="7">
+        <v>12857</v>
+      </c>
+      <c r="E446" s="7">
+        <v>89052</v>
+      </c>
+      <c r="F446" s="7">
+        <v>49907</v>
+      </c>
+      <c r="G446" s="7">
+        <v>79218</v>
+      </c>
+      <c r="H446" s="7">
+        <v>143252</v>
+      </c>
+      <c r="I446" s="7">
+        <v>75173</v>
+      </c>
+      <c r="J446" s="7">
+        <v>5202</v>
       </c>
       <c r="K446" s="5">
         <v>433</v>
       </c>
-      <c r="L446" s="5">
-        <v>9.7520000000000007</v>
-      </c>
-      <c r="M446" s="5">
-        <v>475.55099999999999</v>
+      <c r="L446" s="7">
+        <v>9752</v>
+      </c>
+      <c r="M446" s="7">
+        <v>475551</v>
+      </c>
+    </row>
+    <row r="447" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A447" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="448" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A448" s="10" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A317:B317"/>
+    <mergeCell ref="A343:B343"/>
+    <mergeCell ref="A369:B369"/>
+    <mergeCell ref="A395:B395"/>
+    <mergeCell ref="A421:B421"/>
+    <mergeCell ref="A4:M4"/>
+    <mergeCell ref="A161:B161"/>
+    <mergeCell ref="A187:B187"/>
+    <mergeCell ref="A213:B213"/>
+    <mergeCell ref="A239:B239"/>
     <mergeCell ref="A265:B265"/>
     <mergeCell ref="A291:B291"/>
     <mergeCell ref="A5:B5"/>
@@ -18749,16 +18783,6 @@
     <mergeCell ref="A83:B83"/>
     <mergeCell ref="A109:B109"/>
     <mergeCell ref="A135:B135"/>
-    <mergeCell ref="A4:M4"/>
-    <mergeCell ref="A161:B161"/>
-    <mergeCell ref="A187:B187"/>
-    <mergeCell ref="A213:B213"/>
-    <mergeCell ref="A239:B239"/>
-    <mergeCell ref="A317:B317"/>
-    <mergeCell ref="A343:B343"/>
-    <mergeCell ref="A369:B369"/>
-    <mergeCell ref="A395:B395"/>
-    <mergeCell ref="A421:B421"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
